--- a/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0160/1/template_RP0160.xlsx
+++ b/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0160/1/template_RP0160.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AS8710701\Desktop\中牟田フォルダ\04_メンテナンス\20220701_TMQ\TMQ\CommonTemplate\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0160\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TMQ\CommonTemplate\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0160\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B085D52-0BF1-4F69-99C2-09A7B61CE80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F4F3FD-9A2B-4AE4-8AE1-F3A4F31E1682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="故障原因分析書" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
   <si>
     <t>故障原因分析書</t>
     <rPh sb="0" eb="2">
@@ -742,190 +742,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>@故障状況１</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障状況２</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障状況３</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障状況４</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障状況５</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障状況６</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障状況７</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障状況８</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障原因１</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゲンイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障原因２</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゲンイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障原因３</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゲンイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障原因４</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゲンイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障原因５</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゲンイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障原因６</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゲンイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障原因７</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゲンイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障原因８</t>
-    <rPh sb="1" eb="3">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゲンイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障前の保全実施状況１</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障前の保全実施状況２</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障前の保全実施状況３</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障前の保全実施状況４</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障前の保全実施状況５</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@故障前の保全実施状況６</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>@略図</t>
     <rPh sb="1" eb="3">
       <t>リャクズ</t>
@@ -933,82 +749,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>@復旧処置１</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@復旧処置２</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@復旧処置３</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@復旧処置４</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@復旧処置５</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@復旧処置６</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@復旧処置７</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@復旧処置８</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@改善対策１</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@改善対策２</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@改善対策３</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@改善対策４</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@改善対策５</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@改善対策６</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@改善対策７</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@改善対策８</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@保全システムへのフィードバック１</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@保全システムへのフィードバック２</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@保全システムへのフィードバック３</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>@教訓</t>
     <rPh sb="1" eb="3">
       <t>キョウクン</t>
@@ -1091,14 +831,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>@特記（メモ）１</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@特記（メモ）２</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>@設備名</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1108,6 +840,46 @@
       <t>カンリョウビ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>@故障状況</t>
+    <rPh sb="1" eb="3">
+      <t>コショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>@故障原因</t>
+    <rPh sb="1" eb="3">
+      <t>コショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲンイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>@故障前の保全実施状況</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>@復旧処置</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>@改善対策</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>@保全システムへのフィードバック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>@特記（メモ）</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1799,7 +1571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1899,6 +1671,174 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="34" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1908,12 +1848,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1921,9 +1855,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1953,164 +1884,8 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="34" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="35" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="37" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="34" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2190,15 +1965,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2257,13 +2032,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2324,13 +2099,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2393,13 +2168,13 @@
           <xdr:col>30</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>31</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2464,7 +2239,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>31</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2531,7 +2306,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>31</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2592,15 +2367,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>133350</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>25</xdr:col>
-          <xdr:colOff>182880</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2661,13 +2436,13 @@
           <xdr:col>30</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>31</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2726,15 +2501,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>48</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>50</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2793,15 +2568,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>51</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>53</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2862,13 +2637,13 @@
           <xdr:col>25</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>26</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2929,13 +2704,13 @@
           <xdr:col>30</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>31</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2994,15 +2769,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3327,1352 +3102,1352 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="2.796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4" max="7" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.796875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10" max="13" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="2.796875" style="2" customWidth="1"/>
-    <col min="15" max="17" width="1.69921875" style="2" customWidth="1"/>
-    <col min="18" max="20" width="3.09765625" style="2" customWidth="1"/>
-    <col min="21" max="22" width="2.796875" style="2" customWidth="1"/>
-    <col min="23" max="25" width="1.69921875" style="2" customWidth="1"/>
-    <col min="26" max="28" width="3.09765625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="2.796875" style="2" customWidth="1"/>
-    <col min="30" max="30" width="1.69921875" style="2" customWidth="1"/>
-    <col min="31" max="33" width="3.09765625" style="2" customWidth="1"/>
-    <col min="34" max="37" width="1.69921875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="2.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="1.75" style="2" customWidth="1"/>
+    <col min="4" max="7" width="3.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.75" style="2" customWidth="1"/>
+    <col min="10" max="13" width="3.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="2.75" style="2" customWidth="1"/>
+    <col min="15" max="17" width="1.75" style="2" customWidth="1"/>
+    <col min="18" max="20" width="3.125" style="2" customWidth="1"/>
+    <col min="21" max="22" width="2.75" style="2" customWidth="1"/>
+    <col min="23" max="25" width="1.75" style="2" customWidth="1"/>
+    <col min="26" max="28" width="3.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="2.75" style="2" customWidth="1"/>
+    <col min="30" max="30" width="1.75" style="2" customWidth="1"/>
+    <col min="31" max="33" width="3.125" style="2" customWidth="1"/>
+    <col min="34" max="37" width="1.75" style="2" customWidth="1"/>
     <col min="38" max="38" width="1.5" style="2" customWidth="1"/>
-    <col min="39" max="74" width="1.69921875" style="2" customWidth="1"/>
-    <col min="75" max="108" width="2.796875" style="2" customWidth="1"/>
-    <col min="109" max="123" width="2.59765625" style="2" customWidth="1"/>
-    <col min="124" max="256" width="8.09765625" style="2"/>
-    <col min="257" max="258" width="2.796875" style="2" customWidth="1"/>
-    <col min="259" max="259" width="1.69921875" style="2" customWidth="1"/>
-    <col min="260" max="263" width="3.09765625" style="2" customWidth="1"/>
-    <col min="264" max="264" width="2.796875" style="2" customWidth="1"/>
-    <col min="265" max="265" width="1.69921875" style="2" customWidth="1"/>
-    <col min="266" max="269" width="3.09765625" style="2" customWidth="1"/>
-    <col min="270" max="270" width="2.796875" style="2" customWidth="1"/>
-    <col min="271" max="273" width="1.69921875" style="2" customWidth="1"/>
-    <col min="274" max="276" width="3.09765625" style="2" customWidth="1"/>
-    <col min="277" max="278" width="2.796875" style="2" customWidth="1"/>
-    <col min="279" max="281" width="1.69921875" style="2" customWidth="1"/>
-    <col min="282" max="284" width="3.09765625" style="2" customWidth="1"/>
-    <col min="285" max="285" width="2.796875" style="2" customWidth="1"/>
-    <col min="286" max="286" width="1.69921875" style="2" customWidth="1"/>
-    <col min="287" max="289" width="3.09765625" style="2" customWidth="1"/>
-    <col min="290" max="293" width="1.69921875" style="2" customWidth="1"/>
+    <col min="39" max="74" width="1.75" style="2" customWidth="1"/>
+    <col min="75" max="108" width="2.75" style="2" customWidth="1"/>
+    <col min="109" max="123" width="2.625" style="2" customWidth="1"/>
+    <col min="124" max="256" width="8.125" style="2"/>
+    <col min="257" max="258" width="2.75" style="2" customWidth="1"/>
+    <col min="259" max="259" width="1.75" style="2" customWidth="1"/>
+    <col min="260" max="263" width="3.125" style="2" customWidth="1"/>
+    <col min="264" max="264" width="2.75" style="2" customWidth="1"/>
+    <col min="265" max="265" width="1.75" style="2" customWidth="1"/>
+    <col min="266" max="269" width="3.125" style="2" customWidth="1"/>
+    <col min="270" max="270" width="2.75" style="2" customWidth="1"/>
+    <col min="271" max="273" width="1.75" style="2" customWidth="1"/>
+    <col min="274" max="276" width="3.125" style="2" customWidth="1"/>
+    <col min="277" max="278" width="2.75" style="2" customWidth="1"/>
+    <col min="279" max="281" width="1.75" style="2" customWidth="1"/>
+    <col min="282" max="284" width="3.125" style="2" customWidth="1"/>
+    <col min="285" max="285" width="2.75" style="2" customWidth="1"/>
+    <col min="286" max="286" width="1.75" style="2" customWidth="1"/>
+    <col min="287" max="289" width="3.125" style="2" customWidth="1"/>
+    <col min="290" max="293" width="1.75" style="2" customWidth="1"/>
     <col min="294" max="294" width="1.5" style="2" customWidth="1"/>
-    <col min="295" max="330" width="1.69921875" style="2" customWidth="1"/>
-    <col min="331" max="364" width="2.796875" style="2" customWidth="1"/>
-    <col min="365" max="379" width="2.59765625" style="2" customWidth="1"/>
-    <col min="380" max="512" width="8.09765625" style="2"/>
-    <col min="513" max="514" width="2.796875" style="2" customWidth="1"/>
-    <col min="515" max="515" width="1.69921875" style="2" customWidth="1"/>
-    <col min="516" max="519" width="3.09765625" style="2" customWidth="1"/>
-    <col min="520" max="520" width="2.796875" style="2" customWidth="1"/>
-    <col min="521" max="521" width="1.69921875" style="2" customWidth="1"/>
-    <col min="522" max="525" width="3.09765625" style="2" customWidth="1"/>
-    <col min="526" max="526" width="2.796875" style="2" customWidth="1"/>
-    <col min="527" max="529" width="1.69921875" style="2" customWidth="1"/>
-    <col min="530" max="532" width="3.09765625" style="2" customWidth="1"/>
-    <col min="533" max="534" width="2.796875" style="2" customWidth="1"/>
-    <col min="535" max="537" width="1.69921875" style="2" customWidth="1"/>
-    <col min="538" max="540" width="3.09765625" style="2" customWidth="1"/>
-    <col min="541" max="541" width="2.796875" style="2" customWidth="1"/>
-    <col min="542" max="542" width="1.69921875" style="2" customWidth="1"/>
-    <col min="543" max="545" width="3.09765625" style="2" customWidth="1"/>
-    <col min="546" max="549" width="1.69921875" style="2" customWidth="1"/>
+    <col min="295" max="330" width="1.75" style="2" customWidth="1"/>
+    <col min="331" max="364" width="2.75" style="2" customWidth="1"/>
+    <col min="365" max="379" width="2.625" style="2" customWidth="1"/>
+    <col min="380" max="512" width="8.125" style="2"/>
+    <col min="513" max="514" width="2.75" style="2" customWidth="1"/>
+    <col min="515" max="515" width="1.75" style="2" customWidth="1"/>
+    <col min="516" max="519" width="3.125" style="2" customWidth="1"/>
+    <col min="520" max="520" width="2.75" style="2" customWidth="1"/>
+    <col min="521" max="521" width="1.75" style="2" customWidth="1"/>
+    <col min="522" max="525" width="3.125" style="2" customWidth="1"/>
+    <col min="526" max="526" width="2.75" style="2" customWidth="1"/>
+    <col min="527" max="529" width="1.75" style="2" customWidth="1"/>
+    <col min="530" max="532" width="3.125" style="2" customWidth="1"/>
+    <col min="533" max="534" width="2.75" style="2" customWidth="1"/>
+    <col min="535" max="537" width="1.75" style="2" customWidth="1"/>
+    <col min="538" max="540" width="3.125" style="2" customWidth="1"/>
+    <col min="541" max="541" width="2.75" style="2" customWidth="1"/>
+    <col min="542" max="542" width="1.75" style="2" customWidth="1"/>
+    <col min="543" max="545" width="3.125" style="2" customWidth="1"/>
+    <col min="546" max="549" width="1.75" style="2" customWidth="1"/>
     <col min="550" max="550" width="1.5" style="2" customWidth="1"/>
-    <col min="551" max="586" width="1.69921875" style="2" customWidth="1"/>
-    <col min="587" max="620" width="2.796875" style="2" customWidth="1"/>
-    <col min="621" max="635" width="2.59765625" style="2" customWidth="1"/>
-    <col min="636" max="768" width="8.09765625" style="2"/>
-    <col min="769" max="770" width="2.796875" style="2" customWidth="1"/>
-    <col min="771" max="771" width="1.69921875" style="2" customWidth="1"/>
-    <col min="772" max="775" width="3.09765625" style="2" customWidth="1"/>
-    <col min="776" max="776" width="2.796875" style="2" customWidth="1"/>
-    <col min="777" max="777" width="1.69921875" style="2" customWidth="1"/>
-    <col min="778" max="781" width="3.09765625" style="2" customWidth="1"/>
-    <col min="782" max="782" width="2.796875" style="2" customWidth="1"/>
-    <col min="783" max="785" width="1.69921875" style="2" customWidth="1"/>
-    <col min="786" max="788" width="3.09765625" style="2" customWidth="1"/>
-    <col min="789" max="790" width="2.796875" style="2" customWidth="1"/>
-    <col min="791" max="793" width="1.69921875" style="2" customWidth="1"/>
-    <col min="794" max="796" width="3.09765625" style="2" customWidth="1"/>
-    <col min="797" max="797" width="2.796875" style="2" customWidth="1"/>
-    <col min="798" max="798" width="1.69921875" style="2" customWidth="1"/>
-    <col min="799" max="801" width="3.09765625" style="2" customWidth="1"/>
-    <col min="802" max="805" width="1.69921875" style="2" customWidth="1"/>
+    <col min="551" max="586" width="1.75" style="2" customWidth="1"/>
+    <col min="587" max="620" width="2.75" style="2" customWidth="1"/>
+    <col min="621" max="635" width="2.625" style="2" customWidth="1"/>
+    <col min="636" max="768" width="8.125" style="2"/>
+    <col min="769" max="770" width="2.75" style="2" customWidth="1"/>
+    <col min="771" max="771" width="1.75" style="2" customWidth="1"/>
+    <col min="772" max="775" width="3.125" style="2" customWidth="1"/>
+    <col min="776" max="776" width="2.75" style="2" customWidth="1"/>
+    <col min="777" max="777" width="1.75" style="2" customWidth="1"/>
+    <col min="778" max="781" width="3.125" style="2" customWidth="1"/>
+    <col min="782" max="782" width="2.75" style="2" customWidth="1"/>
+    <col min="783" max="785" width="1.75" style="2" customWidth="1"/>
+    <col min="786" max="788" width="3.125" style="2" customWidth="1"/>
+    <col min="789" max="790" width="2.75" style="2" customWidth="1"/>
+    <col min="791" max="793" width="1.75" style="2" customWidth="1"/>
+    <col min="794" max="796" width="3.125" style="2" customWidth="1"/>
+    <col min="797" max="797" width="2.75" style="2" customWidth="1"/>
+    <col min="798" max="798" width="1.75" style="2" customWidth="1"/>
+    <col min="799" max="801" width="3.125" style="2" customWidth="1"/>
+    <col min="802" max="805" width="1.75" style="2" customWidth="1"/>
     <col min="806" max="806" width="1.5" style="2" customWidth="1"/>
-    <col min="807" max="842" width="1.69921875" style="2" customWidth="1"/>
-    <col min="843" max="876" width="2.796875" style="2" customWidth="1"/>
-    <col min="877" max="891" width="2.59765625" style="2" customWidth="1"/>
-    <col min="892" max="1024" width="8.09765625" style="2"/>
-    <col min="1025" max="1026" width="2.796875" style="2" customWidth="1"/>
-    <col min="1027" max="1027" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1028" max="1031" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1032" max="1032" width="2.796875" style="2" customWidth="1"/>
-    <col min="1033" max="1033" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1034" max="1037" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1038" max="1038" width="2.796875" style="2" customWidth="1"/>
-    <col min="1039" max="1041" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1042" max="1044" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1045" max="1046" width="2.796875" style="2" customWidth="1"/>
-    <col min="1047" max="1049" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1050" max="1052" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1053" max="1053" width="2.796875" style="2" customWidth="1"/>
-    <col min="1054" max="1054" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1055" max="1057" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1058" max="1061" width="1.69921875" style="2" customWidth="1"/>
+    <col min="807" max="842" width="1.75" style="2" customWidth="1"/>
+    <col min="843" max="876" width="2.75" style="2" customWidth="1"/>
+    <col min="877" max="891" width="2.625" style="2" customWidth="1"/>
+    <col min="892" max="1024" width="8.125" style="2"/>
+    <col min="1025" max="1026" width="2.75" style="2" customWidth="1"/>
+    <col min="1027" max="1027" width="1.75" style="2" customWidth="1"/>
+    <col min="1028" max="1031" width="3.125" style="2" customWidth="1"/>
+    <col min="1032" max="1032" width="2.75" style="2" customWidth="1"/>
+    <col min="1033" max="1033" width="1.75" style="2" customWidth="1"/>
+    <col min="1034" max="1037" width="3.125" style="2" customWidth="1"/>
+    <col min="1038" max="1038" width="2.75" style="2" customWidth="1"/>
+    <col min="1039" max="1041" width="1.75" style="2" customWidth="1"/>
+    <col min="1042" max="1044" width="3.125" style="2" customWidth="1"/>
+    <col min="1045" max="1046" width="2.75" style="2" customWidth="1"/>
+    <col min="1047" max="1049" width="1.75" style="2" customWidth="1"/>
+    <col min="1050" max="1052" width="3.125" style="2" customWidth="1"/>
+    <col min="1053" max="1053" width="2.75" style="2" customWidth="1"/>
+    <col min="1054" max="1054" width="1.75" style="2" customWidth="1"/>
+    <col min="1055" max="1057" width="3.125" style="2" customWidth="1"/>
+    <col min="1058" max="1061" width="1.75" style="2" customWidth="1"/>
     <col min="1062" max="1062" width="1.5" style="2" customWidth="1"/>
-    <col min="1063" max="1098" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1099" max="1132" width="2.796875" style="2" customWidth="1"/>
-    <col min="1133" max="1147" width="2.59765625" style="2" customWidth="1"/>
-    <col min="1148" max="1280" width="8.09765625" style="2"/>
-    <col min="1281" max="1282" width="2.796875" style="2" customWidth="1"/>
-    <col min="1283" max="1283" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1284" max="1287" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1288" max="1288" width="2.796875" style="2" customWidth="1"/>
-    <col min="1289" max="1289" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1290" max="1293" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1294" max="1294" width="2.796875" style="2" customWidth="1"/>
-    <col min="1295" max="1297" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1298" max="1300" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1301" max="1302" width="2.796875" style="2" customWidth="1"/>
-    <col min="1303" max="1305" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1306" max="1308" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1309" max="1309" width="2.796875" style="2" customWidth="1"/>
-    <col min="1310" max="1310" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1311" max="1313" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1314" max="1317" width="1.69921875" style="2" customWidth="1"/>
+    <col min="1063" max="1098" width="1.75" style="2" customWidth="1"/>
+    <col min="1099" max="1132" width="2.75" style="2" customWidth="1"/>
+    <col min="1133" max="1147" width="2.625" style="2" customWidth="1"/>
+    <col min="1148" max="1280" width="8.125" style="2"/>
+    <col min="1281" max="1282" width="2.75" style="2" customWidth="1"/>
+    <col min="1283" max="1283" width="1.75" style="2" customWidth="1"/>
+    <col min="1284" max="1287" width="3.125" style="2" customWidth="1"/>
+    <col min="1288" max="1288" width="2.75" style="2" customWidth="1"/>
+    <col min="1289" max="1289" width="1.75" style="2" customWidth="1"/>
+    <col min="1290" max="1293" width="3.125" style="2" customWidth="1"/>
+    <col min="1294" max="1294" width="2.75" style="2" customWidth="1"/>
+    <col min="1295" max="1297" width="1.75" style="2" customWidth="1"/>
+    <col min="1298" max="1300" width="3.125" style="2" customWidth="1"/>
+    <col min="1301" max="1302" width="2.75" style="2" customWidth="1"/>
+    <col min="1303" max="1305" width="1.75" style="2" customWidth="1"/>
+    <col min="1306" max="1308" width="3.125" style="2" customWidth="1"/>
+    <col min="1309" max="1309" width="2.75" style="2" customWidth="1"/>
+    <col min="1310" max="1310" width="1.75" style="2" customWidth="1"/>
+    <col min="1311" max="1313" width="3.125" style="2" customWidth="1"/>
+    <col min="1314" max="1317" width="1.75" style="2" customWidth="1"/>
     <col min="1318" max="1318" width="1.5" style="2" customWidth="1"/>
-    <col min="1319" max="1354" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1355" max="1388" width="2.796875" style="2" customWidth="1"/>
-    <col min="1389" max="1403" width="2.59765625" style="2" customWidth="1"/>
-    <col min="1404" max="1536" width="8.09765625" style="2"/>
-    <col min="1537" max="1538" width="2.796875" style="2" customWidth="1"/>
-    <col min="1539" max="1539" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1540" max="1543" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1544" max="1544" width="2.796875" style="2" customWidth="1"/>
-    <col min="1545" max="1545" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1546" max="1549" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1550" max="1550" width="2.796875" style="2" customWidth="1"/>
-    <col min="1551" max="1553" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1554" max="1556" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1557" max="1558" width="2.796875" style="2" customWidth="1"/>
-    <col min="1559" max="1561" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1562" max="1564" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1565" max="1565" width="2.796875" style="2" customWidth="1"/>
-    <col min="1566" max="1566" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1567" max="1569" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1570" max="1573" width="1.69921875" style="2" customWidth="1"/>
+    <col min="1319" max="1354" width="1.75" style="2" customWidth="1"/>
+    <col min="1355" max="1388" width="2.75" style="2" customWidth="1"/>
+    <col min="1389" max="1403" width="2.625" style="2" customWidth="1"/>
+    <col min="1404" max="1536" width="8.125" style="2"/>
+    <col min="1537" max="1538" width="2.75" style="2" customWidth="1"/>
+    <col min="1539" max="1539" width="1.75" style="2" customWidth="1"/>
+    <col min="1540" max="1543" width="3.125" style="2" customWidth="1"/>
+    <col min="1544" max="1544" width="2.75" style="2" customWidth="1"/>
+    <col min="1545" max="1545" width="1.75" style="2" customWidth="1"/>
+    <col min="1546" max="1549" width="3.125" style="2" customWidth="1"/>
+    <col min="1550" max="1550" width="2.75" style="2" customWidth="1"/>
+    <col min="1551" max="1553" width="1.75" style="2" customWidth="1"/>
+    <col min="1554" max="1556" width="3.125" style="2" customWidth="1"/>
+    <col min="1557" max="1558" width="2.75" style="2" customWidth="1"/>
+    <col min="1559" max="1561" width="1.75" style="2" customWidth="1"/>
+    <col min="1562" max="1564" width="3.125" style="2" customWidth="1"/>
+    <col min="1565" max="1565" width="2.75" style="2" customWidth="1"/>
+    <col min="1566" max="1566" width="1.75" style="2" customWidth="1"/>
+    <col min="1567" max="1569" width="3.125" style="2" customWidth="1"/>
+    <col min="1570" max="1573" width="1.75" style="2" customWidth="1"/>
     <col min="1574" max="1574" width="1.5" style="2" customWidth="1"/>
-    <col min="1575" max="1610" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1611" max="1644" width="2.796875" style="2" customWidth="1"/>
-    <col min="1645" max="1659" width="2.59765625" style="2" customWidth="1"/>
-    <col min="1660" max="1792" width="8.09765625" style="2"/>
-    <col min="1793" max="1794" width="2.796875" style="2" customWidth="1"/>
-    <col min="1795" max="1795" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1796" max="1799" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1800" max="1800" width="2.796875" style="2" customWidth="1"/>
-    <col min="1801" max="1801" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1802" max="1805" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1806" max="1806" width="2.796875" style="2" customWidth="1"/>
-    <col min="1807" max="1809" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1810" max="1812" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1813" max="1814" width="2.796875" style="2" customWidth="1"/>
-    <col min="1815" max="1817" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1818" max="1820" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1821" max="1821" width="2.796875" style="2" customWidth="1"/>
-    <col min="1822" max="1822" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1823" max="1825" width="3.09765625" style="2" customWidth="1"/>
-    <col min="1826" max="1829" width="1.69921875" style="2" customWidth="1"/>
+    <col min="1575" max="1610" width="1.75" style="2" customWidth="1"/>
+    <col min="1611" max="1644" width="2.75" style="2" customWidth="1"/>
+    <col min="1645" max="1659" width="2.625" style="2" customWidth="1"/>
+    <col min="1660" max="1792" width="8.125" style="2"/>
+    <col min="1793" max="1794" width="2.75" style="2" customWidth="1"/>
+    <col min="1795" max="1795" width="1.75" style="2" customWidth="1"/>
+    <col min="1796" max="1799" width="3.125" style="2" customWidth="1"/>
+    <col min="1800" max="1800" width="2.75" style="2" customWidth="1"/>
+    <col min="1801" max="1801" width="1.75" style="2" customWidth="1"/>
+    <col min="1802" max="1805" width="3.125" style="2" customWidth="1"/>
+    <col min="1806" max="1806" width="2.75" style="2" customWidth="1"/>
+    <col min="1807" max="1809" width="1.75" style="2" customWidth="1"/>
+    <col min="1810" max="1812" width="3.125" style="2" customWidth="1"/>
+    <col min="1813" max="1814" width="2.75" style="2" customWidth="1"/>
+    <col min="1815" max="1817" width="1.75" style="2" customWidth="1"/>
+    <col min="1818" max="1820" width="3.125" style="2" customWidth="1"/>
+    <col min="1821" max="1821" width="2.75" style="2" customWidth="1"/>
+    <col min="1822" max="1822" width="1.75" style="2" customWidth="1"/>
+    <col min="1823" max="1825" width="3.125" style="2" customWidth="1"/>
+    <col min="1826" max="1829" width="1.75" style="2" customWidth="1"/>
     <col min="1830" max="1830" width="1.5" style="2" customWidth="1"/>
-    <col min="1831" max="1866" width="1.69921875" style="2" customWidth="1"/>
-    <col min="1867" max="1900" width="2.796875" style="2" customWidth="1"/>
-    <col min="1901" max="1915" width="2.59765625" style="2" customWidth="1"/>
-    <col min="1916" max="2048" width="8.09765625" style="2"/>
-    <col min="2049" max="2050" width="2.796875" style="2" customWidth="1"/>
-    <col min="2051" max="2051" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2052" max="2055" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2056" max="2056" width="2.796875" style="2" customWidth="1"/>
-    <col min="2057" max="2057" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2058" max="2061" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2062" max="2062" width="2.796875" style="2" customWidth="1"/>
-    <col min="2063" max="2065" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2066" max="2068" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2069" max="2070" width="2.796875" style="2" customWidth="1"/>
-    <col min="2071" max="2073" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2074" max="2076" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2077" max="2077" width="2.796875" style="2" customWidth="1"/>
-    <col min="2078" max="2078" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2079" max="2081" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2082" max="2085" width="1.69921875" style="2" customWidth="1"/>
+    <col min="1831" max="1866" width="1.75" style="2" customWidth="1"/>
+    <col min="1867" max="1900" width="2.75" style="2" customWidth="1"/>
+    <col min="1901" max="1915" width="2.625" style="2" customWidth="1"/>
+    <col min="1916" max="2048" width="8.125" style="2"/>
+    <col min="2049" max="2050" width="2.75" style="2" customWidth="1"/>
+    <col min="2051" max="2051" width="1.75" style="2" customWidth="1"/>
+    <col min="2052" max="2055" width="3.125" style="2" customWidth="1"/>
+    <col min="2056" max="2056" width="2.75" style="2" customWidth="1"/>
+    <col min="2057" max="2057" width="1.75" style="2" customWidth="1"/>
+    <col min="2058" max="2061" width="3.125" style="2" customWidth="1"/>
+    <col min="2062" max="2062" width="2.75" style="2" customWidth="1"/>
+    <col min="2063" max="2065" width="1.75" style="2" customWidth="1"/>
+    <col min="2066" max="2068" width="3.125" style="2" customWidth="1"/>
+    <col min="2069" max="2070" width="2.75" style="2" customWidth="1"/>
+    <col min="2071" max="2073" width="1.75" style="2" customWidth="1"/>
+    <col min="2074" max="2076" width="3.125" style="2" customWidth="1"/>
+    <col min="2077" max="2077" width="2.75" style="2" customWidth="1"/>
+    <col min="2078" max="2078" width="1.75" style="2" customWidth="1"/>
+    <col min="2079" max="2081" width="3.125" style="2" customWidth="1"/>
+    <col min="2082" max="2085" width="1.75" style="2" customWidth="1"/>
     <col min="2086" max="2086" width="1.5" style="2" customWidth="1"/>
-    <col min="2087" max="2122" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2123" max="2156" width="2.796875" style="2" customWidth="1"/>
-    <col min="2157" max="2171" width="2.59765625" style="2" customWidth="1"/>
-    <col min="2172" max="2304" width="8.09765625" style="2"/>
-    <col min="2305" max="2306" width="2.796875" style="2" customWidth="1"/>
-    <col min="2307" max="2307" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2308" max="2311" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2312" max="2312" width="2.796875" style="2" customWidth="1"/>
-    <col min="2313" max="2313" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2314" max="2317" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2318" max="2318" width="2.796875" style="2" customWidth="1"/>
-    <col min="2319" max="2321" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2322" max="2324" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2325" max="2326" width="2.796875" style="2" customWidth="1"/>
-    <col min="2327" max="2329" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2330" max="2332" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2333" max="2333" width="2.796875" style="2" customWidth="1"/>
-    <col min="2334" max="2334" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2335" max="2337" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2338" max="2341" width="1.69921875" style="2" customWidth="1"/>
+    <col min="2087" max="2122" width="1.75" style="2" customWidth="1"/>
+    <col min="2123" max="2156" width="2.75" style="2" customWidth="1"/>
+    <col min="2157" max="2171" width="2.625" style="2" customWidth="1"/>
+    <col min="2172" max="2304" width="8.125" style="2"/>
+    <col min="2305" max="2306" width="2.75" style="2" customWidth="1"/>
+    <col min="2307" max="2307" width="1.75" style="2" customWidth="1"/>
+    <col min="2308" max="2311" width="3.125" style="2" customWidth="1"/>
+    <col min="2312" max="2312" width="2.75" style="2" customWidth="1"/>
+    <col min="2313" max="2313" width="1.75" style="2" customWidth="1"/>
+    <col min="2314" max="2317" width="3.125" style="2" customWidth="1"/>
+    <col min="2318" max="2318" width="2.75" style="2" customWidth="1"/>
+    <col min="2319" max="2321" width="1.75" style="2" customWidth="1"/>
+    <col min="2322" max="2324" width="3.125" style="2" customWidth="1"/>
+    <col min="2325" max="2326" width="2.75" style="2" customWidth="1"/>
+    <col min="2327" max="2329" width="1.75" style="2" customWidth="1"/>
+    <col min="2330" max="2332" width="3.125" style="2" customWidth="1"/>
+    <col min="2333" max="2333" width="2.75" style="2" customWidth="1"/>
+    <col min="2334" max="2334" width="1.75" style="2" customWidth="1"/>
+    <col min="2335" max="2337" width="3.125" style="2" customWidth="1"/>
+    <col min="2338" max="2341" width="1.75" style="2" customWidth="1"/>
     <col min="2342" max="2342" width="1.5" style="2" customWidth="1"/>
-    <col min="2343" max="2378" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2379" max="2412" width="2.796875" style="2" customWidth="1"/>
-    <col min="2413" max="2427" width="2.59765625" style="2" customWidth="1"/>
-    <col min="2428" max="2560" width="8.09765625" style="2"/>
-    <col min="2561" max="2562" width="2.796875" style="2" customWidth="1"/>
-    <col min="2563" max="2563" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2564" max="2567" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2568" max="2568" width="2.796875" style="2" customWidth="1"/>
-    <col min="2569" max="2569" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2570" max="2573" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2574" max="2574" width="2.796875" style="2" customWidth="1"/>
-    <col min="2575" max="2577" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2578" max="2580" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2581" max="2582" width="2.796875" style="2" customWidth="1"/>
-    <col min="2583" max="2585" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2586" max="2588" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2589" max="2589" width="2.796875" style="2" customWidth="1"/>
-    <col min="2590" max="2590" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2591" max="2593" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2594" max="2597" width="1.69921875" style="2" customWidth="1"/>
+    <col min="2343" max="2378" width="1.75" style="2" customWidth="1"/>
+    <col min="2379" max="2412" width="2.75" style="2" customWidth="1"/>
+    <col min="2413" max="2427" width="2.625" style="2" customWidth="1"/>
+    <col min="2428" max="2560" width="8.125" style="2"/>
+    <col min="2561" max="2562" width="2.75" style="2" customWidth="1"/>
+    <col min="2563" max="2563" width="1.75" style="2" customWidth="1"/>
+    <col min="2564" max="2567" width="3.125" style="2" customWidth="1"/>
+    <col min="2568" max="2568" width="2.75" style="2" customWidth="1"/>
+    <col min="2569" max="2569" width="1.75" style="2" customWidth="1"/>
+    <col min="2570" max="2573" width="3.125" style="2" customWidth="1"/>
+    <col min="2574" max="2574" width="2.75" style="2" customWidth="1"/>
+    <col min="2575" max="2577" width="1.75" style="2" customWidth="1"/>
+    <col min="2578" max="2580" width="3.125" style="2" customWidth="1"/>
+    <col min="2581" max="2582" width="2.75" style="2" customWidth="1"/>
+    <col min="2583" max="2585" width="1.75" style="2" customWidth="1"/>
+    <col min="2586" max="2588" width="3.125" style="2" customWidth="1"/>
+    <col min="2589" max="2589" width="2.75" style="2" customWidth="1"/>
+    <col min="2590" max="2590" width="1.75" style="2" customWidth="1"/>
+    <col min="2591" max="2593" width="3.125" style="2" customWidth="1"/>
+    <col min="2594" max="2597" width="1.75" style="2" customWidth="1"/>
     <col min="2598" max="2598" width="1.5" style="2" customWidth="1"/>
-    <col min="2599" max="2634" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2635" max="2668" width="2.796875" style="2" customWidth="1"/>
-    <col min="2669" max="2683" width="2.59765625" style="2" customWidth="1"/>
-    <col min="2684" max="2816" width="8.09765625" style="2"/>
-    <col min="2817" max="2818" width="2.796875" style="2" customWidth="1"/>
-    <col min="2819" max="2819" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2820" max="2823" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2824" max="2824" width="2.796875" style="2" customWidth="1"/>
-    <col min="2825" max="2825" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2826" max="2829" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2830" max="2830" width="2.796875" style="2" customWidth="1"/>
-    <col min="2831" max="2833" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2834" max="2836" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2837" max="2838" width="2.796875" style="2" customWidth="1"/>
-    <col min="2839" max="2841" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2842" max="2844" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2845" max="2845" width="2.796875" style="2" customWidth="1"/>
-    <col min="2846" max="2846" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2847" max="2849" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2850" max="2853" width="1.69921875" style="2" customWidth="1"/>
+    <col min="2599" max="2634" width="1.75" style="2" customWidth="1"/>
+    <col min="2635" max="2668" width="2.75" style="2" customWidth="1"/>
+    <col min="2669" max="2683" width="2.625" style="2" customWidth="1"/>
+    <col min="2684" max="2816" width="8.125" style="2"/>
+    <col min="2817" max="2818" width="2.75" style="2" customWidth="1"/>
+    <col min="2819" max="2819" width="1.75" style="2" customWidth="1"/>
+    <col min="2820" max="2823" width="3.125" style="2" customWidth="1"/>
+    <col min="2824" max="2824" width="2.75" style="2" customWidth="1"/>
+    <col min="2825" max="2825" width="1.75" style="2" customWidth="1"/>
+    <col min="2826" max="2829" width="3.125" style="2" customWidth="1"/>
+    <col min="2830" max="2830" width="2.75" style="2" customWidth="1"/>
+    <col min="2831" max="2833" width="1.75" style="2" customWidth="1"/>
+    <col min="2834" max="2836" width="3.125" style="2" customWidth="1"/>
+    <col min="2837" max="2838" width="2.75" style="2" customWidth="1"/>
+    <col min="2839" max="2841" width="1.75" style="2" customWidth="1"/>
+    <col min="2842" max="2844" width="3.125" style="2" customWidth="1"/>
+    <col min="2845" max="2845" width="2.75" style="2" customWidth="1"/>
+    <col min="2846" max="2846" width="1.75" style="2" customWidth="1"/>
+    <col min="2847" max="2849" width="3.125" style="2" customWidth="1"/>
+    <col min="2850" max="2853" width="1.75" style="2" customWidth="1"/>
     <col min="2854" max="2854" width="1.5" style="2" customWidth="1"/>
-    <col min="2855" max="2890" width="1.69921875" style="2" customWidth="1"/>
-    <col min="2891" max="2924" width="2.796875" style="2" customWidth="1"/>
-    <col min="2925" max="2939" width="2.59765625" style="2" customWidth="1"/>
-    <col min="2940" max="3072" width="8.09765625" style="2"/>
-    <col min="3073" max="3074" width="2.796875" style="2" customWidth="1"/>
-    <col min="3075" max="3075" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3076" max="3079" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3080" max="3080" width="2.796875" style="2" customWidth="1"/>
-    <col min="3081" max="3081" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3082" max="3085" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3086" max="3086" width="2.796875" style="2" customWidth="1"/>
-    <col min="3087" max="3089" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3090" max="3092" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3093" max="3094" width="2.796875" style="2" customWidth="1"/>
-    <col min="3095" max="3097" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3098" max="3100" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3101" max="3101" width="2.796875" style="2" customWidth="1"/>
-    <col min="3102" max="3102" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3103" max="3105" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3106" max="3109" width="1.69921875" style="2" customWidth="1"/>
+    <col min="2855" max="2890" width="1.75" style="2" customWidth="1"/>
+    <col min="2891" max="2924" width="2.75" style="2" customWidth="1"/>
+    <col min="2925" max="2939" width="2.625" style="2" customWidth="1"/>
+    <col min="2940" max="3072" width="8.125" style="2"/>
+    <col min="3073" max="3074" width="2.75" style="2" customWidth="1"/>
+    <col min="3075" max="3075" width="1.75" style="2" customWidth="1"/>
+    <col min="3076" max="3079" width="3.125" style="2" customWidth="1"/>
+    <col min="3080" max="3080" width="2.75" style="2" customWidth="1"/>
+    <col min="3081" max="3081" width="1.75" style="2" customWidth="1"/>
+    <col min="3082" max="3085" width="3.125" style="2" customWidth="1"/>
+    <col min="3086" max="3086" width="2.75" style="2" customWidth="1"/>
+    <col min="3087" max="3089" width="1.75" style="2" customWidth="1"/>
+    <col min="3090" max="3092" width="3.125" style="2" customWidth="1"/>
+    <col min="3093" max="3094" width="2.75" style="2" customWidth="1"/>
+    <col min="3095" max="3097" width="1.75" style="2" customWidth="1"/>
+    <col min="3098" max="3100" width="3.125" style="2" customWidth="1"/>
+    <col min="3101" max="3101" width="2.75" style="2" customWidth="1"/>
+    <col min="3102" max="3102" width="1.75" style="2" customWidth="1"/>
+    <col min="3103" max="3105" width="3.125" style="2" customWidth="1"/>
+    <col min="3106" max="3109" width="1.75" style="2" customWidth="1"/>
     <col min="3110" max="3110" width="1.5" style="2" customWidth="1"/>
-    <col min="3111" max="3146" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3147" max="3180" width="2.796875" style="2" customWidth="1"/>
-    <col min="3181" max="3195" width="2.59765625" style="2" customWidth="1"/>
-    <col min="3196" max="3328" width="8.09765625" style="2"/>
-    <col min="3329" max="3330" width="2.796875" style="2" customWidth="1"/>
-    <col min="3331" max="3331" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3332" max="3335" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3336" max="3336" width="2.796875" style="2" customWidth="1"/>
-    <col min="3337" max="3337" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3338" max="3341" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3342" max="3342" width="2.796875" style="2" customWidth="1"/>
-    <col min="3343" max="3345" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3346" max="3348" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3349" max="3350" width="2.796875" style="2" customWidth="1"/>
-    <col min="3351" max="3353" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3354" max="3356" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3357" max="3357" width="2.796875" style="2" customWidth="1"/>
-    <col min="3358" max="3358" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3359" max="3361" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3362" max="3365" width="1.69921875" style="2" customWidth="1"/>
+    <col min="3111" max="3146" width="1.75" style="2" customWidth="1"/>
+    <col min="3147" max="3180" width="2.75" style="2" customWidth="1"/>
+    <col min="3181" max="3195" width="2.625" style="2" customWidth="1"/>
+    <col min="3196" max="3328" width="8.125" style="2"/>
+    <col min="3329" max="3330" width="2.75" style="2" customWidth="1"/>
+    <col min="3331" max="3331" width="1.75" style="2" customWidth="1"/>
+    <col min="3332" max="3335" width="3.125" style="2" customWidth="1"/>
+    <col min="3336" max="3336" width="2.75" style="2" customWidth="1"/>
+    <col min="3337" max="3337" width="1.75" style="2" customWidth="1"/>
+    <col min="3338" max="3341" width="3.125" style="2" customWidth="1"/>
+    <col min="3342" max="3342" width="2.75" style="2" customWidth="1"/>
+    <col min="3343" max="3345" width="1.75" style="2" customWidth="1"/>
+    <col min="3346" max="3348" width="3.125" style="2" customWidth="1"/>
+    <col min="3349" max="3350" width="2.75" style="2" customWidth="1"/>
+    <col min="3351" max="3353" width="1.75" style="2" customWidth="1"/>
+    <col min="3354" max="3356" width="3.125" style="2" customWidth="1"/>
+    <col min="3357" max="3357" width="2.75" style="2" customWidth="1"/>
+    <col min="3358" max="3358" width="1.75" style="2" customWidth="1"/>
+    <col min="3359" max="3361" width="3.125" style="2" customWidth="1"/>
+    <col min="3362" max="3365" width="1.75" style="2" customWidth="1"/>
     <col min="3366" max="3366" width="1.5" style="2" customWidth="1"/>
-    <col min="3367" max="3402" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3403" max="3436" width="2.796875" style="2" customWidth="1"/>
-    <col min="3437" max="3451" width="2.59765625" style="2" customWidth="1"/>
-    <col min="3452" max="3584" width="8.09765625" style="2"/>
-    <col min="3585" max="3586" width="2.796875" style="2" customWidth="1"/>
-    <col min="3587" max="3587" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3588" max="3591" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3592" max="3592" width="2.796875" style="2" customWidth="1"/>
-    <col min="3593" max="3593" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3594" max="3597" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3598" max="3598" width="2.796875" style="2" customWidth="1"/>
-    <col min="3599" max="3601" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3602" max="3604" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3605" max="3606" width="2.796875" style="2" customWidth="1"/>
-    <col min="3607" max="3609" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3610" max="3612" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3613" max="3613" width="2.796875" style="2" customWidth="1"/>
-    <col min="3614" max="3614" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3615" max="3617" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3618" max="3621" width="1.69921875" style="2" customWidth="1"/>
+    <col min="3367" max="3402" width="1.75" style="2" customWidth="1"/>
+    <col min="3403" max="3436" width="2.75" style="2" customWidth="1"/>
+    <col min="3437" max="3451" width="2.625" style="2" customWidth="1"/>
+    <col min="3452" max="3584" width="8.125" style="2"/>
+    <col min="3585" max="3586" width="2.75" style="2" customWidth="1"/>
+    <col min="3587" max="3587" width="1.75" style="2" customWidth="1"/>
+    <col min="3588" max="3591" width="3.125" style="2" customWidth="1"/>
+    <col min="3592" max="3592" width="2.75" style="2" customWidth="1"/>
+    <col min="3593" max="3593" width="1.75" style="2" customWidth="1"/>
+    <col min="3594" max="3597" width="3.125" style="2" customWidth="1"/>
+    <col min="3598" max="3598" width="2.75" style="2" customWidth="1"/>
+    <col min="3599" max="3601" width="1.75" style="2" customWidth="1"/>
+    <col min="3602" max="3604" width="3.125" style="2" customWidth="1"/>
+    <col min="3605" max="3606" width="2.75" style="2" customWidth="1"/>
+    <col min="3607" max="3609" width="1.75" style="2" customWidth="1"/>
+    <col min="3610" max="3612" width="3.125" style="2" customWidth="1"/>
+    <col min="3613" max="3613" width="2.75" style="2" customWidth="1"/>
+    <col min="3614" max="3614" width="1.75" style="2" customWidth="1"/>
+    <col min="3615" max="3617" width="3.125" style="2" customWidth="1"/>
+    <col min="3618" max="3621" width="1.75" style="2" customWidth="1"/>
     <col min="3622" max="3622" width="1.5" style="2" customWidth="1"/>
-    <col min="3623" max="3658" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3659" max="3692" width="2.796875" style="2" customWidth="1"/>
-    <col min="3693" max="3707" width="2.59765625" style="2" customWidth="1"/>
-    <col min="3708" max="3840" width="8.09765625" style="2"/>
-    <col min="3841" max="3842" width="2.796875" style="2" customWidth="1"/>
-    <col min="3843" max="3843" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3844" max="3847" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3848" max="3848" width="2.796875" style="2" customWidth="1"/>
-    <col min="3849" max="3849" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3850" max="3853" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3854" max="3854" width="2.796875" style="2" customWidth="1"/>
-    <col min="3855" max="3857" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3858" max="3860" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3861" max="3862" width="2.796875" style="2" customWidth="1"/>
-    <col min="3863" max="3865" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3866" max="3868" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3869" max="3869" width="2.796875" style="2" customWidth="1"/>
-    <col min="3870" max="3870" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3871" max="3873" width="3.09765625" style="2" customWidth="1"/>
-    <col min="3874" max="3877" width="1.69921875" style="2" customWidth="1"/>
+    <col min="3623" max="3658" width="1.75" style="2" customWidth="1"/>
+    <col min="3659" max="3692" width="2.75" style="2" customWidth="1"/>
+    <col min="3693" max="3707" width="2.625" style="2" customWidth="1"/>
+    <col min="3708" max="3840" width="8.125" style="2"/>
+    <col min="3841" max="3842" width="2.75" style="2" customWidth="1"/>
+    <col min="3843" max="3843" width="1.75" style="2" customWidth="1"/>
+    <col min="3844" max="3847" width="3.125" style="2" customWidth="1"/>
+    <col min="3848" max="3848" width="2.75" style="2" customWidth="1"/>
+    <col min="3849" max="3849" width="1.75" style="2" customWidth="1"/>
+    <col min="3850" max="3853" width="3.125" style="2" customWidth="1"/>
+    <col min="3854" max="3854" width="2.75" style="2" customWidth="1"/>
+    <col min="3855" max="3857" width="1.75" style="2" customWidth="1"/>
+    <col min="3858" max="3860" width="3.125" style="2" customWidth="1"/>
+    <col min="3861" max="3862" width="2.75" style="2" customWidth="1"/>
+    <col min="3863" max="3865" width="1.75" style="2" customWidth="1"/>
+    <col min="3866" max="3868" width="3.125" style="2" customWidth="1"/>
+    <col min="3869" max="3869" width="2.75" style="2" customWidth="1"/>
+    <col min="3870" max="3870" width="1.75" style="2" customWidth="1"/>
+    <col min="3871" max="3873" width="3.125" style="2" customWidth="1"/>
+    <col min="3874" max="3877" width="1.75" style="2" customWidth="1"/>
     <col min="3878" max="3878" width="1.5" style="2" customWidth="1"/>
-    <col min="3879" max="3914" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3915" max="3948" width="2.796875" style="2" customWidth="1"/>
-    <col min="3949" max="3963" width="2.59765625" style="2" customWidth="1"/>
-    <col min="3964" max="4096" width="8.09765625" style="2"/>
-    <col min="4097" max="4098" width="2.796875" style="2" customWidth="1"/>
-    <col min="4099" max="4099" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4100" max="4103" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4104" max="4104" width="2.796875" style="2" customWidth="1"/>
-    <col min="4105" max="4105" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4106" max="4109" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4110" max="4110" width="2.796875" style="2" customWidth="1"/>
-    <col min="4111" max="4113" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4114" max="4116" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4117" max="4118" width="2.796875" style="2" customWidth="1"/>
-    <col min="4119" max="4121" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4122" max="4124" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4125" max="4125" width="2.796875" style="2" customWidth="1"/>
-    <col min="4126" max="4126" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4127" max="4129" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4130" max="4133" width="1.69921875" style="2" customWidth="1"/>
+    <col min="3879" max="3914" width="1.75" style="2" customWidth="1"/>
+    <col min="3915" max="3948" width="2.75" style="2" customWidth="1"/>
+    <col min="3949" max="3963" width="2.625" style="2" customWidth="1"/>
+    <col min="3964" max="4096" width="8.125" style="2"/>
+    <col min="4097" max="4098" width="2.75" style="2" customWidth="1"/>
+    <col min="4099" max="4099" width="1.75" style="2" customWidth="1"/>
+    <col min="4100" max="4103" width="3.125" style="2" customWidth="1"/>
+    <col min="4104" max="4104" width="2.75" style="2" customWidth="1"/>
+    <col min="4105" max="4105" width="1.75" style="2" customWidth="1"/>
+    <col min="4106" max="4109" width="3.125" style="2" customWidth="1"/>
+    <col min="4110" max="4110" width="2.75" style="2" customWidth="1"/>
+    <col min="4111" max="4113" width="1.75" style="2" customWidth="1"/>
+    <col min="4114" max="4116" width="3.125" style="2" customWidth="1"/>
+    <col min="4117" max="4118" width="2.75" style="2" customWidth="1"/>
+    <col min="4119" max="4121" width="1.75" style="2" customWidth="1"/>
+    <col min="4122" max="4124" width="3.125" style="2" customWidth="1"/>
+    <col min="4125" max="4125" width="2.75" style="2" customWidth="1"/>
+    <col min="4126" max="4126" width="1.75" style="2" customWidth="1"/>
+    <col min="4127" max="4129" width="3.125" style="2" customWidth="1"/>
+    <col min="4130" max="4133" width="1.75" style="2" customWidth="1"/>
     <col min="4134" max="4134" width="1.5" style="2" customWidth="1"/>
-    <col min="4135" max="4170" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4171" max="4204" width="2.796875" style="2" customWidth="1"/>
-    <col min="4205" max="4219" width="2.59765625" style="2" customWidth="1"/>
-    <col min="4220" max="4352" width="8.09765625" style="2"/>
-    <col min="4353" max="4354" width="2.796875" style="2" customWidth="1"/>
-    <col min="4355" max="4355" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4356" max="4359" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4360" max="4360" width="2.796875" style="2" customWidth="1"/>
-    <col min="4361" max="4361" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4362" max="4365" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4366" max="4366" width="2.796875" style="2" customWidth="1"/>
-    <col min="4367" max="4369" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4370" max="4372" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4373" max="4374" width="2.796875" style="2" customWidth="1"/>
-    <col min="4375" max="4377" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4378" max="4380" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4381" max="4381" width="2.796875" style="2" customWidth="1"/>
-    <col min="4382" max="4382" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4383" max="4385" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4386" max="4389" width="1.69921875" style="2" customWidth="1"/>
+    <col min="4135" max="4170" width="1.75" style="2" customWidth="1"/>
+    <col min="4171" max="4204" width="2.75" style="2" customWidth="1"/>
+    <col min="4205" max="4219" width="2.625" style="2" customWidth="1"/>
+    <col min="4220" max="4352" width="8.125" style="2"/>
+    <col min="4353" max="4354" width="2.75" style="2" customWidth="1"/>
+    <col min="4355" max="4355" width="1.75" style="2" customWidth="1"/>
+    <col min="4356" max="4359" width="3.125" style="2" customWidth="1"/>
+    <col min="4360" max="4360" width="2.75" style="2" customWidth="1"/>
+    <col min="4361" max="4361" width="1.75" style="2" customWidth="1"/>
+    <col min="4362" max="4365" width="3.125" style="2" customWidth="1"/>
+    <col min="4366" max="4366" width="2.75" style="2" customWidth="1"/>
+    <col min="4367" max="4369" width="1.75" style="2" customWidth="1"/>
+    <col min="4370" max="4372" width="3.125" style="2" customWidth="1"/>
+    <col min="4373" max="4374" width="2.75" style="2" customWidth="1"/>
+    <col min="4375" max="4377" width="1.75" style="2" customWidth="1"/>
+    <col min="4378" max="4380" width="3.125" style="2" customWidth="1"/>
+    <col min="4381" max="4381" width="2.75" style="2" customWidth="1"/>
+    <col min="4382" max="4382" width="1.75" style="2" customWidth="1"/>
+    <col min="4383" max="4385" width="3.125" style="2" customWidth="1"/>
+    <col min="4386" max="4389" width="1.75" style="2" customWidth="1"/>
     <col min="4390" max="4390" width="1.5" style="2" customWidth="1"/>
-    <col min="4391" max="4426" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4427" max="4460" width="2.796875" style="2" customWidth="1"/>
-    <col min="4461" max="4475" width="2.59765625" style="2" customWidth="1"/>
-    <col min="4476" max="4608" width="8.09765625" style="2"/>
-    <col min="4609" max="4610" width="2.796875" style="2" customWidth="1"/>
-    <col min="4611" max="4611" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4612" max="4615" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4616" max="4616" width="2.796875" style="2" customWidth="1"/>
-    <col min="4617" max="4617" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4618" max="4621" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4622" max="4622" width="2.796875" style="2" customWidth="1"/>
-    <col min="4623" max="4625" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4626" max="4628" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4629" max="4630" width="2.796875" style="2" customWidth="1"/>
-    <col min="4631" max="4633" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4634" max="4636" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4637" max="4637" width="2.796875" style="2" customWidth="1"/>
-    <col min="4638" max="4638" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4639" max="4641" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4642" max="4645" width="1.69921875" style="2" customWidth="1"/>
+    <col min="4391" max="4426" width="1.75" style="2" customWidth="1"/>
+    <col min="4427" max="4460" width="2.75" style="2" customWidth="1"/>
+    <col min="4461" max="4475" width="2.625" style="2" customWidth="1"/>
+    <col min="4476" max="4608" width="8.125" style="2"/>
+    <col min="4609" max="4610" width="2.75" style="2" customWidth="1"/>
+    <col min="4611" max="4611" width="1.75" style="2" customWidth="1"/>
+    <col min="4612" max="4615" width="3.125" style="2" customWidth="1"/>
+    <col min="4616" max="4616" width="2.75" style="2" customWidth="1"/>
+    <col min="4617" max="4617" width="1.75" style="2" customWidth="1"/>
+    <col min="4618" max="4621" width="3.125" style="2" customWidth="1"/>
+    <col min="4622" max="4622" width="2.75" style="2" customWidth="1"/>
+    <col min="4623" max="4625" width="1.75" style="2" customWidth="1"/>
+    <col min="4626" max="4628" width="3.125" style="2" customWidth="1"/>
+    <col min="4629" max="4630" width="2.75" style="2" customWidth="1"/>
+    <col min="4631" max="4633" width="1.75" style="2" customWidth="1"/>
+    <col min="4634" max="4636" width="3.125" style="2" customWidth="1"/>
+    <col min="4637" max="4637" width="2.75" style="2" customWidth="1"/>
+    <col min="4638" max="4638" width="1.75" style="2" customWidth="1"/>
+    <col min="4639" max="4641" width="3.125" style="2" customWidth="1"/>
+    <col min="4642" max="4645" width="1.75" style="2" customWidth="1"/>
     <col min="4646" max="4646" width="1.5" style="2" customWidth="1"/>
-    <col min="4647" max="4682" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4683" max="4716" width="2.796875" style="2" customWidth="1"/>
-    <col min="4717" max="4731" width="2.59765625" style="2" customWidth="1"/>
-    <col min="4732" max="4864" width="8.09765625" style="2"/>
-    <col min="4865" max="4866" width="2.796875" style="2" customWidth="1"/>
-    <col min="4867" max="4867" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4868" max="4871" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4872" max="4872" width="2.796875" style="2" customWidth="1"/>
-    <col min="4873" max="4873" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4874" max="4877" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4878" max="4878" width="2.796875" style="2" customWidth="1"/>
-    <col min="4879" max="4881" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4882" max="4884" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4885" max="4886" width="2.796875" style="2" customWidth="1"/>
-    <col min="4887" max="4889" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4890" max="4892" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4893" max="4893" width="2.796875" style="2" customWidth="1"/>
-    <col min="4894" max="4894" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4895" max="4897" width="3.09765625" style="2" customWidth="1"/>
-    <col min="4898" max="4901" width="1.69921875" style="2" customWidth="1"/>
+    <col min="4647" max="4682" width="1.75" style="2" customWidth="1"/>
+    <col min="4683" max="4716" width="2.75" style="2" customWidth="1"/>
+    <col min="4717" max="4731" width="2.625" style="2" customWidth="1"/>
+    <col min="4732" max="4864" width="8.125" style="2"/>
+    <col min="4865" max="4866" width="2.75" style="2" customWidth="1"/>
+    <col min="4867" max="4867" width="1.75" style="2" customWidth="1"/>
+    <col min="4868" max="4871" width="3.125" style="2" customWidth="1"/>
+    <col min="4872" max="4872" width="2.75" style="2" customWidth="1"/>
+    <col min="4873" max="4873" width="1.75" style="2" customWidth="1"/>
+    <col min="4874" max="4877" width="3.125" style="2" customWidth="1"/>
+    <col min="4878" max="4878" width="2.75" style="2" customWidth="1"/>
+    <col min="4879" max="4881" width="1.75" style="2" customWidth="1"/>
+    <col min="4882" max="4884" width="3.125" style="2" customWidth="1"/>
+    <col min="4885" max="4886" width="2.75" style="2" customWidth="1"/>
+    <col min="4887" max="4889" width="1.75" style="2" customWidth="1"/>
+    <col min="4890" max="4892" width="3.125" style="2" customWidth="1"/>
+    <col min="4893" max="4893" width="2.75" style="2" customWidth="1"/>
+    <col min="4894" max="4894" width="1.75" style="2" customWidth="1"/>
+    <col min="4895" max="4897" width="3.125" style="2" customWidth="1"/>
+    <col min="4898" max="4901" width="1.75" style="2" customWidth="1"/>
     <col min="4902" max="4902" width="1.5" style="2" customWidth="1"/>
-    <col min="4903" max="4938" width="1.69921875" style="2" customWidth="1"/>
-    <col min="4939" max="4972" width="2.796875" style="2" customWidth="1"/>
-    <col min="4973" max="4987" width="2.59765625" style="2" customWidth="1"/>
-    <col min="4988" max="5120" width="8.09765625" style="2"/>
-    <col min="5121" max="5122" width="2.796875" style="2" customWidth="1"/>
-    <col min="5123" max="5123" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5124" max="5127" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5128" max="5128" width="2.796875" style="2" customWidth="1"/>
-    <col min="5129" max="5129" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5130" max="5133" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5134" max="5134" width="2.796875" style="2" customWidth="1"/>
-    <col min="5135" max="5137" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5138" max="5140" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5141" max="5142" width="2.796875" style="2" customWidth="1"/>
-    <col min="5143" max="5145" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5146" max="5148" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5149" max="5149" width="2.796875" style="2" customWidth="1"/>
-    <col min="5150" max="5150" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5151" max="5153" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5154" max="5157" width="1.69921875" style="2" customWidth="1"/>
+    <col min="4903" max="4938" width="1.75" style="2" customWidth="1"/>
+    <col min="4939" max="4972" width="2.75" style="2" customWidth="1"/>
+    <col min="4973" max="4987" width="2.625" style="2" customWidth="1"/>
+    <col min="4988" max="5120" width="8.125" style="2"/>
+    <col min="5121" max="5122" width="2.75" style="2" customWidth="1"/>
+    <col min="5123" max="5123" width="1.75" style="2" customWidth="1"/>
+    <col min="5124" max="5127" width="3.125" style="2" customWidth="1"/>
+    <col min="5128" max="5128" width="2.75" style="2" customWidth="1"/>
+    <col min="5129" max="5129" width="1.75" style="2" customWidth="1"/>
+    <col min="5130" max="5133" width="3.125" style="2" customWidth="1"/>
+    <col min="5134" max="5134" width="2.75" style="2" customWidth="1"/>
+    <col min="5135" max="5137" width="1.75" style="2" customWidth="1"/>
+    <col min="5138" max="5140" width="3.125" style="2" customWidth="1"/>
+    <col min="5141" max="5142" width="2.75" style="2" customWidth="1"/>
+    <col min="5143" max="5145" width="1.75" style="2" customWidth="1"/>
+    <col min="5146" max="5148" width="3.125" style="2" customWidth="1"/>
+    <col min="5149" max="5149" width="2.75" style="2" customWidth="1"/>
+    <col min="5150" max="5150" width="1.75" style="2" customWidth="1"/>
+    <col min="5151" max="5153" width="3.125" style="2" customWidth="1"/>
+    <col min="5154" max="5157" width="1.75" style="2" customWidth="1"/>
     <col min="5158" max="5158" width="1.5" style="2" customWidth="1"/>
-    <col min="5159" max="5194" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5195" max="5228" width="2.796875" style="2" customWidth="1"/>
-    <col min="5229" max="5243" width="2.59765625" style="2" customWidth="1"/>
-    <col min="5244" max="5376" width="8.09765625" style="2"/>
-    <col min="5377" max="5378" width="2.796875" style="2" customWidth="1"/>
-    <col min="5379" max="5379" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5380" max="5383" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5384" max="5384" width="2.796875" style="2" customWidth="1"/>
-    <col min="5385" max="5385" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5386" max="5389" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5390" max="5390" width="2.796875" style="2" customWidth="1"/>
-    <col min="5391" max="5393" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5394" max="5396" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5397" max="5398" width="2.796875" style="2" customWidth="1"/>
-    <col min="5399" max="5401" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5402" max="5404" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5405" max="5405" width="2.796875" style="2" customWidth="1"/>
-    <col min="5406" max="5406" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5407" max="5409" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5410" max="5413" width="1.69921875" style="2" customWidth="1"/>
+    <col min="5159" max="5194" width="1.75" style="2" customWidth="1"/>
+    <col min="5195" max="5228" width="2.75" style="2" customWidth="1"/>
+    <col min="5229" max="5243" width="2.625" style="2" customWidth="1"/>
+    <col min="5244" max="5376" width="8.125" style="2"/>
+    <col min="5377" max="5378" width="2.75" style="2" customWidth="1"/>
+    <col min="5379" max="5379" width="1.75" style="2" customWidth="1"/>
+    <col min="5380" max="5383" width="3.125" style="2" customWidth="1"/>
+    <col min="5384" max="5384" width="2.75" style="2" customWidth="1"/>
+    <col min="5385" max="5385" width="1.75" style="2" customWidth="1"/>
+    <col min="5386" max="5389" width="3.125" style="2" customWidth="1"/>
+    <col min="5390" max="5390" width="2.75" style="2" customWidth="1"/>
+    <col min="5391" max="5393" width="1.75" style="2" customWidth="1"/>
+    <col min="5394" max="5396" width="3.125" style="2" customWidth="1"/>
+    <col min="5397" max="5398" width="2.75" style="2" customWidth="1"/>
+    <col min="5399" max="5401" width="1.75" style="2" customWidth="1"/>
+    <col min="5402" max="5404" width="3.125" style="2" customWidth="1"/>
+    <col min="5405" max="5405" width="2.75" style="2" customWidth="1"/>
+    <col min="5406" max="5406" width="1.75" style="2" customWidth="1"/>
+    <col min="5407" max="5409" width="3.125" style="2" customWidth="1"/>
+    <col min="5410" max="5413" width="1.75" style="2" customWidth="1"/>
     <col min="5414" max="5414" width="1.5" style="2" customWidth="1"/>
-    <col min="5415" max="5450" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5451" max="5484" width="2.796875" style="2" customWidth="1"/>
-    <col min="5485" max="5499" width="2.59765625" style="2" customWidth="1"/>
-    <col min="5500" max="5632" width="8.09765625" style="2"/>
-    <col min="5633" max="5634" width="2.796875" style="2" customWidth="1"/>
-    <col min="5635" max="5635" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5636" max="5639" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5640" max="5640" width="2.796875" style="2" customWidth="1"/>
-    <col min="5641" max="5641" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5642" max="5645" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5646" max="5646" width="2.796875" style="2" customWidth="1"/>
-    <col min="5647" max="5649" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5650" max="5652" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5653" max="5654" width="2.796875" style="2" customWidth="1"/>
-    <col min="5655" max="5657" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5658" max="5660" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5661" max="5661" width="2.796875" style="2" customWidth="1"/>
-    <col min="5662" max="5662" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5663" max="5665" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5666" max="5669" width="1.69921875" style="2" customWidth="1"/>
+    <col min="5415" max="5450" width="1.75" style="2" customWidth="1"/>
+    <col min="5451" max="5484" width="2.75" style="2" customWidth="1"/>
+    <col min="5485" max="5499" width="2.625" style="2" customWidth="1"/>
+    <col min="5500" max="5632" width="8.125" style="2"/>
+    <col min="5633" max="5634" width="2.75" style="2" customWidth="1"/>
+    <col min="5635" max="5635" width="1.75" style="2" customWidth="1"/>
+    <col min="5636" max="5639" width="3.125" style="2" customWidth="1"/>
+    <col min="5640" max="5640" width="2.75" style="2" customWidth="1"/>
+    <col min="5641" max="5641" width="1.75" style="2" customWidth="1"/>
+    <col min="5642" max="5645" width="3.125" style="2" customWidth="1"/>
+    <col min="5646" max="5646" width="2.75" style="2" customWidth="1"/>
+    <col min="5647" max="5649" width="1.75" style="2" customWidth="1"/>
+    <col min="5650" max="5652" width="3.125" style="2" customWidth="1"/>
+    <col min="5653" max="5654" width="2.75" style="2" customWidth="1"/>
+    <col min="5655" max="5657" width="1.75" style="2" customWidth="1"/>
+    <col min="5658" max="5660" width="3.125" style="2" customWidth="1"/>
+    <col min="5661" max="5661" width="2.75" style="2" customWidth="1"/>
+    <col min="5662" max="5662" width="1.75" style="2" customWidth="1"/>
+    <col min="5663" max="5665" width="3.125" style="2" customWidth="1"/>
+    <col min="5666" max="5669" width="1.75" style="2" customWidth="1"/>
     <col min="5670" max="5670" width="1.5" style="2" customWidth="1"/>
-    <col min="5671" max="5706" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5707" max="5740" width="2.796875" style="2" customWidth="1"/>
-    <col min="5741" max="5755" width="2.59765625" style="2" customWidth="1"/>
-    <col min="5756" max="5888" width="8.09765625" style="2"/>
-    <col min="5889" max="5890" width="2.796875" style="2" customWidth="1"/>
-    <col min="5891" max="5891" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5892" max="5895" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5896" max="5896" width="2.796875" style="2" customWidth="1"/>
-    <col min="5897" max="5897" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5898" max="5901" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5902" max="5902" width="2.796875" style="2" customWidth="1"/>
-    <col min="5903" max="5905" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5906" max="5908" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5909" max="5910" width="2.796875" style="2" customWidth="1"/>
-    <col min="5911" max="5913" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5914" max="5916" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5917" max="5917" width="2.796875" style="2" customWidth="1"/>
-    <col min="5918" max="5918" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5919" max="5921" width="3.09765625" style="2" customWidth="1"/>
-    <col min="5922" max="5925" width="1.69921875" style="2" customWidth="1"/>
+    <col min="5671" max="5706" width="1.75" style="2" customWidth="1"/>
+    <col min="5707" max="5740" width="2.75" style="2" customWidth="1"/>
+    <col min="5741" max="5755" width="2.625" style="2" customWidth="1"/>
+    <col min="5756" max="5888" width="8.125" style="2"/>
+    <col min="5889" max="5890" width="2.75" style="2" customWidth="1"/>
+    <col min="5891" max="5891" width="1.75" style="2" customWidth="1"/>
+    <col min="5892" max="5895" width="3.125" style="2" customWidth="1"/>
+    <col min="5896" max="5896" width="2.75" style="2" customWidth="1"/>
+    <col min="5897" max="5897" width="1.75" style="2" customWidth="1"/>
+    <col min="5898" max="5901" width="3.125" style="2" customWidth="1"/>
+    <col min="5902" max="5902" width="2.75" style="2" customWidth="1"/>
+    <col min="5903" max="5905" width="1.75" style="2" customWidth="1"/>
+    <col min="5906" max="5908" width="3.125" style="2" customWidth="1"/>
+    <col min="5909" max="5910" width="2.75" style="2" customWidth="1"/>
+    <col min="5911" max="5913" width="1.75" style="2" customWidth="1"/>
+    <col min="5914" max="5916" width="3.125" style="2" customWidth="1"/>
+    <col min="5917" max="5917" width="2.75" style="2" customWidth="1"/>
+    <col min="5918" max="5918" width="1.75" style="2" customWidth="1"/>
+    <col min="5919" max="5921" width="3.125" style="2" customWidth="1"/>
+    <col min="5922" max="5925" width="1.75" style="2" customWidth="1"/>
     <col min="5926" max="5926" width="1.5" style="2" customWidth="1"/>
-    <col min="5927" max="5962" width="1.69921875" style="2" customWidth="1"/>
-    <col min="5963" max="5996" width="2.796875" style="2" customWidth="1"/>
-    <col min="5997" max="6011" width="2.59765625" style="2" customWidth="1"/>
-    <col min="6012" max="6144" width="8.09765625" style="2"/>
-    <col min="6145" max="6146" width="2.796875" style="2" customWidth="1"/>
-    <col min="6147" max="6147" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6148" max="6151" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6152" max="6152" width="2.796875" style="2" customWidth="1"/>
-    <col min="6153" max="6153" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6154" max="6157" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6158" max="6158" width="2.796875" style="2" customWidth="1"/>
-    <col min="6159" max="6161" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6162" max="6164" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6165" max="6166" width="2.796875" style="2" customWidth="1"/>
-    <col min="6167" max="6169" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6170" max="6172" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6173" max="6173" width="2.796875" style="2" customWidth="1"/>
-    <col min="6174" max="6174" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6175" max="6177" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6178" max="6181" width="1.69921875" style="2" customWidth="1"/>
+    <col min="5927" max="5962" width="1.75" style="2" customWidth="1"/>
+    <col min="5963" max="5996" width="2.75" style="2" customWidth="1"/>
+    <col min="5997" max="6011" width="2.625" style="2" customWidth="1"/>
+    <col min="6012" max="6144" width="8.125" style="2"/>
+    <col min="6145" max="6146" width="2.75" style="2" customWidth="1"/>
+    <col min="6147" max="6147" width="1.75" style="2" customWidth="1"/>
+    <col min="6148" max="6151" width="3.125" style="2" customWidth="1"/>
+    <col min="6152" max="6152" width="2.75" style="2" customWidth="1"/>
+    <col min="6153" max="6153" width="1.75" style="2" customWidth="1"/>
+    <col min="6154" max="6157" width="3.125" style="2" customWidth="1"/>
+    <col min="6158" max="6158" width="2.75" style="2" customWidth="1"/>
+    <col min="6159" max="6161" width="1.75" style="2" customWidth="1"/>
+    <col min="6162" max="6164" width="3.125" style="2" customWidth="1"/>
+    <col min="6165" max="6166" width="2.75" style="2" customWidth="1"/>
+    <col min="6167" max="6169" width="1.75" style="2" customWidth="1"/>
+    <col min="6170" max="6172" width="3.125" style="2" customWidth="1"/>
+    <col min="6173" max="6173" width="2.75" style="2" customWidth="1"/>
+    <col min="6174" max="6174" width="1.75" style="2" customWidth="1"/>
+    <col min="6175" max="6177" width="3.125" style="2" customWidth="1"/>
+    <col min="6178" max="6181" width="1.75" style="2" customWidth="1"/>
     <col min="6182" max="6182" width="1.5" style="2" customWidth="1"/>
-    <col min="6183" max="6218" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6219" max="6252" width="2.796875" style="2" customWidth="1"/>
-    <col min="6253" max="6267" width="2.59765625" style="2" customWidth="1"/>
-    <col min="6268" max="6400" width="8.09765625" style="2"/>
-    <col min="6401" max="6402" width="2.796875" style="2" customWidth="1"/>
-    <col min="6403" max="6403" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6404" max="6407" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6408" max="6408" width="2.796875" style="2" customWidth="1"/>
-    <col min="6409" max="6409" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6410" max="6413" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6414" max="6414" width="2.796875" style="2" customWidth="1"/>
-    <col min="6415" max="6417" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6418" max="6420" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6421" max="6422" width="2.796875" style="2" customWidth="1"/>
-    <col min="6423" max="6425" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6426" max="6428" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6429" max="6429" width="2.796875" style="2" customWidth="1"/>
-    <col min="6430" max="6430" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6431" max="6433" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6434" max="6437" width="1.69921875" style="2" customWidth="1"/>
+    <col min="6183" max="6218" width="1.75" style="2" customWidth="1"/>
+    <col min="6219" max="6252" width="2.75" style="2" customWidth="1"/>
+    <col min="6253" max="6267" width="2.625" style="2" customWidth="1"/>
+    <col min="6268" max="6400" width="8.125" style="2"/>
+    <col min="6401" max="6402" width="2.75" style="2" customWidth="1"/>
+    <col min="6403" max="6403" width="1.75" style="2" customWidth="1"/>
+    <col min="6404" max="6407" width="3.125" style="2" customWidth="1"/>
+    <col min="6408" max="6408" width="2.75" style="2" customWidth="1"/>
+    <col min="6409" max="6409" width="1.75" style="2" customWidth="1"/>
+    <col min="6410" max="6413" width="3.125" style="2" customWidth="1"/>
+    <col min="6414" max="6414" width="2.75" style="2" customWidth="1"/>
+    <col min="6415" max="6417" width="1.75" style="2" customWidth="1"/>
+    <col min="6418" max="6420" width="3.125" style="2" customWidth="1"/>
+    <col min="6421" max="6422" width="2.75" style="2" customWidth="1"/>
+    <col min="6423" max="6425" width="1.75" style="2" customWidth="1"/>
+    <col min="6426" max="6428" width="3.125" style="2" customWidth="1"/>
+    <col min="6429" max="6429" width="2.75" style="2" customWidth="1"/>
+    <col min="6430" max="6430" width="1.75" style="2" customWidth="1"/>
+    <col min="6431" max="6433" width="3.125" style="2" customWidth="1"/>
+    <col min="6434" max="6437" width="1.75" style="2" customWidth="1"/>
     <col min="6438" max="6438" width="1.5" style="2" customWidth="1"/>
-    <col min="6439" max="6474" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6475" max="6508" width="2.796875" style="2" customWidth="1"/>
-    <col min="6509" max="6523" width="2.59765625" style="2" customWidth="1"/>
-    <col min="6524" max="6656" width="8.09765625" style="2"/>
-    <col min="6657" max="6658" width="2.796875" style="2" customWidth="1"/>
-    <col min="6659" max="6659" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6660" max="6663" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6664" max="6664" width="2.796875" style="2" customWidth="1"/>
-    <col min="6665" max="6665" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6666" max="6669" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6670" max="6670" width="2.796875" style="2" customWidth="1"/>
-    <col min="6671" max="6673" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6674" max="6676" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6677" max="6678" width="2.796875" style="2" customWidth="1"/>
-    <col min="6679" max="6681" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6682" max="6684" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6685" max="6685" width="2.796875" style="2" customWidth="1"/>
-    <col min="6686" max="6686" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6687" max="6689" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6690" max="6693" width="1.69921875" style="2" customWidth="1"/>
+    <col min="6439" max="6474" width="1.75" style="2" customWidth="1"/>
+    <col min="6475" max="6508" width="2.75" style="2" customWidth="1"/>
+    <col min="6509" max="6523" width="2.625" style="2" customWidth="1"/>
+    <col min="6524" max="6656" width="8.125" style="2"/>
+    <col min="6657" max="6658" width="2.75" style="2" customWidth="1"/>
+    <col min="6659" max="6659" width="1.75" style="2" customWidth="1"/>
+    <col min="6660" max="6663" width="3.125" style="2" customWidth="1"/>
+    <col min="6664" max="6664" width="2.75" style="2" customWidth="1"/>
+    <col min="6665" max="6665" width="1.75" style="2" customWidth="1"/>
+    <col min="6666" max="6669" width="3.125" style="2" customWidth="1"/>
+    <col min="6670" max="6670" width="2.75" style="2" customWidth="1"/>
+    <col min="6671" max="6673" width="1.75" style="2" customWidth="1"/>
+    <col min="6674" max="6676" width="3.125" style="2" customWidth="1"/>
+    <col min="6677" max="6678" width="2.75" style="2" customWidth="1"/>
+    <col min="6679" max="6681" width="1.75" style="2" customWidth="1"/>
+    <col min="6682" max="6684" width="3.125" style="2" customWidth="1"/>
+    <col min="6685" max="6685" width="2.75" style="2" customWidth="1"/>
+    <col min="6686" max="6686" width="1.75" style="2" customWidth="1"/>
+    <col min="6687" max="6689" width="3.125" style="2" customWidth="1"/>
+    <col min="6690" max="6693" width="1.75" style="2" customWidth="1"/>
     <col min="6694" max="6694" width="1.5" style="2" customWidth="1"/>
-    <col min="6695" max="6730" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6731" max="6764" width="2.796875" style="2" customWidth="1"/>
-    <col min="6765" max="6779" width="2.59765625" style="2" customWidth="1"/>
-    <col min="6780" max="6912" width="8.09765625" style="2"/>
-    <col min="6913" max="6914" width="2.796875" style="2" customWidth="1"/>
-    <col min="6915" max="6915" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6916" max="6919" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6920" max="6920" width="2.796875" style="2" customWidth="1"/>
-    <col min="6921" max="6921" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6922" max="6925" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6926" max="6926" width="2.796875" style="2" customWidth="1"/>
-    <col min="6927" max="6929" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6930" max="6932" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6933" max="6934" width="2.796875" style="2" customWidth="1"/>
-    <col min="6935" max="6937" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6938" max="6940" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6941" max="6941" width="2.796875" style="2" customWidth="1"/>
-    <col min="6942" max="6942" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6943" max="6945" width="3.09765625" style="2" customWidth="1"/>
-    <col min="6946" max="6949" width="1.69921875" style="2" customWidth="1"/>
+    <col min="6695" max="6730" width="1.75" style="2" customWidth="1"/>
+    <col min="6731" max="6764" width="2.75" style="2" customWidth="1"/>
+    <col min="6765" max="6779" width="2.625" style="2" customWidth="1"/>
+    <col min="6780" max="6912" width="8.125" style="2"/>
+    <col min="6913" max="6914" width="2.75" style="2" customWidth="1"/>
+    <col min="6915" max="6915" width="1.75" style="2" customWidth="1"/>
+    <col min="6916" max="6919" width="3.125" style="2" customWidth="1"/>
+    <col min="6920" max="6920" width="2.75" style="2" customWidth="1"/>
+    <col min="6921" max="6921" width="1.75" style="2" customWidth="1"/>
+    <col min="6922" max="6925" width="3.125" style="2" customWidth="1"/>
+    <col min="6926" max="6926" width="2.75" style="2" customWidth="1"/>
+    <col min="6927" max="6929" width="1.75" style="2" customWidth="1"/>
+    <col min="6930" max="6932" width="3.125" style="2" customWidth="1"/>
+    <col min="6933" max="6934" width="2.75" style="2" customWidth="1"/>
+    <col min="6935" max="6937" width="1.75" style="2" customWidth="1"/>
+    <col min="6938" max="6940" width="3.125" style="2" customWidth="1"/>
+    <col min="6941" max="6941" width="2.75" style="2" customWidth="1"/>
+    <col min="6942" max="6942" width="1.75" style="2" customWidth="1"/>
+    <col min="6943" max="6945" width="3.125" style="2" customWidth="1"/>
+    <col min="6946" max="6949" width="1.75" style="2" customWidth="1"/>
     <col min="6950" max="6950" width="1.5" style="2" customWidth="1"/>
-    <col min="6951" max="6986" width="1.69921875" style="2" customWidth="1"/>
-    <col min="6987" max="7020" width="2.796875" style="2" customWidth="1"/>
-    <col min="7021" max="7035" width="2.59765625" style="2" customWidth="1"/>
-    <col min="7036" max="7168" width="8.09765625" style="2"/>
-    <col min="7169" max="7170" width="2.796875" style="2" customWidth="1"/>
-    <col min="7171" max="7171" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7172" max="7175" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7176" max="7176" width="2.796875" style="2" customWidth="1"/>
-    <col min="7177" max="7177" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7178" max="7181" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7182" max="7182" width="2.796875" style="2" customWidth="1"/>
-    <col min="7183" max="7185" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7186" max="7188" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7189" max="7190" width="2.796875" style="2" customWidth="1"/>
-    <col min="7191" max="7193" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7194" max="7196" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7197" max="7197" width="2.796875" style="2" customWidth="1"/>
-    <col min="7198" max="7198" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7199" max="7201" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7202" max="7205" width="1.69921875" style="2" customWidth="1"/>
+    <col min="6951" max="6986" width="1.75" style="2" customWidth="1"/>
+    <col min="6987" max="7020" width="2.75" style="2" customWidth="1"/>
+    <col min="7021" max="7035" width="2.625" style="2" customWidth="1"/>
+    <col min="7036" max="7168" width="8.125" style="2"/>
+    <col min="7169" max="7170" width="2.75" style="2" customWidth="1"/>
+    <col min="7171" max="7171" width="1.75" style="2" customWidth="1"/>
+    <col min="7172" max="7175" width="3.125" style="2" customWidth="1"/>
+    <col min="7176" max="7176" width="2.75" style="2" customWidth="1"/>
+    <col min="7177" max="7177" width="1.75" style="2" customWidth="1"/>
+    <col min="7178" max="7181" width="3.125" style="2" customWidth="1"/>
+    <col min="7182" max="7182" width="2.75" style="2" customWidth="1"/>
+    <col min="7183" max="7185" width="1.75" style="2" customWidth="1"/>
+    <col min="7186" max="7188" width="3.125" style="2" customWidth="1"/>
+    <col min="7189" max="7190" width="2.75" style="2" customWidth="1"/>
+    <col min="7191" max="7193" width="1.75" style="2" customWidth="1"/>
+    <col min="7194" max="7196" width="3.125" style="2" customWidth="1"/>
+    <col min="7197" max="7197" width="2.75" style="2" customWidth="1"/>
+    <col min="7198" max="7198" width="1.75" style="2" customWidth="1"/>
+    <col min="7199" max="7201" width="3.125" style="2" customWidth="1"/>
+    <col min="7202" max="7205" width="1.75" style="2" customWidth="1"/>
     <col min="7206" max="7206" width="1.5" style="2" customWidth="1"/>
-    <col min="7207" max="7242" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7243" max="7276" width="2.796875" style="2" customWidth="1"/>
-    <col min="7277" max="7291" width="2.59765625" style="2" customWidth="1"/>
-    <col min="7292" max="7424" width="8.09765625" style="2"/>
-    <col min="7425" max="7426" width="2.796875" style="2" customWidth="1"/>
-    <col min="7427" max="7427" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7428" max="7431" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7432" max="7432" width="2.796875" style="2" customWidth="1"/>
-    <col min="7433" max="7433" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7434" max="7437" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7438" max="7438" width="2.796875" style="2" customWidth="1"/>
-    <col min="7439" max="7441" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7442" max="7444" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7445" max="7446" width="2.796875" style="2" customWidth="1"/>
-    <col min="7447" max="7449" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7450" max="7452" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7453" max="7453" width="2.796875" style="2" customWidth="1"/>
-    <col min="7454" max="7454" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7455" max="7457" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7458" max="7461" width="1.69921875" style="2" customWidth="1"/>
+    <col min="7207" max="7242" width="1.75" style="2" customWidth="1"/>
+    <col min="7243" max="7276" width="2.75" style="2" customWidth="1"/>
+    <col min="7277" max="7291" width="2.625" style="2" customWidth="1"/>
+    <col min="7292" max="7424" width="8.125" style="2"/>
+    <col min="7425" max="7426" width="2.75" style="2" customWidth="1"/>
+    <col min="7427" max="7427" width="1.75" style="2" customWidth="1"/>
+    <col min="7428" max="7431" width="3.125" style="2" customWidth="1"/>
+    <col min="7432" max="7432" width="2.75" style="2" customWidth="1"/>
+    <col min="7433" max="7433" width="1.75" style="2" customWidth="1"/>
+    <col min="7434" max="7437" width="3.125" style="2" customWidth="1"/>
+    <col min="7438" max="7438" width="2.75" style="2" customWidth="1"/>
+    <col min="7439" max="7441" width="1.75" style="2" customWidth="1"/>
+    <col min="7442" max="7444" width="3.125" style="2" customWidth="1"/>
+    <col min="7445" max="7446" width="2.75" style="2" customWidth="1"/>
+    <col min="7447" max="7449" width="1.75" style="2" customWidth="1"/>
+    <col min="7450" max="7452" width="3.125" style="2" customWidth="1"/>
+    <col min="7453" max="7453" width="2.75" style="2" customWidth="1"/>
+    <col min="7454" max="7454" width="1.75" style="2" customWidth="1"/>
+    <col min="7455" max="7457" width="3.125" style="2" customWidth="1"/>
+    <col min="7458" max="7461" width="1.75" style="2" customWidth="1"/>
     <col min="7462" max="7462" width="1.5" style="2" customWidth="1"/>
-    <col min="7463" max="7498" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7499" max="7532" width="2.796875" style="2" customWidth="1"/>
-    <col min="7533" max="7547" width="2.59765625" style="2" customWidth="1"/>
-    <col min="7548" max="7680" width="8.09765625" style="2"/>
-    <col min="7681" max="7682" width="2.796875" style="2" customWidth="1"/>
-    <col min="7683" max="7683" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7684" max="7687" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7688" max="7688" width="2.796875" style="2" customWidth="1"/>
-    <col min="7689" max="7689" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7690" max="7693" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7694" max="7694" width="2.796875" style="2" customWidth="1"/>
-    <col min="7695" max="7697" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7698" max="7700" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7701" max="7702" width="2.796875" style="2" customWidth="1"/>
-    <col min="7703" max="7705" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7706" max="7708" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7709" max="7709" width="2.796875" style="2" customWidth="1"/>
-    <col min="7710" max="7710" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7711" max="7713" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7714" max="7717" width="1.69921875" style="2" customWidth="1"/>
+    <col min="7463" max="7498" width="1.75" style="2" customWidth="1"/>
+    <col min="7499" max="7532" width="2.75" style="2" customWidth="1"/>
+    <col min="7533" max="7547" width="2.625" style="2" customWidth="1"/>
+    <col min="7548" max="7680" width="8.125" style="2"/>
+    <col min="7681" max="7682" width="2.75" style="2" customWidth="1"/>
+    <col min="7683" max="7683" width="1.75" style="2" customWidth="1"/>
+    <col min="7684" max="7687" width="3.125" style="2" customWidth="1"/>
+    <col min="7688" max="7688" width="2.75" style="2" customWidth="1"/>
+    <col min="7689" max="7689" width="1.75" style="2" customWidth="1"/>
+    <col min="7690" max="7693" width="3.125" style="2" customWidth="1"/>
+    <col min="7694" max="7694" width="2.75" style="2" customWidth="1"/>
+    <col min="7695" max="7697" width="1.75" style="2" customWidth="1"/>
+    <col min="7698" max="7700" width="3.125" style="2" customWidth="1"/>
+    <col min="7701" max="7702" width="2.75" style="2" customWidth="1"/>
+    <col min="7703" max="7705" width="1.75" style="2" customWidth="1"/>
+    <col min="7706" max="7708" width="3.125" style="2" customWidth="1"/>
+    <col min="7709" max="7709" width="2.75" style="2" customWidth="1"/>
+    <col min="7710" max="7710" width="1.75" style="2" customWidth="1"/>
+    <col min="7711" max="7713" width="3.125" style="2" customWidth="1"/>
+    <col min="7714" max="7717" width="1.75" style="2" customWidth="1"/>
     <col min="7718" max="7718" width="1.5" style="2" customWidth="1"/>
-    <col min="7719" max="7754" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7755" max="7788" width="2.796875" style="2" customWidth="1"/>
-    <col min="7789" max="7803" width="2.59765625" style="2" customWidth="1"/>
-    <col min="7804" max="7936" width="8.09765625" style="2"/>
-    <col min="7937" max="7938" width="2.796875" style="2" customWidth="1"/>
-    <col min="7939" max="7939" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7940" max="7943" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7944" max="7944" width="2.796875" style="2" customWidth="1"/>
-    <col min="7945" max="7945" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7946" max="7949" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7950" max="7950" width="2.796875" style="2" customWidth="1"/>
-    <col min="7951" max="7953" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7954" max="7956" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7957" max="7958" width="2.796875" style="2" customWidth="1"/>
-    <col min="7959" max="7961" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7962" max="7964" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7965" max="7965" width="2.796875" style="2" customWidth="1"/>
-    <col min="7966" max="7966" width="1.69921875" style="2" customWidth="1"/>
-    <col min="7967" max="7969" width="3.09765625" style="2" customWidth="1"/>
-    <col min="7970" max="7973" width="1.69921875" style="2" customWidth="1"/>
+    <col min="7719" max="7754" width="1.75" style="2" customWidth="1"/>
+    <col min="7755" max="7788" width="2.75" style="2" customWidth="1"/>
+    <col min="7789" max="7803" width="2.625" style="2" customWidth="1"/>
+    <col min="7804" max="7936" width="8.125" style="2"/>
+    <col min="7937" max="7938" width="2.75" style="2" customWidth="1"/>
+    <col min="7939" max="7939" width="1.75" style="2" customWidth="1"/>
+    <col min="7940" max="7943" width="3.125" style="2" customWidth="1"/>
+    <col min="7944" max="7944" width="2.75" style="2" customWidth="1"/>
+    <col min="7945" max="7945" width="1.75" style="2" customWidth="1"/>
+    <col min="7946" max="7949" width="3.125" style="2" customWidth="1"/>
+    <col min="7950" max="7950" width="2.75" style="2" customWidth="1"/>
+    <col min="7951" max="7953" width="1.75" style="2" customWidth="1"/>
+    <col min="7954" max="7956" width="3.125" style="2" customWidth="1"/>
+    <col min="7957" max="7958" width="2.75" style="2" customWidth="1"/>
+    <col min="7959" max="7961" width="1.75" style="2" customWidth="1"/>
+    <col min="7962" max="7964" width="3.125" style="2" customWidth="1"/>
+    <col min="7965" max="7965" width="2.75" style="2" customWidth="1"/>
+    <col min="7966" max="7966" width="1.75" style="2" customWidth="1"/>
+    <col min="7967" max="7969" width="3.125" style="2" customWidth="1"/>
+    <col min="7970" max="7973" width="1.75" style="2" customWidth="1"/>
     <col min="7974" max="7974" width="1.5" style="2" customWidth="1"/>
-    <col min="7975" max="8010" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8011" max="8044" width="2.796875" style="2" customWidth="1"/>
-    <col min="8045" max="8059" width="2.59765625" style="2" customWidth="1"/>
-    <col min="8060" max="8192" width="8.09765625" style="2"/>
-    <col min="8193" max="8194" width="2.796875" style="2" customWidth="1"/>
-    <col min="8195" max="8195" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8196" max="8199" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8200" max="8200" width="2.796875" style="2" customWidth="1"/>
-    <col min="8201" max="8201" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8202" max="8205" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8206" max="8206" width="2.796875" style="2" customWidth="1"/>
-    <col min="8207" max="8209" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8210" max="8212" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8213" max="8214" width="2.796875" style="2" customWidth="1"/>
-    <col min="8215" max="8217" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8218" max="8220" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8221" max="8221" width="2.796875" style="2" customWidth="1"/>
-    <col min="8222" max="8222" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8223" max="8225" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8226" max="8229" width="1.69921875" style="2" customWidth="1"/>
+    <col min="7975" max="8010" width="1.75" style="2" customWidth="1"/>
+    <col min="8011" max="8044" width="2.75" style="2" customWidth="1"/>
+    <col min="8045" max="8059" width="2.625" style="2" customWidth="1"/>
+    <col min="8060" max="8192" width="8.125" style="2"/>
+    <col min="8193" max="8194" width="2.75" style="2" customWidth="1"/>
+    <col min="8195" max="8195" width="1.75" style="2" customWidth="1"/>
+    <col min="8196" max="8199" width="3.125" style="2" customWidth="1"/>
+    <col min="8200" max="8200" width="2.75" style="2" customWidth="1"/>
+    <col min="8201" max="8201" width="1.75" style="2" customWidth="1"/>
+    <col min="8202" max="8205" width="3.125" style="2" customWidth="1"/>
+    <col min="8206" max="8206" width="2.75" style="2" customWidth="1"/>
+    <col min="8207" max="8209" width="1.75" style="2" customWidth="1"/>
+    <col min="8210" max="8212" width="3.125" style="2" customWidth="1"/>
+    <col min="8213" max="8214" width="2.75" style="2" customWidth="1"/>
+    <col min="8215" max="8217" width="1.75" style="2" customWidth="1"/>
+    <col min="8218" max="8220" width="3.125" style="2" customWidth="1"/>
+    <col min="8221" max="8221" width="2.75" style="2" customWidth="1"/>
+    <col min="8222" max="8222" width="1.75" style="2" customWidth="1"/>
+    <col min="8223" max="8225" width="3.125" style="2" customWidth="1"/>
+    <col min="8226" max="8229" width="1.75" style="2" customWidth="1"/>
     <col min="8230" max="8230" width="1.5" style="2" customWidth="1"/>
-    <col min="8231" max="8266" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8267" max="8300" width="2.796875" style="2" customWidth="1"/>
-    <col min="8301" max="8315" width="2.59765625" style="2" customWidth="1"/>
-    <col min="8316" max="8448" width="8.09765625" style="2"/>
-    <col min="8449" max="8450" width="2.796875" style="2" customWidth="1"/>
-    <col min="8451" max="8451" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8452" max="8455" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8456" max="8456" width="2.796875" style="2" customWidth="1"/>
-    <col min="8457" max="8457" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8458" max="8461" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8462" max="8462" width="2.796875" style="2" customWidth="1"/>
-    <col min="8463" max="8465" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8466" max="8468" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8469" max="8470" width="2.796875" style="2" customWidth="1"/>
-    <col min="8471" max="8473" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8474" max="8476" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8477" max="8477" width="2.796875" style="2" customWidth="1"/>
-    <col min="8478" max="8478" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8479" max="8481" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8482" max="8485" width="1.69921875" style="2" customWidth="1"/>
+    <col min="8231" max="8266" width="1.75" style="2" customWidth="1"/>
+    <col min="8267" max="8300" width="2.75" style="2" customWidth="1"/>
+    <col min="8301" max="8315" width="2.625" style="2" customWidth="1"/>
+    <col min="8316" max="8448" width="8.125" style="2"/>
+    <col min="8449" max="8450" width="2.75" style="2" customWidth="1"/>
+    <col min="8451" max="8451" width="1.75" style="2" customWidth="1"/>
+    <col min="8452" max="8455" width="3.125" style="2" customWidth="1"/>
+    <col min="8456" max="8456" width="2.75" style="2" customWidth="1"/>
+    <col min="8457" max="8457" width="1.75" style="2" customWidth="1"/>
+    <col min="8458" max="8461" width="3.125" style="2" customWidth="1"/>
+    <col min="8462" max="8462" width="2.75" style="2" customWidth="1"/>
+    <col min="8463" max="8465" width="1.75" style="2" customWidth="1"/>
+    <col min="8466" max="8468" width="3.125" style="2" customWidth="1"/>
+    <col min="8469" max="8470" width="2.75" style="2" customWidth="1"/>
+    <col min="8471" max="8473" width="1.75" style="2" customWidth="1"/>
+    <col min="8474" max="8476" width="3.125" style="2" customWidth="1"/>
+    <col min="8477" max="8477" width="2.75" style="2" customWidth="1"/>
+    <col min="8478" max="8478" width="1.75" style="2" customWidth="1"/>
+    <col min="8479" max="8481" width="3.125" style="2" customWidth="1"/>
+    <col min="8482" max="8485" width="1.75" style="2" customWidth="1"/>
     <col min="8486" max="8486" width="1.5" style="2" customWidth="1"/>
-    <col min="8487" max="8522" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8523" max="8556" width="2.796875" style="2" customWidth="1"/>
-    <col min="8557" max="8571" width="2.59765625" style="2" customWidth="1"/>
-    <col min="8572" max="8704" width="8.09765625" style="2"/>
-    <col min="8705" max="8706" width="2.796875" style="2" customWidth="1"/>
-    <col min="8707" max="8707" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8708" max="8711" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8712" max="8712" width="2.796875" style="2" customWidth="1"/>
-    <col min="8713" max="8713" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8714" max="8717" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8718" max="8718" width="2.796875" style="2" customWidth="1"/>
-    <col min="8719" max="8721" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8722" max="8724" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8725" max="8726" width="2.796875" style="2" customWidth="1"/>
-    <col min="8727" max="8729" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8730" max="8732" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8733" max="8733" width="2.796875" style="2" customWidth="1"/>
-    <col min="8734" max="8734" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8735" max="8737" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8738" max="8741" width="1.69921875" style="2" customWidth="1"/>
+    <col min="8487" max="8522" width="1.75" style="2" customWidth="1"/>
+    <col min="8523" max="8556" width="2.75" style="2" customWidth="1"/>
+    <col min="8557" max="8571" width="2.625" style="2" customWidth="1"/>
+    <col min="8572" max="8704" width="8.125" style="2"/>
+    <col min="8705" max="8706" width="2.75" style="2" customWidth="1"/>
+    <col min="8707" max="8707" width="1.75" style="2" customWidth="1"/>
+    <col min="8708" max="8711" width="3.125" style="2" customWidth="1"/>
+    <col min="8712" max="8712" width="2.75" style="2" customWidth="1"/>
+    <col min="8713" max="8713" width="1.75" style="2" customWidth="1"/>
+    <col min="8714" max="8717" width="3.125" style="2" customWidth="1"/>
+    <col min="8718" max="8718" width="2.75" style="2" customWidth="1"/>
+    <col min="8719" max="8721" width="1.75" style="2" customWidth="1"/>
+    <col min="8722" max="8724" width="3.125" style="2" customWidth="1"/>
+    <col min="8725" max="8726" width="2.75" style="2" customWidth="1"/>
+    <col min="8727" max="8729" width="1.75" style="2" customWidth="1"/>
+    <col min="8730" max="8732" width="3.125" style="2" customWidth="1"/>
+    <col min="8733" max="8733" width="2.75" style="2" customWidth="1"/>
+    <col min="8734" max="8734" width="1.75" style="2" customWidth="1"/>
+    <col min="8735" max="8737" width="3.125" style="2" customWidth="1"/>
+    <col min="8738" max="8741" width="1.75" style="2" customWidth="1"/>
     <col min="8742" max="8742" width="1.5" style="2" customWidth="1"/>
-    <col min="8743" max="8778" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8779" max="8812" width="2.796875" style="2" customWidth="1"/>
-    <col min="8813" max="8827" width="2.59765625" style="2" customWidth="1"/>
-    <col min="8828" max="8960" width="8.09765625" style="2"/>
-    <col min="8961" max="8962" width="2.796875" style="2" customWidth="1"/>
-    <col min="8963" max="8963" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8964" max="8967" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8968" max="8968" width="2.796875" style="2" customWidth="1"/>
-    <col min="8969" max="8969" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8970" max="8973" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8974" max="8974" width="2.796875" style="2" customWidth="1"/>
-    <col min="8975" max="8977" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8978" max="8980" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8981" max="8982" width="2.796875" style="2" customWidth="1"/>
-    <col min="8983" max="8985" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8986" max="8988" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8989" max="8989" width="2.796875" style="2" customWidth="1"/>
-    <col min="8990" max="8990" width="1.69921875" style="2" customWidth="1"/>
-    <col min="8991" max="8993" width="3.09765625" style="2" customWidth="1"/>
-    <col min="8994" max="8997" width="1.69921875" style="2" customWidth="1"/>
+    <col min="8743" max="8778" width="1.75" style="2" customWidth="1"/>
+    <col min="8779" max="8812" width="2.75" style="2" customWidth="1"/>
+    <col min="8813" max="8827" width="2.625" style="2" customWidth="1"/>
+    <col min="8828" max="8960" width="8.125" style="2"/>
+    <col min="8961" max="8962" width="2.75" style="2" customWidth="1"/>
+    <col min="8963" max="8963" width="1.75" style="2" customWidth="1"/>
+    <col min="8964" max="8967" width="3.125" style="2" customWidth="1"/>
+    <col min="8968" max="8968" width="2.75" style="2" customWidth="1"/>
+    <col min="8969" max="8969" width="1.75" style="2" customWidth="1"/>
+    <col min="8970" max="8973" width="3.125" style="2" customWidth="1"/>
+    <col min="8974" max="8974" width="2.75" style="2" customWidth="1"/>
+    <col min="8975" max="8977" width="1.75" style="2" customWidth="1"/>
+    <col min="8978" max="8980" width="3.125" style="2" customWidth="1"/>
+    <col min="8981" max="8982" width="2.75" style="2" customWidth="1"/>
+    <col min="8983" max="8985" width="1.75" style="2" customWidth="1"/>
+    <col min="8986" max="8988" width="3.125" style="2" customWidth="1"/>
+    <col min="8989" max="8989" width="2.75" style="2" customWidth="1"/>
+    <col min="8990" max="8990" width="1.75" style="2" customWidth="1"/>
+    <col min="8991" max="8993" width="3.125" style="2" customWidth="1"/>
+    <col min="8994" max="8997" width="1.75" style="2" customWidth="1"/>
     <col min="8998" max="8998" width="1.5" style="2" customWidth="1"/>
-    <col min="8999" max="9034" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9035" max="9068" width="2.796875" style="2" customWidth="1"/>
-    <col min="9069" max="9083" width="2.59765625" style="2" customWidth="1"/>
-    <col min="9084" max="9216" width="8.09765625" style="2"/>
-    <col min="9217" max="9218" width="2.796875" style="2" customWidth="1"/>
-    <col min="9219" max="9219" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9220" max="9223" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9224" max="9224" width="2.796875" style="2" customWidth="1"/>
-    <col min="9225" max="9225" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9226" max="9229" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9230" max="9230" width="2.796875" style="2" customWidth="1"/>
-    <col min="9231" max="9233" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9234" max="9236" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9237" max="9238" width="2.796875" style="2" customWidth="1"/>
-    <col min="9239" max="9241" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9242" max="9244" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9245" max="9245" width="2.796875" style="2" customWidth="1"/>
-    <col min="9246" max="9246" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9247" max="9249" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9250" max="9253" width="1.69921875" style="2" customWidth="1"/>
+    <col min="8999" max="9034" width="1.75" style="2" customWidth="1"/>
+    <col min="9035" max="9068" width="2.75" style="2" customWidth="1"/>
+    <col min="9069" max="9083" width="2.625" style="2" customWidth="1"/>
+    <col min="9084" max="9216" width="8.125" style="2"/>
+    <col min="9217" max="9218" width="2.75" style="2" customWidth="1"/>
+    <col min="9219" max="9219" width="1.75" style="2" customWidth="1"/>
+    <col min="9220" max="9223" width="3.125" style="2" customWidth="1"/>
+    <col min="9224" max="9224" width="2.75" style="2" customWidth="1"/>
+    <col min="9225" max="9225" width="1.75" style="2" customWidth="1"/>
+    <col min="9226" max="9229" width="3.125" style="2" customWidth="1"/>
+    <col min="9230" max="9230" width="2.75" style="2" customWidth="1"/>
+    <col min="9231" max="9233" width="1.75" style="2" customWidth="1"/>
+    <col min="9234" max="9236" width="3.125" style="2" customWidth="1"/>
+    <col min="9237" max="9238" width="2.75" style="2" customWidth="1"/>
+    <col min="9239" max="9241" width="1.75" style="2" customWidth="1"/>
+    <col min="9242" max="9244" width="3.125" style="2" customWidth="1"/>
+    <col min="9245" max="9245" width="2.75" style="2" customWidth="1"/>
+    <col min="9246" max="9246" width="1.75" style="2" customWidth="1"/>
+    <col min="9247" max="9249" width="3.125" style="2" customWidth="1"/>
+    <col min="9250" max="9253" width="1.75" style="2" customWidth="1"/>
     <col min="9254" max="9254" width="1.5" style="2" customWidth="1"/>
-    <col min="9255" max="9290" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9291" max="9324" width="2.796875" style="2" customWidth="1"/>
-    <col min="9325" max="9339" width="2.59765625" style="2" customWidth="1"/>
-    <col min="9340" max="9472" width="8.09765625" style="2"/>
-    <col min="9473" max="9474" width="2.796875" style="2" customWidth="1"/>
-    <col min="9475" max="9475" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9476" max="9479" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9480" max="9480" width="2.796875" style="2" customWidth="1"/>
-    <col min="9481" max="9481" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9482" max="9485" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9486" max="9486" width="2.796875" style="2" customWidth="1"/>
-    <col min="9487" max="9489" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9490" max="9492" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9493" max="9494" width="2.796875" style="2" customWidth="1"/>
-    <col min="9495" max="9497" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9498" max="9500" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9501" max="9501" width="2.796875" style="2" customWidth="1"/>
-    <col min="9502" max="9502" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9503" max="9505" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9506" max="9509" width="1.69921875" style="2" customWidth="1"/>
+    <col min="9255" max="9290" width="1.75" style="2" customWidth="1"/>
+    <col min="9291" max="9324" width="2.75" style="2" customWidth="1"/>
+    <col min="9325" max="9339" width="2.625" style="2" customWidth="1"/>
+    <col min="9340" max="9472" width="8.125" style="2"/>
+    <col min="9473" max="9474" width="2.75" style="2" customWidth="1"/>
+    <col min="9475" max="9475" width="1.75" style="2" customWidth="1"/>
+    <col min="9476" max="9479" width="3.125" style="2" customWidth="1"/>
+    <col min="9480" max="9480" width="2.75" style="2" customWidth="1"/>
+    <col min="9481" max="9481" width="1.75" style="2" customWidth="1"/>
+    <col min="9482" max="9485" width="3.125" style="2" customWidth="1"/>
+    <col min="9486" max="9486" width="2.75" style="2" customWidth="1"/>
+    <col min="9487" max="9489" width="1.75" style="2" customWidth="1"/>
+    <col min="9490" max="9492" width="3.125" style="2" customWidth="1"/>
+    <col min="9493" max="9494" width="2.75" style="2" customWidth="1"/>
+    <col min="9495" max="9497" width="1.75" style="2" customWidth="1"/>
+    <col min="9498" max="9500" width="3.125" style="2" customWidth="1"/>
+    <col min="9501" max="9501" width="2.75" style="2" customWidth="1"/>
+    <col min="9502" max="9502" width="1.75" style="2" customWidth="1"/>
+    <col min="9503" max="9505" width="3.125" style="2" customWidth="1"/>
+    <col min="9506" max="9509" width="1.75" style="2" customWidth="1"/>
     <col min="9510" max="9510" width="1.5" style="2" customWidth="1"/>
-    <col min="9511" max="9546" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9547" max="9580" width="2.796875" style="2" customWidth="1"/>
-    <col min="9581" max="9595" width="2.59765625" style="2" customWidth="1"/>
-    <col min="9596" max="9728" width="8.09765625" style="2"/>
-    <col min="9729" max="9730" width="2.796875" style="2" customWidth="1"/>
-    <col min="9731" max="9731" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9732" max="9735" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9736" max="9736" width="2.796875" style="2" customWidth="1"/>
-    <col min="9737" max="9737" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9738" max="9741" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9742" max="9742" width="2.796875" style="2" customWidth="1"/>
-    <col min="9743" max="9745" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9746" max="9748" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9749" max="9750" width="2.796875" style="2" customWidth="1"/>
-    <col min="9751" max="9753" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9754" max="9756" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9757" max="9757" width="2.796875" style="2" customWidth="1"/>
-    <col min="9758" max="9758" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9759" max="9761" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9762" max="9765" width="1.69921875" style="2" customWidth="1"/>
+    <col min="9511" max="9546" width="1.75" style="2" customWidth="1"/>
+    <col min="9547" max="9580" width="2.75" style="2" customWidth="1"/>
+    <col min="9581" max="9595" width="2.625" style="2" customWidth="1"/>
+    <col min="9596" max="9728" width="8.125" style="2"/>
+    <col min="9729" max="9730" width="2.75" style="2" customWidth="1"/>
+    <col min="9731" max="9731" width="1.75" style="2" customWidth="1"/>
+    <col min="9732" max="9735" width="3.125" style="2" customWidth="1"/>
+    <col min="9736" max="9736" width="2.75" style="2" customWidth="1"/>
+    <col min="9737" max="9737" width="1.75" style="2" customWidth="1"/>
+    <col min="9738" max="9741" width="3.125" style="2" customWidth="1"/>
+    <col min="9742" max="9742" width="2.75" style="2" customWidth="1"/>
+    <col min="9743" max="9745" width="1.75" style="2" customWidth="1"/>
+    <col min="9746" max="9748" width="3.125" style="2" customWidth="1"/>
+    <col min="9749" max="9750" width="2.75" style="2" customWidth="1"/>
+    <col min="9751" max="9753" width="1.75" style="2" customWidth="1"/>
+    <col min="9754" max="9756" width="3.125" style="2" customWidth="1"/>
+    <col min="9757" max="9757" width="2.75" style="2" customWidth="1"/>
+    <col min="9758" max="9758" width="1.75" style="2" customWidth="1"/>
+    <col min="9759" max="9761" width="3.125" style="2" customWidth="1"/>
+    <col min="9762" max="9765" width="1.75" style="2" customWidth="1"/>
     <col min="9766" max="9766" width="1.5" style="2" customWidth="1"/>
-    <col min="9767" max="9802" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9803" max="9836" width="2.796875" style="2" customWidth="1"/>
-    <col min="9837" max="9851" width="2.59765625" style="2" customWidth="1"/>
-    <col min="9852" max="9984" width="8.09765625" style="2"/>
-    <col min="9985" max="9986" width="2.796875" style="2" customWidth="1"/>
-    <col min="9987" max="9987" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9988" max="9991" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9992" max="9992" width="2.796875" style="2" customWidth="1"/>
-    <col min="9993" max="9993" width="1.69921875" style="2" customWidth="1"/>
-    <col min="9994" max="9997" width="3.09765625" style="2" customWidth="1"/>
-    <col min="9998" max="9998" width="2.796875" style="2" customWidth="1"/>
-    <col min="9999" max="10001" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10002" max="10004" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10005" max="10006" width="2.796875" style="2" customWidth="1"/>
-    <col min="10007" max="10009" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10010" max="10012" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10013" max="10013" width="2.796875" style="2" customWidth="1"/>
-    <col min="10014" max="10014" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10015" max="10017" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10018" max="10021" width="1.69921875" style="2" customWidth="1"/>
+    <col min="9767" max="9802" width="1.75" style="2" customWidth="1"/>
+    <col min="9803" max="9836" width="2.75" style="2" customWidth="1"/>
+    <col min="9837" max="9851" width="2.625" style="2" customWidth="1"/>
+    <col min="9852" max="9984" width="8.125" style="2"/>
+    <col min="9985" max="9986" width="2.75" style="2" customWidth="1"/>
+    <col min="9987" max="9987" width="1.75" style="2" customWidth="1"/>
+    <col min="9988" max="9991" width="3.125" style="2" customWidth="1"/>
+    <col min="9992" max="9992" width="2.75" style="2" customWidth="1"/>
+    <col min="9993" max="9993" width="1.75" style="2" customWidth="1"/>
+    <col min="9994" max="9997" width="3.125" style="2" customWidth="1"/>
+    <col min="9998" max="9998" width="2.75" style="2" customWidth="1"/>
+    <col min="9999" max="10001" width="1.75" style="2" customWidth="1"/>
+    <col min="10002" max="10004" width="3.125" style="2" customWidth="1"/>
+    <col min="10005" max="10006" width="2.75" style="2" customWidth="1"/>
+    <col min="10007" max="10009" width="1.75" style="2" customWidth="1"/>
+    <col min="10010" max="10012" width="3.125" style="2" customWidth="1"/>
+    <col min="10013" max="10013" width="2.75" style="2" customWidth="1"/>
+    <col min="10014" max="10014" width="1.75" style="2" customWidth="1"/>
+    <col min="10015" max="10017" width="3.125" style="2" customWidth="1"/>
+    <col min="10018" max="10021" width="1.75" style="2" customWidth="1"/>
     <col min="10022" max="10022" width="1.5" style="2" customWidth="1"/>
-    <col min="10023" max="10058" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10059" max="10092" width="2.796875" style="2" customWidth="1"/>
-    <col min="10093" max="10107" width="2.59765625" style="2" customWidth="1"/>
-    <col min="10108" max="10240" width="8.09765625" style="2"/>
-    <col min="10241" max="10242" width="2.796875" style="2" customWidth="1"/>
-    <col min="10243" max="10243" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10244" max="10247" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10248" max="10248" width="2.796875" style="2" customWidth="1"/>
-    <col min="10249" max="10249" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10250" max="10253" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10254" max="10254" width="2.796875" style="2" customWidth="1"/>
-    <col min="10255" max="10257" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10258" max="10260" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10261" max="10262" width="2.796875" style="2" customWidth="1"/>
-    <col min="10263" max="10265" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10266" max="10268" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10269" max="10269" width="2.796875" style="2" customWidth="1"/>
-    <col min="10270" max="10270" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10271" max="10273" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10274" max="10277" width="1.69921875" style="2" customWidth="1"/>
+    <col min="10023" max="10058" width="1.75" style="2" customWidth="1"/>
+    <col min="10059" max="10092" width="2.75" style="2" customWidth="1"/>
+    <col min="10093" max="10107" width="2.625" style="2" customWidth="1"/>
+    <col min="10108" max="10240" width="8.125" style="2"/>
+    <col min="10241" max="10242" width="2.75" style="2" customWidth="1"/>
+    <col min="10243" max="10243" width="1.75" style="2" customWidth="1"/>
+    <col min="10244" max="10247" width="3.125" style="2" customWidth="1"/>
+    <col min="10248" max="10248" width="2.75" style="2" customWidth="1"/>
+    <col min="10249" max="10249" width="1.75" style="2" customWidth="1"/>
+    <col min="10250" max="10253" width="3.125" style="2" customWidth="1"/>
+    <col min="10254" max="10254" width="2.75" style="2" customWidth="1"/>
+    <col min="10255" max="10257" width="1.75" style="2" customWidth="1"/>
+    <col min="10258" max="10260" width="3.125" style="2" customWidth="1"/>
+    <col min="10261" max="10262" width="2.75" style="2" customWidth="1"/>
+    <col min="10263" max="10265" width="1.75" style="2" customWidth="1"/>
+    <col min="10266" max="10268" width="3.125" style="2" customWidth="1"/>
+    <col min="10269" max="10269" width="2.75" style="2" customWidth="1"/>
+    <col min="10270" max="10270" width="1.75" style="2" customWidth="1"/>
+    <col min="10271" max="10273" width="3.125" style="2" customWidth="1"/>
+    <col min="10274" max="10277" width="1.75" style="2" customWidth="1"/>
     <col min="10278" max="10278" width="1.5" style="2" customWidth="1"/>
-    <col min="10279" max="10314" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10315" max="10348" width="2.796875" style="2" customWidth="1"/>
-    <col min="10349" max="10363" width="2.59765625" style="2" customWidth="1"/>
-    <col min="10364" max="10496" width="8.09765625" style="2"/>
-    <col min="10497" max="10498" width="2.796875" style="2" customWidth="1"/>
-    <col min="10499" max="10499" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10500" max="10503" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10504" max="10504" width="2.796875" style="2" customWidth="1"/>
-    <col min="10505" max="10505" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10506" max="10509" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10510" max="10510" width="2.796875" style="2" customWidth="1"/>
-    <col min="10511" max="10513" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10514" max="10516" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10517" max="10518" width="2.796875" style="2" customWidth="1"/>
-    <col min="10519" max="10521" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10522" max="10524" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10525" max="10525" width="2.796875" style="2" customWidth="1"/>
-    <col min="10526" max="10526" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10527" max="10529" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10530" max="10533" width="1.69921875" style="2" customWidth="1"/>
+    <col min="10279" max="10314" width="1.75" style="2" customWidth="1"/>
+    <col min="10315" max="10348" width="2.75" style="2" customWidth="1"/>
+    <col min="10349" max="10363" width="2.625" style="2" customWidth="1"/>
+    <col min="10364" max="10496" width="8.125" style="2"/>
+    <col min="10497" max="10498" width="2.75" style="2" customWidth="1"/>
+    <col min="10499" max="10499" width="1.75" style="2" customWidth="1"/>
+    <col min="10500" max="10503" width="3.125" style="2" customWidth="1"/>
+    <col min="10504" max="10504" width="2.75" style="2" customWidth="1"/>
+    <col min="10505" max="10505" width="1.75" style="2" customWidth="1"/>
+    <col min="10506" max="10509" width="3.125" style="2" customWidth="1"/>
+    <col min="10510" max="10510" width="2.75" style="2" customWidth="1"/>
+    <col min="10511" max="10513" width="1.75" style="2" customWidth="1"/>
+    <col min="10514" max="10516" width="3.125" style="2" customWidth="1"/>
+    <col min="10517" max="10518" width="2.75" style="2" customWidth="1"/>
+    <col min="10519" max="10521" width="1.75" style="2" customWidth="1"/>
+    <col min="10522" max="10524" width="3.125" style="2" customWidth="1"/>
+    <col min="10525" max="10525" width="2.75" style="2" customWidth="1"/>
+    <col min="10526" max="10526" width="1.75" style="2" customWidth="1"/>
+    <col min="10527" max="10529" width="3.125" style="2" customWidth="1"/>
+    <col min="10530" max="10533" width="1.75" style="2" customWidth="1"/>
     <col min="10534" max="10534" width="1.5" style="2" customWidth="1"/>
-    <col min="10535" max="10570" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10571" max="10604" width="2.796875" style="2" customWidth="1"/>
-    <col min="10605" max="10619" width="2.59765625" style="2" customWidth="1"/>
-    <col min="10620" max="10752" width="8.09765625" style="2"/>
-    <col min="10753" max="10754" width="2.796875" style="2" customWidth="1"/>
-    <col min="10755" max="10755" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10756" max="10759" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10760" max="10760" width="2.796875" style="2" customWidth="1"/>
-    <col min="10761" max="10761" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10762" max="10765" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10766" max="10766" width="2.796875" style="2" customWidth="1"/>
-    <col min="10767" max="10769" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10770" max="10772" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10773" max="10774" width="2.796875" style="2" customWidth="1"/>
-    <col min="10775" max="10777" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10778" max="10780" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10781" max="10781" width="2.796875" style="2" customWidth="1"/>
-    <col min="10782" max="10782" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10783" max="10785" width="3.09765625" style="2" customWidth="1"/>
-    <col min="10786" max="10789" width="1.69921875" style="2" customWidth="1"/>
+    <col min="10535" max="10570" width="1.75" style="2" customWidth="1"/>
+    <col min="10571" max="10604" width="2.75" style="2" customWidth="1"/>
+    <col min="10605" max="10619" width="2.625" style="2" customWidth="1"/>
+    <col min="10620" max="10752" width="8.125" style="2"/>
+    <col min="10753" max="10754" width="2.75" style="2" customWidth="1"/>
+    <col min="10755" max="10755" width="1.75" style="2" customWidth="1"/>
+    <col min="10756" max="10759" width="3.125" style="2" customWidth="1"/>
+    <col min="10760" max="10760" width="2.75" style="2" customWidth="1"/>
+    <col min="10761" max="10761" width="1.75" style="2" customWidth="1"/>
+    <col min="10762" max="10765" width="3.125" style="2" customWidth="1"/>
+    <col min="10766" max="10766" width="2.75" style="2" customWidth="1"/>
+    <col min="10767" max="10769" width="1.75" style="2" customWidth="1"/>
+    <col min="10770" max="10772" width="3.125" style="2" customWidth="1"/>
+    <col min="10773" max="10774" width="2.75" style="2" customWidth="1"/>
+    <col min="10775" max="10777" width="1.75" style="2" customWidth="1"/>
+    <col min="10778" max="10780" width="3.125" style="2" customWidth="1"/>
+    <col min="10781" max="10781" width="2.75" style="2" customWidth="1"/>
+    <col min="10782" max="10782" width="1.75" style="2" customWidth="1"/>
+    <col min="10783" max="10785" width="3.125" style="2" customWidth="1"/>
+    <col min="10786" max="10789" width="1.75" style="2" customWidth="1"/>
     <col min="10790" max="10790" width="1.5" style="2" customWidth="1"/>
-    <col min="10791" max="10826" width="1.69921875" style="2" customWidth="1"/>
-    <col min="10827" max="10860" width="2.796875" style="2" customWidth="1"/>
-    <col min="10861" max="10875" width="2.59765625" style="2" customWidth="1"/>
-    <col min="10876" max="11008" width="8.09765625" style="2"/>
-    <col min="11009" max="11010" width="2.796875" style="2" customWidth="1"/>
-    <col min="11011" max="11011" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11012" max="11015" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11016" max="11016" width="2.796875" style="2" customWidth="1"/>
-    <col min="11017" max="11017" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11018" max="11021" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11022" max="11022" width="2.796875" style="2" customWidth="1"/>
-    <col min="11023" max="11025" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11026" max="11028" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11029" max="11030" width="2.796875" style="2" customWidth="1"/>
-    <col min="11031" max="11033" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11034" max="11036" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11037" max="11037" width="2.796875" style="2" customWidth="1"/>
-    <col min="11038" max="11038" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11039" max="11041" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11042" max="11045" width="1.69921875" style="2" customWidth="1"/>
+    <col min="10791" max="10826" width="1.75" style="2" customWidth="1"/>
+    <col min="10827" max="10860" width="2.75" style="2" customWidth="1"/>
+    <col min="10861" max="10875" width="2.625" style="2" customWidth="1"/>
+    <col min="10876" max="11008" width="8.125" style="2"/>
+    <col min="11009" max="11010" width="2.75" style="2" customWidth="1"/>
+    <col min="11011" max="11011" width="1.75" style="2" customWidth="1"/>
+    <col min="11012" max="11015" width="3.125" style="2" customWidth="1"/>
+    <col min="11016" max="11016" width="2.75" style="2" customWidth="1"/>
+    <col min="11017" max="11017" width="1.75" style="2" customWidth="1"/>
+    <col min="11018" max="11021" width="3.125" style="2" customWidth="1"/>
+    <col min="11022" max="11022" width="2.75" style="2" customWidth="1"/>
+    <col min="11023" max="11025" width="1.75" style="2" customWidth="1"/>
+    <col min="11026" max="11028" width="3.125" style="2" customWidth="1"/>
+    <col min="11029" max="11030" width="2.75" style="2" customWidth="1"/>
+    <col min="11031" max="11033" width="1.75" style="2" customWidth="1"/>
+    <col min="11034" max="11036" width="3.125" style="2" customWidth="1"/>
+    <col min="11037" max="11037" width="2.75" style="2" customWidth="1"/>
+    <col min="11038" max="11038" width="1.75" style="2" customWidth="1"/>
+    <col min="11039" max="11041" width="3.125" style="2" customWidth="1"/>
+    <col min="11042" max="11045" width="1.75" style="2" customWidth="1"/>
     <col min="11046" max="11046" width="1.5" style="2" customWidth="1"/>
-    <col min="11047" max="11082" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11083" max="11116" width="2.796875" style="2" customWidth="1"/>
-    <col min="11117" max="11131" width="2.59765625" style="2" customWidth="1"/>
-    <col min="11132" max="11264" width="8.09765625" style="2"/>
-    <col min="11265" max="11266" width="2.796875" style="2" customWidth="1"/>
-    <col min="11267" max="11267" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11268" max="11271" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11272" max="11272" width="2.796875" style="2" customWidth="1"/>
-    <col min="11273" max="11273" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11274" max="11277" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11278" max="11278" width="2.796875" style="2" customWidth="1"/>
-    <col min="11279" max="11281" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11282" max="11284" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11285" max="11286" width="2.796875" style="2" customWidth="1"/>
-    <col min="11287" max="11289" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11290" max="11292" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11293" max="11293" width="2.796875" style="2" customWidth="1"/>
-    <col min="11294" max="11294" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11295" max="11297" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11298" max="11301" width="1.69921875" style="2" customWidth="1"/>
+    <col min="11047" max="11082" width="1.75" style="2" customWidth="1"/>
+    <col min="11083" max="11116" width="2.75" style="2" customWidth="1"/>
+    <col min="11117" max="11131" width="2.625" style="2" customWidth="1"/>
+    <col min="11132" max="11264" width="8.125" style="2"/>
+    <col min="11265" max="11266" width="2.75" style="2" customWidth="1"/>
+    <col min="11267" max="11267" width="1.75" style="2" customWidth="1"/>
+    <col min="11268" max="11271" width="3.125" style="2" customWidth="1"/>
+    <col min="11272" max="11272" width="2.75" style="2" customWidth="1"/>
+    <col min="11273" max="11273" width="1.75" style="2" customWidth="1"/>
+    <col min="11274" max="11277" width="3.125" style="2" customWidth="1"/>
+    <col min="11278" max="11278" width="2.75" style="2" customWidth="1"/>
+    <col min="11279" max="11281" width="1.75" style="2" customWidth="1"/>
+    <col min="11282" max="11284" width="3.125" style="2" customWidth="1"/>
+    <col min="11285" max="11286" width="2.75" style="2" customWidth="1"/>
+    <col min="11287" max="11289" width="1.75" style="2" customWidth="1"/>
+    <col min="11290" max="11292" width="3.125" style="2" customWidth="1"/>
+    <col min="11293" max="11293" width="2.75" style="2" customWidth="1"/>
+    <col min="11294" max="11294" width="1.75" style="2" customWidth="1"/>
+    <col min="11295" max="11297" width="3.125" style="2" customWidth="1"/>
+    <col min="11298" max="11301" width="1.75" style="2" customWidth="1"/>
     <col min="11302" max="11302" width="1.5" style="2" customWidth="1"/>
-    <col min="11303" max="11338" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11339" max="11372" width="2.796875" style="2" customWidth="1"/>
-    <col min="11373" max="11387" width="2.59765625" style="2" customWidth="1"/>
-    <col min="11388" max="11520" width="8.09765625" style="2"/>
-    <col min="11521" max="11522" width="2.796875" style="2" customWidth="1"/>
-    <col min="11523" max="11523" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11524" max="11527" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11528" max="11528" width="2.796875" style="2" customWidth="1"/>
-    <col min="11529" max="11529" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11530" max="11533" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11534" max="11534" width="2.796875" style="2" customWidth="1"/>
-    <col min="11535" max="11537" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11538" max="11540" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11541" max="11542" width="2.796875" style="2" customWidth="1"/>
-    <col min="11543" max="11545" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11546" max="11548" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11549" max="11549" width="2.796875" style="2" customWidth="1"/>
-    <col min="11550" max="11550" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11551" max="11553" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11554" max="11557" width="1.69921875" style="2" customWidth="1"/>
+    <col min="11303" max="11338" width="1.75" style="2" customWidth="1"/>
+    <col min="11339" max="11372" width="2.75" style="2" customWidth="1"/>
+    <col min="11373" max="11387" width="2.625" style="2" customWidth="1"/>
+    <col min="11388" max="11520" width="8.125" style="2"/>
+    <col min="11521" max="11522" width="2.75" style="2" customWidth="1"/>
+    <col min="11523" max="11523" width="1.75" style="2" customWidth="1"/>
+    <col min="11524" max="11527" width="3.125" style="2" customWidth="1"/>
+    <col min="11528" max="11528" width="2.75" style="2" customWidth="1"/>
+    <col min="11529" max="11529" width="1.75" style="2" customWidth="1"/>
+    <col min="11530" max="11533" width="3.125" style="2" customWidth="1"/>
+    <col min="11534" max="11534" width="2.75" style="2" customWidth="1"/>
+    <col min="11535" max="11537" width="1.75" style="2" customWidth="1"/>
+    <col min="11538" max="11540" width="3.125" style="2" customWidth="1"/>
+    <col min="11541" max="11542" width="2.75" style="2" customWidth="1"/>
+    <col min="11543" max="11545" width="1.75" style="2" customWidth="1"/>
+    <col min="11546" max="11548" width="3.125" style="2" customWidth="1"/>
+    <col min="11549" max="11549" width="2.75" style="2" customWidth="1"/>
+    <col min="11550" max="11550" width="1.75" style="2" customWidth="1"/>
+    <col min="11551" max="11553" width="3.125" style="2" customWidth="1"/>
+    <col min="11554" max="11557" width="1.75" style="2" customWidth="1"/>
     <col min="11558" max="11558" width="1.5" style="2" customWidth="1"/>
-    <col min="11559" max="11594" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11595" max="11628" width="2.796875" style="2" customWidth="1"/>
-    <col min="11629" max="11643" width="2.59765625" style="2" customWidth="1"/>
-    <col min="11644" max="11776" width="8.09765625" style="2"/>
-    <col min="11777" max="11778" width="2.796875" style="2" customWidth="1"/>
-    <col min="11779" max="11779" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11780" max="11783" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11784" max="11784" width="2.796875" style="2" customWidth="1"/>
-    <col min="11785" max="11785" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11786" max="11789" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11790" max="11790" width="2.796875" style="2" customWidth="1"/>
-    <col min="11791" max="11793" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11794" max="11796" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11797" max="11798" width="2.796875" style="2" customWidth="1"/>
-    <col min="11799" max="11801" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11802" max="11804" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11805" max="11805" width="2.796875" style="2" customWidth="1"/>
-    <col min="11806" max="11806" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11807" max="11809" width="3.09765625" style="2" customWidth="1"/>
-    <col min="11810" max="11813" width="1.69921875" style="2" customWidth="1"/>
+    <col min="11559" max="11594" width="1.75" style="2" customWidth="1"/>
+    <col min="11595" max="11628" width="2.75" style="2" customWidth="1"/>
+    <col min="11629" max="11643" width="2.625" style="2" customWidth="1"/>
+    <col min="11644" max="11776" width="8.125" style="2"/>
+    <col min="11777" max="11778" width="2.75" style="2" customWidth="1"/>
+    <col min="11779" max="11779" width="1.75" style="2" customWidth="1"/>
+    <col min="11780" max="11783" width="3.125" style="2" customWidth="1"/>
+    <col min="11784" max="11784" width="2.75" style="2" customWidth="1"/>
+    <col min="11785" max="11785" width="1.75" style="2" customWidth="1"/>
+    <col min="11786" max="11789" width="3.125" style="2" customWidth="1"/>
+    <col min="11790" max="11790" width="2.75" style="2" customWidth="1"/>
+    <col min="11791" max="11793" width="1.75" style="2" customWidth="1"/>
+    <col min="11794" max="11796" width="3.125" style="2" customWidth="1"/>
+    <col min="11797" max="11798" width="2.75" style="2" customWidth="1"/>
+    <col min="11799" max="11801" width="1.75" style="2" customWidth="1"/>
+    <col min="11802" max="11804" width="3.125" style="2" customWidth="1"/>
+    <col min="11805" max="11805" width="2.75" style="2" customWidth="1"/>
+    <col min="11806" max="11806" width="1.75" style="2" customWidth="1"/>
+    <col min="11807" max="11809" width="3.125" style="2" customWidth="1"/>
+    <col min="11810" max="11813" width="1.75" style="2" customWidth="1"/>
     <col min="11814" max="11814" width="1.5" style="2" customWidth="1"/>
-    <col min="11815" max="11850" width="1.69921875" style="2" customWidth="1"/>
-    <col min="11851" max="11884" width="2.796875" style="2" customWidth="1"/>
-    <col min="11885" max="11899" width="2.59765625" style="2" customWidth="1"/>
-    <col min="11900" max="12032" width="8.09765625" style="2"/>
-    <col min="12033" max="12034" width="2.796875" style="2" customWidth="1"/>
-    <col min="12035" max="12035" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12036" max="12039" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12040" max="12040" width="2.796875" style="2" customWidth="1"/>
-    <col min="12041" max="12041" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12042" max="12045" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12046" max="12046" width="2.796875" style="2" customWidth="1"/>
-    <col min="12047" max="12049" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12050" max="12052" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12053" max="12054" width="2.796875" style="2" customWidth="1"/>
-    <col min="12055" max="12057" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12058" max="12060" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12061" max="12061" width="2.796875" style="2" customWidth="1"/>
-    <col min="12062" max="12062" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12063" max="12065" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12066" max="12069" width="1.69921875" style="2" customWidth="1"/>
+    <col min="11815" max="11850" width="1.75" style="2" customWidth="1"/>
+    <col min="11851" max="11884" width="2.75" style="2" customWidth="1"/>
+    <col min="11885" max="11899" width="2.625" style="2" customWidth="1"/>
+    <col min="11900" max="12032" width="8.125" style="2"/>
+    <col min="12033" max="12034" width="2.75" style="2" customWidth="1"/>
+    <col min="12035" max="12035" width="1.75" style="2" customWidth="1"/>
+    <col min="12036" max="12039" width="3.125" style="2" customWidth="1"/>
+    <col min="12040" max="12040" width="2.75" style="2" customWidth="1"/>
+    <col min="12041" max="12041" width="1.75" style="2" customWidth="1"/>
+    <col min="12042" max="12045" width="3.125" style="2" customWidth="1"/>
+    <col min="12046" max="12046" width="2.75" style="2" customWidth="1"/>
+    <col min="12047" max="12049" width="1.75" style="2" customWidth="1"/>
+    <col min="12050" max="12052" width="3.125" style="2" customWidth="1"/>
+    <col min="12053" max="12054" width="2.75" style="2" customWidth="1"/>
+    <col min="12055" max="12057" width="1.75" style="2" customWidth="1"/>
+    <col min="12058" max="12060" width="3.125" style="2" customWidth="1"/>
+    <col min="12061" max="12061" width="2.75" style="2" customWidth="1"/>
+    <col min="12062" max="12062" width="1.75" style="2" customWidth="1"/>
+    <col min="12063" max="12065" width="3.125" style="2" customWidth="1"/>
+    <col min="12066" max="12069" width="1.75" style="2" customWidth="1"/>
     <col min="12070" max="12070" width="1.5" style="2" customWidth="1"/>
-    <col min="12071" max="12106" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12107" max="12140" width="2.796875" style="2" customWidth="1"/>
-    <col min="12141" max="12155" width="2.59765625" style="2" customWidth="1"/>
-    <col min="12156" max="12288" width="8.09765625" style="2"/>
-    <col min="12289" max="12290" width="2.796875" style="2" customWidth="1"/>
-    <col min="12291" max="12291" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12292" max="12295" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12296" max="12296" width="2.796875" style="2" customWidth="1"/>
-    <col min="12297" max="12297" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12298" max="12301" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12302" max="12302" width="2.796875" style="2" customWidth="1"/>
-    <col min="12303" max="12305" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12306" max="12308" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12309" max="12310" width="2.796875" style="2" customWidth="1"/>
-    <col min="12311" max="12313" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12314" max="12316" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12317" max="12317" width="2.796875" style="2" customWidth="1"/>
-    <col min="12318" max="12318" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12319" max="12321" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12322" max="12325" width="1.69921875" style="2" customWidth="1"/>
+    <col min="12071" max="12106" width="1.75" style="2" customWidth="1"/>
+    <col min="12107" max="12140" width="2.75" style="2" customWidth="1"/>
+    <col min="12141" max="12155" width="2.625" style="2" customWidth="1"/>
+    <col min="12156" max="12288" width="8.125" style="2"/>
+    <col min="12289" max="12290" width="2.75" style="2" customWidth="1"/>
+    <col min="12291" max="12291" width="1.75" style="2" customWidth="1"/>
+    <col min="12292" max="12295" width="3.125" style="2" customWidth="1"/>
+    <col min="12296" max="12296" width="2.75" style="2" customWidth="1"/>
+    <col min="12297" max="12297" width="1.75" style="2" customWidth="1"/>
+    <col min="12298" max="12301" width="3.125" style="2" customWidth="1"/>
+    <col min="12302" max="12302" width="2.75" style="2" customWidth="1"/>
+    <col min="12303" max="12305" width="1.75" style="2" customWidth="1"/>
+    <col min="12306" max="12308" width="3.125" style="2" customWidth="1"/>
+    <col min="12309" max="12310" width="2.75" style="2" customWidth="1"/>
+    <col min="12311" max="12313" width="1.75" style="2" customWidth="1"/>
+    <col min="12314" max="12316" width="3.125" style="2" customWidth="1"/>
+    <col min="12317" max="12317" width="2.75" style="2" customWidth="1"/>
+    <col min="12318" max="12318" width="1.75" style="2" customWidth="1"/>
+    <col min="12319" max="12321" width="3.125" style="2" customWidth="1"/>
+    <col min="12322" max="12325" width="1.75" style="2" customWidth="1"/>
     <col min="12326" max="12326" width="1.5" style="2" customWidth="1"/>
-    <col min="12327" max="12362" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12363" max="12396" width="2.796875" style="2" customWidth="1"/>
-    <col min="12397" max="12411" width="2.59765625" style="2" customWidth="1"/>
-    <col min="12412" max="12544" width="8.09765625" style="2"/>
-    <col min="12545" max="12546" width="2.796875" style="2" customWidth="1"/>
-    <col min="12547" max="12547" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12548" max="12551" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12552" max="12552" width="2.796875" style="2" customWidth="1"/>
-    <col min="12553" max="12553" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12554" max="12557" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12558" max="12558" width="2.796875" style="2" customWidth="1"/>
-    <col min="12559" max="12561" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12562" max="12564" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12565" max="12566" width="2.796875" style="2" customWidth="1"/>
-    <col min="12567" max="12569" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12570" max="12572" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12573" max="12573" width="2.796875" style="2" customWidth="1"/>
-    <col min="12574" max="12574" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12575" max="12577" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12578" max="12581" width="1.69921875" style="2" customWidth="1"/>
+    <col min="12327" max="12362" width="1.75" style="2" customWidth="1"/>
+    <col min="12363" max="12396" width="2.75" style="2" customWidth="1"/>
+    <col min="12397" max="12411" width="2.625" style="2" customWidth="1"/>
+    <col min="12412" max="12544" width="8.125" style="2"/>
+    <col min="12545" max="12546" width="2.75" style="2" customWidth="1"/>
+    <col min="12547" max="12547" width="1.75" style="2" customWidth="1"/>
+    <col min="12548" max="12551" width="3.125" style="2" customWidth="1"/>
+    <col min="12552" max="12552" width="2.75" style="2" customWidth="1"/>
+    <col min="12553" max="12553" width="1.75" style="2" customWidth="1"/>
+    <col min="12554" max="12557" width="3.125" style="2" customWidth="1"/>
+    <col min="12558" max="12558" width="2.75" style="2" customWidth="1"/>
+    <col min="12559" max="12561" width="1.75" style="2" customWidth="1"/>
+    <col min="12562" max="12564" width="3.125" style="2" customWidth="1"/>
+    <col min="12565" max="12566" width="2.75" style="2" customWidth="1"/>
+    <col min="12567" max="12569" width="1.75" style="2" customWidth="1"/>
+    <col min="12570" max="12572" width="3.125" style="2" customWidth="1"/>
+    <col min="12573" max="12573" width="2.75" style="2" customWidth="1"/>
+    <col min="12574" max="12574" width="1.75" style="2" customWidth="1"/>
+    <col min="12575" max="12577" width="3.125" style="2" customWidth="1"/>
+    <col min="12578" max="12581" width="1.75" style="2" customWidth="1"/>
     <col min="12582" max="12582" width="1.5" style="2" customWidth="1"/>
-    <col min="12583" max="12618" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12619" max="12652" width="2.796875" style="2" customWidth="1"/>
-    <col min="12653" max="12667" width="2.59765625" style="2" customWidth="1"/>
-    <col min="12668" max="12800" width="8.09765625" style="2"/>
-    <col min="12801" max="12802" width="2.796875" style="2" customWidth="1"/>
-    <col min="12803" max="12803" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12804" max="12807" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12808" max="12808" width="2.796875" style="2" customWidth="1"/>
-    <col min="12809" max="12809" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12810" max="12813" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12814" max="12814" width="2.796875" style="2" customWidth="1"/>
-    <col min="12815" max="12817" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12818" max="12820" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12821" max="12822" width="2.796875" style="2" customWidth="1"/>
-    <col min="12823" max="12825" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12826" max="12828" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12829" max="12829" width="2.796875" style="2" customWidth="1"/>
-    <col min="12830" max="12830" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12831" max="12833" width="3.09765625" style="2" customWidth="1"/>
-    <col min="12834" max="12837" width="1.69921875" style="2" customWidth="1"/>
+    <col min="12583" max="12618" width="1.75" style="2" customWidth="1"/>
+    <col min="12619" max="12652" width="2.75" style="2" customWidth="1"/>
+    <col min="12653" max="12667" width="2.625" style="2" customWidth="1"/>
+    <col min="12668" max="12800" width="8.125" style="2"/>
+    <col min="12801" max="12802" width="2.75" style="2" customWidth="1"/>
+    <col min="12803" max="12803" width="1.75" style="2" customWidth="1"/>
+    <col min="12804" max="12807" width="3.125" style="2" customWidth="1"/>
+    <col min="12808" max="12808" width="2.75" style="2" customWidth="1"/>
+    <col min="12809" max="12809" width="1.75" style="2" customWidth="1"/>
+    <col min="12810" max="12813" width="3.125" style="2" customWidth="1"/>
+    <col min="12814" max="12814" width="2.75" style="2" customWidth="1"/>
+    <col min="12815" max="12817" width="1.75" style="2" customWidth="1"/>
+    <col min="12818" max="12820" width="3.125" style="2" customWidth="1"/>
+    <col min="12821" max="12822" width="2.75" style="2" customWidth="1"/>
+    <col min="12823" max="12825" width="1.75" style="2" customWidth="1"/>
+    <col min="12826" max="12828" width="3.125" style="2" customWidth="1"/>
+    <col min="12829" max="12829" width="2.75" style="2" customWidth="1"/>
+    <col min="12830" max="12830" width="1.75" style="2" customWidth="1"/>
+    <col min="12831" max="12833" width="3.125" style="2" customWidth="1"/>
+    <col min="12834" max="12837" width="1.75" style="2" customWidth="1"/>
     <col min="12838" max="12838" width="1.5" style="2" customWidth="1"/>
-    <col min="12839" max="12874" width="1.69921875" style="2" customWidth="1"/>
-    <col min="12875" max="12908" width="2.796875" style="2" customWidth="1"/>
-    <col min="12909" max="12923" width="2.59765625" style="2" customWidth="1"/>
-    <col min="12924" max="13056" width="8.09765625" style="2"/>
-    <col min="13057" max="13058" width="2.796875" style="2" customWidth="1"/>
-    <col min="13059" max="13059" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13060" max="13063" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13064" max="13064" width="2.796875" style="2" customWidth="1"/>
-    <col min="13065" max="13065" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13066" max="13069" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13070" max="13070" width="2.796875" style="2" customWidth="1"/>
-    <col min="13071" max="13073" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13074" max="13076" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13077" max="13078" width="2.796875" style="2" customWidth="1"/>
-    <col min="13079" max="13081" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13082" max="13084" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13085" max="13085" width="2.796875" style="2" customWidth="1"/>
-    <col min="13086" max="13086" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13087" max="13089" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13090" max="13093" width="1.69921875" style="2" customWidth="1"/>
+    <col min="12839" max="12874" width="1.75" style="2" customWidth="1"/>
+    <col min="12875" max="12908" width="2.75" style="2" customWidth="1"/>
+    <col min="12909" max="12923" width="2.625" style="2" customWidth="1"/>
+    <col min="12924" max="13056" width="8.125" style="2"/>
+    <col min="13057" max="13058" width="2.75" style="2" customWidth="1"/>
+    <col min="13059" max="13059" width="1.75" style="2" customWidth="1"/>
+    <col min="13060" max="13063" width="3.125" style="2" customWidth="1"/>
+    <col min="13064" max="13064" width="2.75" style="2" customWidth="1"/>
+    <col min="13065" max="13065" width="1.75" style="2" customWidth="1"/>
+    <col min="13066" max="13069" width="3.125" style="2" customWidth="1"/>
+    <col min="13070" max="13070" width="2.75" style="2" customWidth="1"/>
+    <col min="13071" max="13073" width="1.75" style="2" customWidth="1"/>
+    <col min="13074" max="13076" width="3.125" style="2" customWidth="1"/>
+    <col min="13077" max="13078" width="2.75" style="2" customWidth="1"/>
+    <col min="13079" max="13081" width="1.75" style="2" customWidth="1"/>
+    <col min="13082" max="13084" width="3.125" style="2" customWidth="1"/>
+    <col min="13085" max="13085" width="2.75" style="2" customWidth="1"/>
+    <col min="13086" max="13086" width="1.75" style="2" customWidth="1"/>
+    <col min="13087" max="13089" width="3.125" style="2" customWidth="1"/>
+    <col min="13090" max="13093" width="1.75" style="2" customWidth="1"/>
     <col min="13094" max="13094" width="1.5" style="2" customWidth="1"/>
-    <col min="13095" max="13130" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13131" max="13164" width="2.796875" style="2" customWidth="1"/>
-    <col min="13165" max="13179" width="2.59765625" style="2" customWidth="1"/>
-    <col min="13180" max="13312" width="8.09765625" style="2"/>
-    <col min="13313" max="13314" width="2.796875" style="2" customWidth="1"/>
-    <col min="13315" max="13315" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13316" max="13319" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13320" max="13320" width="2.796875" style="2" customWidth="1"/>
-    <col min="13321" max="13321" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13322" max="13325" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13326" max="13326" width="2.796875" style="2" customWidth="1"/>
-    <col min="13327" max="13329" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13330" max="13332" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13333" max="13334" width="2.796875" style="2" customWidth="1"/>
-    <col min="13335" max="13337" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13338" max="13340" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13341" max="13341" width="2.796875" style="2" customWidth="1"/>
-    <col min="13342" max="13342" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13343" max="13345" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13346" max="13349" width="1.69921875" style="2" customWidth="1"/>
+    <col min="13095" max="13130" width="1.75" style="2" customWidth="1"/>
+    <col min="13131" max="13164" width="2.75" style="2" customWidth="1"/>
+    <col min="13165" max="13179" width="2.625" style="2" customWidth="1"/>
+    <col min="13180" max="13312" width="8.125" style="2"/>
+    <col min="13313" max="13314" width="2.75" style="2" customWidth="1"/>
+    <col min="13315" max="13315" width="1.75" style="2" customWidth="1"/>
+    <col min="13316" max="13319" width="3.125" style="2" customWidth="1"/>
+    <col min="13320" max="13320" width="2.75" style="2" customWidth="1"/>
+    <col min="13321" max="13321" width="1.75" style="2" customWidth="1"/>
+    <col min="13322" max="13325" width="3.125" style="2" customWidth="1"/>
+    <col min="13326" max="13326" width="2.75" style="2" customWidth="1"/>
+    <col min="13327" max="13329" width="1.75" style="2" customWidth="1"/>
+    <col min="13330" max="13332" width="3.125" style="2" customWidth="1"/>
+    <col min="13333" max="13334" width="2.75" style="2" customWidth="1"/>
+    <col min="13335" max="13337" width="1.75" style="2" customWidth="1"/>
+    <col min="13338" max="13340" width="3.125" style="2" customWidth="1"/>
+    <col min="13341" max="13341" width="2.75" style="2" customWidth="1"/>
+    <col min="13342" max="13342" width="1.75" style="2" customWidth="1"/>
+    <col min="13343" max="13345" width="3.125" style="2" customWidth="1"/>
+    <col min="13346" max="13349" width="1.75" style="2" customWidth="1"/>
     <col min="13350" max="13350" width="1.5" style="2" customWidth="1"/>
-    <col min="13351" max="13386" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13387" max="13420" width="2.796875" style="2" customWidth="1"/>
-    <col min="13421" max="13435" width="2.59765625" style="2" customWidth="1"/>
-    <col min="13436" max="13568" width="8.09765625" style="2"/>
-    <col min="13569" max="13570" width="2.796875" style="2" customWidth="1"/>
-    <col min="13571" max="13571" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13572" max="13575" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13576" max="13576" width="2.796875" style="2" customWidth="1"/>
-    <col min="13577" max="13577" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13578" max="13581" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13582" max="13582" width="2.796875" style="2" customWidth="1"/>
-    <col min="13583" max="13585" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13586" max="13588" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13589" max="13590" width="2.796875" style="2" customWidth="1"/>
-    <col min="13591" max="13593" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13594" max="13596" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13597" max="13597" width="2.796875" style="2" customWidth="1"/>
-    <col min="13598" max="13598" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13599" max="13601" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13602" max="13605" width="1.69921875" style="2" customWidth="1"/>
+    <col min="13351" max="13386" width="1.75" style="2" customWidth="1"/>
+    <col min="13387" max="13420" width="2.75" style="2" customWidth="1"/>
+    <col min="13421" max="13435" width="2.625" style="2" customWidth="1"/>
+    <col min="13436" max="13568" width="8.125" style="2"/>
+    <col min="13569" max="13570" width="2.75" style="2" customWidth="1"/>
+    <col min="13571" max="13571" width="1.75" style="2" customWidth="1"/>
+    <col min="13572" max="13575" width="3.125" style="2" customWidth="1"/>
+    <col min="13576" max="13576" width="2.75" style="2" customWidth="1"/>
+    <col min="13577" max="13577" width="1.75" style="2" customWidth="1"/>
+    <col min="13578" max="13581" width="3.125" style="2" customWidth="1"/>
+    <col min="13582" max="13582" width="2.75" style="2" customWidth="1"/>
+    <col min="13583" max="13585" width="1.75" style="2" customWidth="1"/>
+    <col min="13586" max="13588" width="3.125" style="2" customWidth="1"/>
+    <col min="13589" max="13590" width="2.75" style="2" customWidth="1"/>
+    <col min="13591" max="13593" width="1.75" style="2" customWidth="1"/>
+    <col min="13594" max="13596" width="3.125" style="2" customWidth="1"/>
+    <col min="13597" max="13597" width="2.75" style="2" customWidth="1"/>
+    <col min="13598" max="13598" width="1.75" style="2" customWidth="1"/>
+    <col min="13599" max="13601" width="3.125" style="2" customWidth="1"/>
+    <col min="13602" max="13605" width="1.75" style="2" customWidth="1"/>
     <col min="13606" max="13606" width="1.5" style="2" customWidth="1"/>
-    <col min="13607" max="13642" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13643" max="13676" width="2.796875" style="2" customWidth="1"/>
-    <col min="13677" max="13691" width="2.59765625" style="2" customWidth="1"/>
-    <col min="13692" max="13824" width="8.09765625" style="2"/>
-    <col min="13825" max="13826" width="2.796875" style="2" customWidth="1"/>
-    <col min="13827" max="13827" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13828" max="13831" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13832" max="13832" width="2.796875" style="2" customWidth="1"/>
-    <col min="13833" max="13833" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13834" max="13837" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13838" max="13838" width="2.796875" style="2" customWidth="1"/>
-    <col min="13839" max="13841" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13842" max="13844" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13845" max="13846" width="2.796875" style="2" customWidth="1"/>
-    <col min="13847" max="13849" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13850" max="13852" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13853" max="13853" width="2.796875" style="2" customWidth="1"/>
-    <col min="13854" max="13854" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13855" max="13857" width="3.09765625" style="2" customWidth="1"/>
-    <col min="13858" max="13861" width="1.69921875" style="2" customWidth="1"/>
+    <col min="13607" max="13642" width="1.75" style="2" customWidth="1"/>
+    <col min="13643" max="13676" width="2.75" style="2" customWidth="1"/>
+    <col min="13677" max="13691" width="2.625" style="2" customWidth="1"/>
+    <col min="13692" max="13824" width="8.125" style="2"/>
+    <col min="13825" max="13826" width="2.75" style="2" customWidth="1"/>
+    <col min="13827" max="13827" width="1.75" style="2" customWidth="1"/>
+    <col min="13828" max="13831" width="3.125" style="2" customWidth="1"/>
+    <col min="13832" max="13832" width="2.75" style="2" customWidth="1"/>
+    <col min="13833" max="13833" width="1.75" style="2" customWidth="1"/>
+    <col min="13834" max="13837" width="3.125" style="2" customWidth="1"/>
+    <col min="13838" max="13838" width="2.75" style="2" customWidth="1"/>
+    <col min="13839" max="13841" width="1.75" style="2" customWidth="1"/>
+    <col min="13842" max="13844" width="3.125" style="2" customWidth="1"/>
+    <col min="13845" max="13846" width="2.75" style="2" customWidth="1"/>
+    <col min="13847" max="13849" width="1.75" style="2" customWidth="1"/>
+    <col min="13850" max="13852" width="3.125" style="2" customWidth="1"/>
+    <col min="13853" max="13853" width="2.75" style="2" customWidth="1"/>
+    <col min="13854" max="13854" width="1.75" style="2" customWidth="1"/>
+    <col min="13855" max="13857" width="3.125" style="2" customWidth="1"/>
+    <col min="13858" max="13861" width="1.75" style="2" customWidth="1"/>
     <col min="13862" max="13862" width="1.5" style="2" customWidth="1"/>
-    <col min="13863" max="13898" width="1.69921875" style="2" customWidth="1"/>
-    <col min="13899" max="13932" width="2.796875" style="2" customWidth="1"/>
-    <col min="13933" max="13947" width="2.59765625" style="2" customWidth="1"/>
-    <col min="13948" max="14080" width="8.09765625" style="2"/>
-    <col min="14081" max="14082" width="2.796875" style="2" customWidth="1"/>
-    <col min="14083" max="14083" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14084" max="14087" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14088" max="14088" width="2.796875" style="2" customWidth="1"/>
-    <col min="14089" max="14089" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14090" max="14093" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14094" max="14094" width="2.796875" style="2" customWidth="1"/>
-    <col min="14095" max="14097" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14098" max="14100" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14101" max="14102" width="2.796875" style="2" customWidth="1"/>
-    <col min="14103" max="14105" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14106" max="14108" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14109" max="14109" width="2.796875" style="2" customWidth="1"/>
-    <col min="14110" max="14110" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14111" max="14113" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14114" max="14117" width="1.69921875" style="2" customWidth="1"/>
+    <col min="13863" max="13898" width="1.75" style="2" customWidth="1"/>
+    <col min="13899" max="13932" width="2.75" style="2" customWidth="1"/>
+    <col min="13933" max="13947" width="2.625" style="2" customWidth="1"/>
+    <col min="13948" max="14080" width="8.125" style="2"/>
+    <col min="14081" max="14082" width="2.75" style="2" customWidth="1"/>
+    <col min="14083" max="14083" width="1.75" style="2" customWidth="1"/>
+    <col min="14084" max="14087" width="3.125" style="2" customWidth="1"/>
+    <col min="14088" max="14088" width="2.75" style="2" customWidth="1"/>
+    <col min="14089" max="14089" width="1.75" style="2" customWidth="1"/>
+    <col min="14090" max="14093" width="3.125" style="2" customWidth="1"/>
+    <col min="14094" max="14094" width="2.75" style="2" customWidth="1"/>
+    <col min="14095" max="14097" width="1.75" style="2" customWidth="1"/>
+    <col min="14098" max="14100" width="3.125" style="2" customWidth="1"/>
+    <col min="14101" max="14102" width="2.75" style="2" customWidth="1"/>
+    <col min="14103" max="14105" width="1.75" style="2" customWidth="1"/>
+    <col min="14106" max="14108" width="3.125" style="2" customWidth="1"/>
+    <col min="14109" max="14109" width="2.75" style="2" customWidth="1"/>
+    <col min="14110" max="14110" width="1.75" style="2" customWidth="1"/>
+    <col min="14111" max="14113" width="3.125" style="2" customWidth="1"/>
+    <col min="14114" max="14117" width="1.75" style="2" customWidth="1"/>
     <col min="14118" max="14118" width="1.5" style="2" customWidth="1"/>
-    <col min="14119" max="14154" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14155" max="14188" width="2.796875" style="2" customWidth="1"/>
-    <col min="14189" max="14203" width="2.59765625" style="2" customWidth="1"/>
-    <col min="14204" max="14336" width="8.09765625" style="2"/>
-    <col min="14337" max="14338" width="2.796875" style="2" customWidth="1"/>
-    <col min="14339" max="14339" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14340" max="14343" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14344" max="14344" width="2.796875" style="2" customWidth="1"/>
-    <col min="14345" max="14345" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14346" max="14349" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14350" max="14350" width="2.796875" style="2" customWidth="1"/>
-    <col min="14351" max="14353" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14354" max="14356" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14357" max="14358" width="2.796875" style="2" customWidth="1"/>
-    <col min="14359" max="14361" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14362" max="14364" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14365" max="14365" width="2.796875" style="2" customWidth="1"/>
-    <col min="14366" max="14366" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14367" max="14369" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14370" max="14373" width="1.69921875" style="2" customWidth="1"/>
+    <col min="14119" max="14154" width="1.75" style="2" customWidth="1"/>
+    <col min="14155" max="14188" width="2.75" style="2" customWidth="1"/>
+    <col min="14189" max="14203" width="2.625" style="2" customWidth="1"/>
+    <col min="14204" max="14336" width="8.125" style="2"/>
+    <col min="14337" max="14338" width="2.75" style="2" customWidth="1"/>
+    <col min="14339" max="14339" width="1.75" style="2" customWidth="1"/>
+    <col min="14340" max="14343" width="3.125" style="2" customWidth="1"/>
+    <col min="14344" max="14344" width="2.75" style="2" customWidth="1"/>
+    <col min="14345" max="14345" width="1.75" style="2" customWidth="1"/>
+    <col min="14346" max="14349" width="3.125" style="2" customWidth="1"/>
+    <col min="14350" max="14350" width="2.75" style="2" customWidth="1"/>
+    <col min="14351" max="14353" width="1.75" style="2" customWidth="1"/>
+    <col min="14354" max="14356" width="3.125" style="2" customWidth="1"/>
+    <col min="14357" max="14358" width="2.75" style="2" customWidth="1"/>
+    <col min="14359" max="14361" width="1.75" style="2" customWidth="1"/>
+    <col min="14362" max="14364" width="3.125" style="2" customWidth="1"/>
+    <col min="14365" max="14365" width="2.75" style="2" customWidth="1"/>
+    <col min="14366" max="14366" width="1.75" style="2" customWidth="1"/>
+    <col min="14367" max="14369" width="3.125" style="2" customWidth="1"/>
+    <col min="14370" max="14373" width="1.75" style="2" customWidth="1"/>
     <col min="14374" max="14374" width="1.5" style="2" customWidth="1"/>
-    <col min="14375" max="14410" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14411" max="14444" width="2.796875" style="2" customWidth="1"/>
-    <col min="14445" max="14459" width="2.59765625" style="2" customWidth="1"/>
-    <col min="14460" max="14592" width="8.09765625" style="2"/>
-    <col min="14593" max="14594" width="2.796875" style="2" customWidth="1"/>
-    <col min="14595" max="14595" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14596" max="14599" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14600" max="14600" width="2.796875" style="2" customWidth="1"/>
-    <col min="14601" max="14601" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14602" max="14605" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14606" max="14606" width="2.796875" style="2" customWidth="1"/>
-    <col min="14607" max="14609" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14610" max="14612" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14613" max="14614" width="2.796875" style="2" customWidth="1"/>
-    <col min="14615" max="14617" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14618" max="14620" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14621" max="14621" width="2.796875" style="2" customWidth="1"/>
-    <col min="14622" max="14622" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14623" max="14625" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14626" max="14629" width="1.69921875" style="2" customWidth="1"/>
+    <col min="14375" max="14410" width="1.75" style="2" customWidth="1"/>
+    <col min="14411" max="14444" width="2.75" style="2" customWidth="1"/>
+    <col min="14445" max="14459" width="2.625" style="2" customWidth="1"/>
+    <col min="14460" max="14592" width="8.125" style="2"/>
+    <col min="14593" max="14594" width="2.75" style="2" customWidth="1"/>
+    <col min="14595" max="14595" width="1.75" style="2" customWidth="1"/>
+    <col min="14596" max="14599" width="3.125" style="2" customWidth="1"/>
+    <col min="14600" max="14600" width="2.75" style="2" customWidth="1"/>
+    <col min="14601" max="14601" width="1.75" style="2" customWidth="1"/>
+    <col min="14602" max="14605" width="3.125" style="2" customWidth="1"/>
+    <col min="14606" max="14606" width="2.75" style="2" customWidth="1"/>
+    <col min="14607" max="14609" width="1.75" style="2" customWidth="1"/>
+    <col min="14610" max="14612" width="3.125" style="2" customWidth="1"/>
+    <col min="14613" max="14614" width="2.75" style="2" customWidth="1"/>
+    <col min="14615" max="14617" width="1.75" style="2" customWidth="1"/>
+    <col min="14618" max="14620" width="3.125" style="2" customWidth="1"/>
+    <col min="14621" max="14621" width="2.75" style="2" customWidth="1"/>
+    <col min="14622" max="14622" width="1.75" style="2" customWidth="1"/>
+    <col min="14623" max="14625" width="3.125" style="2" customWidth="1"/>
+    <col min="14626" max="14629" width="1.75" style="2" customWidth="1"/>
     <col min="14630" max="14630" width="1.5" style="2" customWidth="1"/>
-    <col min="14631" max="14666" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14667" max="14700" width="2.796875" style="2" customWidth="1"/>
-    <col min="14701" max="14715" width="2.59765625" style="2" customWidth="1"/>
-    <col min="14716" max="14848" width="8.09765625" style="2"/>
-    <col min="14849" max="14850" width="2.796875" style="2" customWidth="1"/>
-    <col min="14851" max="14851" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14852" max="14855" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14856" max="14856" width="2.796875" style="2" customWidth="1"/>
-    <col min="14857" max="14857" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14858" max="14861" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14862" max="14862" width="2.796875" style="2" customWidth="1"/>
-    <col min="14863" max="14865" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14866" max="14868" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14869" max="14870" width="2.796875" style="2" customWidth="1"/>
-    <col min="14871" max="14873" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14874" max="14876" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14877" max="14877" width="2.796875" style="2" customWidth="1"/>
-    <col min="14878" max="14878" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14879" max="14881" width="3.09765625" style="2" customWidth="1"/>
-    <col min="14882" max="14885" width="1.69921875" style="2" customWidth="1"/>
+    <col min="14631" max="14666" width="1.75" style="2" customWidth="1"/>
+    <col min="14667" max="14700" width="2.75" style="2" customWidth="1"/>
+    <col min="14701" max="14715" width="2.625" style="2" customWidth="1"/>
+    <col min="14716" max="14848" width="8.125" style="2"/>
+    <col min="14849" max="14850" width="2.75" style="2" customWidth="1"/>
+    <col min="14851" max="14851" width="1.75" style="2" customWidth="1"/>
+    <col min="14852" max="14855" width="3.125" style="2" customWidth="1"/>
+    <col min="14856" max="14856" width="2.75" style="2" customWidth="1"/>
+    <col min="14857" max="14857" width="1.75" style="2" customWidth="1"/>
+    <col min="14858" max="14861" width="3.125" style="2" customWidth="1"/>
+    <col min="14862" max="14862" width="2.75" style="2" customWidth="1"/>
+    <col min="14863" max="14865" width="1.75" style="2" customWidth="1"/>
+    <col min="14866" max="14868" width="3.125" style="2" customWidth="1"/>
+    <col min="14869" max="14870" width="2.75" style="2" customWidth="1"/>
+    <col min="14871" max="14873" width="1.75" style="2" customWidth="1"/>
+    <col min="14874" max="14876" width="3.125" style="2" customWidth="1"/>
+    <col min="14877" max="14877" width="2.75" style="2" customWidth="1"/>
+    <col min="14878" max="14878" width="1.75" style="2" customWidth="1"/>
+    <col min="14879" max="14881" width="3.125" style="2" customWidth="1"/>
+    <col min="14882" max="14885" width="1.75" style="2" customWidth="1"/>
     <col min="14886" max="14886" width="1.5" style="2" customWidth="1"/>
-    <col min="14887" max="14922" width="1.69921875" style="2" customWidth="1"/>
-    <col min="14923" max="14956" width="2.796875" style="2" customWidth="1"/>
-    <col min="14957" max="14971" width="2.59765625" style="2" customWidth="1"/>
-    <col min="14972" max="15104" width="8.09765625" style="2"/>
-    <col min="15105" max="15106" width="2.796875" style="2" customWidth="1"/>
-    <col min="15107" max="15107" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15108" max="15111" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15112" max="15112" width="2.796875" style="2" customWidth="1"/>
-    <col min="15113" max="15113" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15114" max="15117" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15118" max="15118" width="2.796875" style="2" customWidth="1"/>
-    <col min="15119" max="15121" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15122" max="15124" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15125" max="15126" width="2.796875" style="2" customWidth="1"/>
-    <col min="15127" max="15129" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15130" max="15132" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15133" max="15133" width="2.796875" style="2" customWidth="1"/>
-    <col min="15134" max="15134" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15135" max="15137" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15138" max="15141" width="1.69921875" style="2" customWidth="1"/>
+    <col min="14887" max="14922" width="1.75" style="2" customWidth="1"/>
+    <col min="14923" max="14956" width="2.75" style="2" customWidth="1"/>
+    <col min="14957" max="14971" width="2.625" style="2" customWidth="1"/>
+    <col min="14972" max="15104" width="8.125" style="2"/>
+    <col min="15105" max="15106" width="2.75" style="2" customWidth="1"/>
+    <col min="15107" max="15107" width="1.75" style="2" customWidth="1"/>
+    <col min="15108" max="15111" width="3.125" style="2" customWidth="1"/>
+    <col min="15112" max="15112" width="2.75" style="2" customWidth="1"/>
+    <col min="15113" max="15113" width="1.75" style="2" customWidth="1"/>
+    <col min="15114" max="15117" width="3.125" style="2" customWidth="1"/>
+    <col min="15118" max="15118" width="2.75" style="2" customWidth="1"/>
+    <col min="15119" max="15121" width="1.75" style="2" customWidth="1"/>
+    <col min="15122" max="15124" width="3.125" style="2" customWidth="1"/>
+    <col min="15125" max="15126" width="2.75" style="2" customWidth="1"/>
+    <col min="15127" max="15129" width="1.75" style="2" customWidth="1"/>
+    <col min="15130" max="15132" width="3.125" style="2" customWidth="1"/>
+    <col min="15133" max="15133" width="2.75" style="2" customWidth="1"/>
+    <col min="15134" max="15134" width="1.75" style="2" customWidth="1"/>
+    <col min="15135" max="15137" width="3.125" style="2" customWidth="1"/>
+    <col min="15138" max="15141" width="1.75" style="2" customWidth="1"/>
     <col min="15142" max="15142" width="1.5" style="2" customWidth="1"/>
-    <col min="15143" max="15178" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15179" max="15212" width="2.796875" style="2" customWidth="1"/>
-    <col min="15213" max="15227" width="2.59765625" style="2" customWidth="1"/>
-    <col min="15228" max="15360" width="8.09765625" style="2"/>
-    <col min="15361" max="15362" width="2.796875" style="2" customWidth="1"/>
-    <col min="15363" max="15363" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15364" max="15367" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15368" max="15368" width="2.796875" style="2" customWidth="1"/>
-    <col min="15369" max="15369" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15370" max="15373" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15374" max="15374" width="2.796875" style="2" customWidth="1"/>
-    <col min="15375" max="15377" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15378" max="15380" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15381" max="15382" width="2.796875" style="2" customWidth="1"/>
-    <col min="15383" max="15385" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15386" max="15388" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15389" max="15389" width="2.796875" style="2" customWidth="1"/>
-    <col min="15390" max="15390" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15391" max="15393" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15394" max="15397" width="1.69921875" style="2" customWidth="1"/>
+    <col min="15143" max="15178" width="1.75" style="2" customWidth="1"/>
+    <col min="15179" max="15212" width="2.75" style="2" customWidth="1"/>
+    <col min="15213" max="15227" width="2.625" style="2" customWidth="1"/>
+    <col min="15228" max="15360" width="8.125" style="2"/>
+    <col min="15361" max="15362" width="2.75" style="2" customWidth="1"/>
+    <col min="15363" max="15363" width="1.75" style="2" customWidth="1"/>
+    <col min="15364" max="15367" width="3.125" style="2" customWidth="1"/>
+    <col min="15368" max="15368" width="2.75" style="2" customWidth="1"/>
+    <col min="15369" max="15369" width="1.75" style="2" customWidth="1"/>
+    <col min="15370" max="15373" width="3.125" style="2" customWidth="1"/>
+    <col min="15374" max="15374" width="2.75" style="2" customWidth="1"/>
+    <col min="15375" max="15377" width="1.75" style="2" customWidth="1"/>
+    <col min="15378" max="15380" width="3.125" style="2" customWidth="1"/>
+    <col min="15381" max="15382" width="2.75" style="2" customWidth="1"/>
+    <col min="15383" max="15385" width="1.75" style="2" customWidth="1"/>
+    <col min="15386" max="15388" width="3.125" style="2" customWidth="1"/>
+    <col min="15389" max="15389" width="2.75" style="2" customWidth="1"/>
+    <col min="15390" max="15390" width="1.75" style="2" customWidth="1"/>
+    <col min="15391" max="15393" width="3.125" style="2" customWidth="1"/>
+    <col min="15394" max="15397" width="1.75" style="2" customWidth="1"/>
     <col min="15398" max="15398" width="1.5" style="2" customWidth="1"/>
-    <col min="15399" max="15434" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15435" max="15468" width="2.796875" style="2" customWidth="1"/>
-    <col min="15469" max="15483" width="2.59765625" style="2" customWidth="1"/>
-    <col min="15484" max="15616" width="8.09765625" style="2"/>
-    <col min="15617" max="15618" width="2.796875" style="2" customWidth="1"/>
-    <col min="15619" max="15619" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15620" max="15623" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15624" max="15624" width="2.796875" style="2" customWidth="1"/>
-    <col min="15625" max="15625" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15626" max="15629" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15630" max="15630" width="2.796875" style="2" customWidth="1"/>
-    <col min="15631" max="15633" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15634" max="15636" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15637" max="15638" width="2.796875" style="2" customWidth="1"/>
-    <col min="15639" max="15641" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15642" max="15644" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15645" max="15645" width="2.796875" style="2" customWidth="1"/>
-    <col min="15646" max="15646" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15647" max="15649" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15650" max="15653" width="1.69921875" style="2" customWidth="1"/>
+    <col min="15399" max="15434" width="1.75" style="2" customWidth="1"/>
+    <col min="15435" max="15468" width="2.75" style="2" customWidth="1"/>
+    <col min="15469" max="15483" width="2.625" style="2" customWidth="1"/>
+    <col min="15484" max="15616" width="8.125" style="2"/>
+    <col min="15617" max="15618" width="2.75" style="2" customWidth="1"/>
+    <col min="15619" max="15619" width="1.75" style="2" customWidth="1"/>
+    <col min="15620" max="15623" width="3.125" style="2" customWidth="1"/>
+    <col min="15624" max="15624" width="2.75" style="2" customWidth="1"/>
+    <col min="15625" max="15625" width="1.75" style="2" customWidth="1"/>
+    <col min="15626" max="15629" width="3.125" style="2" customWidth="1"/>
+    <col min="15630" max="15630" width="2.75" style="2" customWidth="1"/>
+    <col min="15631" max="15633" width="1.75" style="2" customWidth="1"/>
+    <col min="15634" max="15636" width="3.125" style="2" customWidth="1"/>
+    <col min="15637" max="15638" width="2.75" style="2" customWidth="1"/>
+    <col min="15639" max="15641" width="1.75" style="2" customWidth="1"/>
+    <col min="15642" max="15644" width="3.125" style="2" customWidth="1"/>
+    <col min="15645" max="15645" width="2.75" style="2" customWidth="1"/>
+    <col min="15646" max="15646" width="1.75" style="2" customWidth="1"/>
+    <col min="15647" max="15649" width="3.125" style="2" customWidth="1"/>
+    <col min="15650" max="15653" width="1.75" style="2" customWidth="1"/>
     <col min="15654" max="15654" width="1.5" style="2" customWidth="1"/>
-    <col min="15655" max="15690" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15691" max="15724" width="2.796875" style="2" customWidth="1"/>
-    <col min="15725" max="15739" width="2.59765625" style="2" customWidth="1"/>
-    <col min="15740" max="15872" width="8.09765625" style="2"/>
-    <col min="15873" max="15874" width="2.796875" style="2" customWidth="1"/>
-    <col min="15875" max="15875" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15876" max="15879" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15880" max="15880" width="2.796875" style="2" customWidth="1"/>
-    <col min="15881" max="15881" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15882" max="15885" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15886" max="15886" width="2.796875" style="2" customWidth="1"/>
-    <col min="15887" max="15889" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15890" max="15892" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15893" max="15894" width="2.796875" style="2" customWidth="1"/>
-    <col min="15895" max="15897" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15898" max="15900" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15901" max="15901" width="2.796875" style="2" customWidth="1"/>
-    <col min="15902" max="15902" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15903" max="15905" width="3.09765625" style="2" customWidth="1"/>
-    <col min="15906" max="15909" width="1.69921875" style="2" customWidth="1"/>
+    <col min="15655" max="15690" width="1.75" style="2" customWidth="1"/>
+    <col min="15691" max="15724" width="2.75" style="2" customWidth="1"/>
+    <col min="15725" max="15739" width="2.625" style="2" customWidth="1"/>
+    <col min="15740" max="15872" width="8.125" style="2"/>
+    <col min="15873" max="15874" width="2.75" style="2" customWidth="1"/>
+    <col min="15875" max="15875" width="1.75" style="2" customWidth="1"/>
+    <col min="15876" max="15879" width="3.125" style="2" customWidth="1"/>
+    <col min="15880" max="15880" width="2.75" style="2" customWidth="1"/>
+    <col min="15881" max="15881" width="1.75" style="2" customWidth="1"/>
+    <col min="15882" max="15885" width="3.125" style="2" customWidth="1"/>
+    <col min="15886" max="15886" width="2.75" style="2" customWidth="1"/>
+    <col min="15887" max="15889" width="1.75" style="2" customWidth="1"/>
+    <col min="15890" max="15892" width="3.125" style="2" customWidth="1"/>
+    <col min="15893" max="15894" width="2.75" style="2" customWidth="1"/>
+    <col min="15895" max="15897" width="1.75" style="2" customWidth="1"/>
+    <col min="15898" max="15900" width="3.125" style="2" customWidth="1"/>
+    <col min="15901" max="15901" width="2.75" style="2" customWidth="1"/>
+    <col min="15902" max="15902" width="1.75" style="2" customWidth="1"/>
+    <col min="15903" max="15905" width="3.125" style="2" customWidth="1"/>
+    <col min="15906" max="15909" width="1.75" style="2" customWidth="1"/>
     <col min="15910" max="15910" width="1.5" style="2" customWidth="1"/>
-    <col min="15911" max="15946" width="1.69921875" style="2" customWidth="1"/>
-    <col min="15947" max="15980" width="2.796875" style="2" customWidth="1"/>
-    <col min="15981" max="15995" width="2.59765625" style="2" customWidth="1"/>
-    <col min="15996" max="16128" width="8.09765625" style="2"/>
-    <col min="16129" max="16130" width="2.796875" style="2" customWidth="1"/>
-    <col min="16131" max="16131" width="1.69921875" style="2" customWidth="1"/>
-    <col min="16132" max="16135" width="3.09765625" style="2" customWidth="1"/>
-    <col min="16136" max="16136" width="2.796875" style="2" customWidth="1"/>
-    <col min="16137" max="16137" width="1.69921875" style="2" customWidth="1"/>
-    <col min="16138" max="16141" width="3.09765625" style="2" customWidth="1"/>
-    <col min="16142" max="16142" width="2.796875" style="2" customWidth="1"/>
-    <col min="16143" max="16145" width="1.69921875" style="2" customWidth="1"/>
-    <col min="16146" max="16148" width="3.09765625" style="2" customWidth="1"/>
-    <col min="16149" max="16150" width="2.796875" style="2" customWidth="1"/>
-    <col min="16151" max="16153" width="1.69921875" style="2" customWidth="1"/>
-    <col min="16154" max="16156" width="3.09765625" style="2" customWidth="1"/>
-    <col min="16157" max="16157" width="2.796875" style="2" customWidth="1"/>
-    <col min="16158" max="16158" width="1.69921875" style="2" customWidth="1"/>
-    <col min="16159" max="16161" width="3.09765625" style="2" customWidth="1"/>
-    <col min="16162" max="16165" width="1.69921875" style="2" customWidth="1"/>
+    <col min="15911" max="15946" width="1.75" style="2" customWidth="1"/>
+    <col min="15947" max="15980" width="2.75" style="2" customWidth="1"/>
+    <col min="15981" max="15995" width="2.625" style="2" customWidth="1"/>
+    <col min="15996" max="16128" width="8.125" style="2"/>
+    <col min="16129" max="16130" width="2.75" style="2" customWidth="1"/>
+    <col min="16131" max="16131" width="1.75" style="2" customWidth="1"/>
+    <col min="16132" max="16135" width="3.125" style="2" customWidth="1"/>
+    <col min="16136" max="16136" width="2.75" style="2" customWidth="1"/>
+    <col min="16137" max="16137" width="1.75" style="2" customWidth="1"/>
+    <col min="16138" max="16141" width="3.125" style="2" customWidth="1"/>
+    <col min="16142" max="16142" width="2.75" style="2" customWidth="1"/>
+    <col min="16143" max="16145" width="1.75" style="2" customWidth="1"/>
+    <col min="16146" max="16148" width="3.125" style="2" customWidth="1"/>
+    <col min="16149" max="16150" width="2.75" style="2" customWidth="1"/>
+    <col min="16151" max="16153" width="1.75" style="2" customWidth="1"/>
+    <col min="16154" max="16156" width="3.125" style="2" customWidth="1"/>
+    <col min="16157" max="16157" width="2.75" style="2" customWidth="1"/>
+    <col min="16158" max="16158" width="1.75" style="2" customWidth="1"/>
+    <col min="16159" max="16161" width="3.125" style="2" customWidth="1"/>
+    <col min="16162" max="16165" width="1.75" style="2" customWidth="1"/>
     <col min="16166" max="16166" width="1.5" style="2" customWidth="1"/>
-    <col min="16167" max="16202" width="1.69921875" style="2" customWidth="1"/>
-    <col min="16203" max="16236" width="2.796875" style="2" customWidth="1"/>
-    <col min="16237" max="16251" width="2.59765625" style="2" customWidth="1"/>
-    <col min="16252" max="16384" width="8.09765625" style="2"/>
+    <col min="16167" max="16202" width="1.75" style="2" customWidth="1"/>
+    <col min="16203" max="16236" width="2.75" style="2" customWidth="1"/>
+    <col min="16237" max="16251" width="2.625" style="2" customWidth="1"/>
+    <col min="16252" max="16384" width="8.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54">
@@ -4733,17 +4508,17 @@
     </row>
     <row r="2" spans="1:54" ht="13.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="125" t="s">
+      <c r="J2" s="94" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="3"/>
@@ -4758,13 +4533,13 @@
       <c r="T2" s="3"/>
       <c r="U2" s="4"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="139" t="s">
+      <c r="W2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="141"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="79"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="3" t="s">
         <v>3</v>
@@ -4803,15 +4578,15 @@
     </row>
     <row r="3" spans="1:54" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="150"/>
+      <c r="J3" s="95"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -4824,13 +4599,13 @@
       <c r="T3" s="6"/>
       <c r="U3" s="8"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="139" t="s">
+      <c r="W3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="140"/>
-      <c r="Y3" s="140"/>
-      <c r="Z3" s="140"/>
-      <c r="AA3" s="141"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="79"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="6" t="s">
         <v>3</v>
@@ -4865,15 +4640,15 @@
     </row>
     <row r="4" spans="1:54" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="151"/>
+      <c r="J4" s="96"/>
       <c r="K4" s="7" t="s">
         <v>8</v>
       </c>
@@ -4890,13 +4665,13 @@
         <v>9</v>
       </c>
       <c r="V4" s="1"/>
-      <c r="W4" s="139" t="s">
+      <c r="W4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="140"/>
-      <c r="Z4" s="140"/>
-      <c r="AA4" s="141"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="79"/>
       <c r="AB4" s="10"/>
       <c r="AC4" s="7" t="s">
         <v>3</v>
@@ -4907,37 +4682,37 @@
         <v>4</v>
       </c>
       <c r="AG4" s="1"/>
-      <c r="AH4" s="139" t="s">
+      <c r="AH4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="AI4" s="140"/>
-      <c r="AJ4" s="140"/>
-      <c r="AK4" s="141"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="79"/>
       <c r="AL4" s="1"/>
-      <c r="AM4" s="139" t="s">
+      <c r="AM4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AN4" s="140"/>
-      <c r="AO4" s="140"/>
-      <c r="AP4" s="141"/>
-      <c r="AQ4" s="139" t="s">
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="AR4" s="140"/>
-      <c r="AS4" s="140"/>
-      <c r="AT4" s="141"/>
-      <c r="AU4" s="139" t="s">
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="78"/>
+      <c r="AT4" s="79"/>
+      <c r="AU4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="140"/>
-      <c r="AW4" s="140"/>
-      <c r="AX4" s="141"/>
-      <c r="AY4" s="139" t="s">
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="79"/>
+      <c r="AY4" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="AZ4" s="140"/>
-      <c r="BA4" s="140"/>
-      <c r="BB4" s="141"/>
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="79"/>
     </row>
     <row r="5" spans="1:54" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
@@ -4996,13 +4771,13 @@
       <c r="BB5" s="12"/>
     </row>
     <row r="6" spans="1:54" ht="13.5" customHeight="1">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="133"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="76" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -5016,32 +4791,32 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="131" t="s">
+      <c r="Q6" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="132"/>
-      <c r="S6" s="133"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="82"/>
       <c r="T6" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="U6" s="142" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="143"/>
-      <c r="W6" s="143"/>
-      <c r="X6" s="143"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="147" t="s">
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="AA6" s="148"/>
-      <c r="AB6" s="148"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
-      <c r="AE6" s="129" t="s">
+      <c r="AE6" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="AF6" s="130"/>
+      <c r="AF6" s="92"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="66" t="s">
         <v>89</v>
@@ -5076,11 +4851,11 @@
       <c r="BB6" s="12"/>
     </row>
     <row r="7" spans="1:54" ht="13.5" customHeight="1">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="133"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="63" t="s">
         <v>83</v>
       </c>
@@ -5100,24 +4875,24 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="128" t="s">
+      <c r="U7" s="86"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="129" t="s">
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129"/>
-      <c r="AE7" s="129" t="s">
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="AF7" s="130"/>
+      <c r="AF7" s="92"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="11"/>
       <c r="AI7" s="1"/>
@@ -5142,13 +4917,13 @@
       <c r="BB7" s="12"/>
     </row>
     <row r="8" spans="1:54" ht="13.5" customHeight="1">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="135"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="99"/>
       <c r="F8" s="15" t="s">
         <v>26</v>
       </c>
@@ -5156,8 +4931,8 @@
       <c r="H8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
       <c r="K8" s="17" t="s">
         <v>28</v>
       </c>
@@ -5170,18 +4945,18 @@
         <v>30</v>
       </c>
       <c r="P8" s="17"/>
-      <c r="Q8" s="131" t="s">
+      <c r="Q8" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="132"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="136"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="100"/>
       <c r="V8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="W8" s="138"/>
-      <c r="X8" s="138"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
       <c r="Y8" s="16" t="s">
         <v>33</v>
       </c>
@@ -5193,8 +4968,8 @@
       <c r="AC8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AD8" s="136"/>
-      <c r="AE8" s="136"/>
+      <c r="AD8" s="100"/>
+      <c r="AE8" s="100"/>
       <c r="AF8" s="19" t="s">
         <v>36</v>
       </c>
@@ -5341,24 +5116,24 @@
     </row>
     <row r="11" spans="1:54" ht="13.5" customHeight="1">
       <c r="A11" s="25"/>
-      <c r="B11" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="B11" s="152" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="152"/>
       <c r="N11" s="26"/>
       <c r="O11" s="25"/>
       <c r="P11" s="64" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5377,46 +5152,44 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="26"/>
       <c r="AG11" s="25"/>
-      <c r="AH11" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
+      <c r="AH11" s="152" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI11" s="152"/>
+      <c r="AJ11" s="152"/>
+      <c r="AK11" s="152"/>
+      <c r="AL11" s="152"/>
+      <c r="AM11" s="152"/>
+      <c r="AN11" s="152"/>
+      <c r="AO11" s="152"/>
+      <c r="AP11" s="152"/>
+      <c r="AQ11" s="152"/>
+      <c r="AR11" s="152"/>
+      <c r="AS11" s="152"/>
+      <c r="AT11" s="152"/>
+      <c r="AU11" s="152"/>
+      <c r="AV11" s="152"/>
+      <c r="AW11" s="152"/>
+      <c r="AX11" s="152"/>
+      <c r="AY11" s="152"/>
+      <c r="AZ11" s="152"/>
+      <c r="BA11" s="152"/>
       <c r="BB11" s="26"/>
     </row>
     <row r="12" spans="1:54" ht="13.5" customHeight="1">
       <c r="A12" s="25"/>
-      <c r="B12" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
       <c r="N12" s="26"/>
       <c r="O12" s="25"/>
       <c r="P12" s="1"/>
@@ -5437,46 +5210,42 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="26"/>
       <c r="AG12" s="25"/>
-      <c r="AH12" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
+      <c r="AH12" s="152"/>
+      <c r="AI12" s="152"/>
+      <c r="AJ12" s="152"/>
+      <c r="AK12" s="152"/>
+      <c r="AL12" s="152"/>
+      <c r="AM12" s="152"/>
+      <c r="AN12" s="152"/>
+      <c r="AO12" s="152"/>
+      <c r="AP12" s="152"/>
+      <c r="AQ12" s="152"/>
+      <c r="AR12" s="152"/>
+      <c r="AS12" s="152"/>
+      <c r="AT12" s="152"/>
+      <c r="AU12" s="152"/>
+      <c r="AV12" s="152"/>
+      <c r="AW12" s="152"/>
+      <c r="AX12" s="152"/>
+      <c r="AY12" s="152"/>
+      <c r="AZ12" s="152"/>
+      <c r="BA12" s="152"/>
       <c r="BB12" s="26"/>
     </row>
     <row r="13" spans="1:54" ht="13.5" customHeight="1">
       <c r="A13" s="25"/>
-      <c r="B13" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="152"/>
       <c r="N13" s="26"/>
       <c r="O13" s="25"/>
       <c r="P13" s="1"/>
@@ -5497,46 +5266,42 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="26"/>
       <c r="AG13" s="25"/>
-      <c r="AH13" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
+      <c r="AH13" s="152"/>
+      <c r="AI13" s="152"/>
+      <c r="AJ13" s="152"/>
+      <c r="AK13" s="152"/>
+      <c r="AL13" s="152"/>
+      <c r="AM13" s="152"/>
+      <c r="AN13" s="152"/>
+      <c r="AO13" s="152"/>
+      <c r="AP13" s="152"/>
+      <c r="AQ13" s="152"/>
+      <c r="AR13" s="152"/>
+      <c r="AS13" s="152"/>
+      <c r="AT13" s="152"/>
+      <c r="AU13" s="152"/>
+      <c r="AV13" s="152"/>
+      <c r="AW13" s="152"/>
+      <c r="AX13" s="152"/>
+      <c r="AY13" s="152"/>
+      <c r="AZ13" s="152"/>
+      <c r="BA13" s="152"/>
       <c r="BB13" s="26"/>
     </row>
     <row r="14" spans="1:54" ht="13.5" customHeight="1">
       <c r="A14" s="25"/>
-      <c r="B14" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
       <c r="N14" s="26"/>
       <c r="O14" s="25"/>
       <c r="P14" s="1"/>
@@ -5557,46 +5322,42 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="26"/>
       <c r="AG14" s="25"/>
-      <c r="AH14" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
+      <c r="AH14" s="152"/>
+      <c r="AI14" s="152"/>
+      <c r="AJ14" s="152"/>
+      <c r="AK14" s="152"/>
+      <c r="AL14" s="152"/>
+      <c r="AM14" s="152"/>
+      <c r="AN14" s="152"/>
+      <c r="AO14" s="152"/>
+      <c r="AP14" s="152"/>
+      <c r="AQ14" s="152"/>
+      <c r="AR14" s="152"/>
+      <c r="AS14" s="152"/>
+      <c r="AT14" s="152"/>
+      <c r="AU14" s="152"/>
+      <c r="AV14" s="152"/>
+      <c r="AW14" s="152"/>
+      <c r="AX14" s="152"/>
+      <c r="AY14" s="152"/>
+      <c r="AZ14" s="152"/>
+      <c r="BA14" s="152"/>
       <c r="BB14" s="26"/>
     </row>
     <row r="15" spans="1:54" ht="13.5" customHeight="1">
       <c r="A15" s="25"/>
-      <c r="B15" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152"/>
       <c r="N15" s="26"/>
       <c r="O15" s="25"/>
       <c r="P15" s="1"/>
@@ -5617,46 +5378,42 @@
       <c r="AE15" s="1"/>
       <c r="AF15" s="26"/>
       <c r="AG15" s="25"/>
-      <c r="AH15" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
+      <c r="AH15" s="152"/>
+      <c r="AI15" s="152"/>
+      <c r="AJ15" s="152"/>
+      <c r="AK15" s="152"/>
+      <c r="AL15" s="152"/>
+      <c r="AM15" s="152"/>
+      <c r="AN15" s="152"/>
+      <c r="AO15" s="152"/>
+      <c r="AP15" s="152"/>
+      <c r="AQ15" s="152"/>
+      <c r="AR15" s="152"/>
+      <c r="AS15" s="152"/>
+      <c r="AT15" s="152"/>
+      <c r="AU15" s="152"/>
+      <c r="AV15" s="152"/>
+      <c r="AW15" s="152"/>
+      <c r="AX15" s="152"/>
+      <c r="AY15" s="152"/>
+      <c r="AZ15" s="152"/>
+      <c r="BA15" s="152"/>
       <c r="BB15" s="26"/>
     </row>
     <row r="16" spans="1:54" ht="13.5" customHeight="1">
       <c r="A16" s="25"/>
-      <c r="B16" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
       <c r="N16" s="26"/>
       <c r="O16" s="25"/>
       <c r="P16" s="1"/>
@@ -5677,46 +5434,42 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="26"/>
       <c r="AG16" s="25"/>
-      <c r="AH16" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
+      <c r="AH16" s="152"/>
+      <c r="AI16" s="152"/>
+      <c r="AJ16" s="152"/>
+      <c r="AK16" s="152"/>
+      <c r="AL16" s="152"/>
+      <c r="AM16" s="152"/>
+      <c r="AN16" s="152"/>
+      <c r="AO16" s="152"/>
+      <c r="AP16" s="152"/>
+      <c r="AQ16" s="152"/>
+      <c r="AR16" s="152"/>
+      <c r="AS16" s="152"/>
+      <c r="AT16" s="152"/>
+      <c r="AU16" s="152"/>
+      <c r="AV16" s="152"/>
+      <c r="AW16" s="152"/>
+      <c r="AX16" s="152"/>
+      <c r="AY16" s="152"/>
+      <c r="AZ16" s="152"/>
+      <c r="BA16" s="152"/>
       <c r="BB16" s="26"/>
     </row>
     <row r="17" spans="1:54" ht="13.5" customHeight="1">
       <c r="A17" s="25"/>
-      <c r="B17" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
       <c r="N17" s="26"/>
       <c r="O17" s="25"/>
       <c r="P17" s="1"/>
@@ -5737,46 +5490,42 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="26"/>
       <c r="AG17" s="25"/>
-      <c r="AH17" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
+      <c r="AH17" s="152"/>
+      <c r="AI17" s="152"/>
+      <c r="AJ17" s="152"/>
+      <c r="AK17" s="152"/>
+      <c r="AL17" s="152"/>
+      <c r="AM17" s="152"/>
+      <c r="AN17" s="152"/>
+      <c r="AO17" s="152"/>
+      <c r="AP17" s="152"/>
+      <c r="AQ17" s="152"/>
+      <c r="AR17" s="152"/>
+      <c r="AS17" s="152"/>
+      <c r="AT17" s="152"/>
+      <c r="AU17" s="152"/>
+      <c r="AV17" s="152"/>
+      <c r="AW17" s="152"/>
+      <c r="AX17" s="152"/>
+      <c r="AY17" s="152"/>
+      <c r="AZ17" s="152"/>
+      <c r="BA17" s="152"/>
       <c r="BB17" s="26"/>
     </row>
     <row r="18" spans="1:54" ht="13.5" customHeight="1">
       <c r="A18" s="25"/>
-      <c r="B18" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
       <c r="N18" s="26"/>
       <c r="O18" s="25"/>
       <c r="P18" s="1"/>
@@ -5797,28 +5546,26 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="26"/>
       <c r="AG18" s="25"/>
-      <c r="AH18" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
+      <c r="AH18" s="152"/>
+      <c r="AI18" s="152"/>
+      <c r="AJ18" s="152"/>
+      <c r="AK18" s="152"/>
+      <c r="AL18" s="152"/>
+      <c r="AM18" s="152"/>
+      <c r="AN18" s="152"/>
+      <c r="AO18" s="152"/>
+      <c r="AP18" s="152"/>
+      <c r="AQ18" s="152"/>
+      <c r="AR18" s="152"/>
+      <c r="AS18" s="152"/>
+      <c r="AT18" s="152"/>
+      <c r="AU18" s="152"/>
+      <c r="AV18" s="152"/>
+      <c r="AW18" s="152"/>
+      <c r="AX18" s="152"/>
+      <c r="AY18" s="152"/>
+      <c r="AZ18" s="152"/>
+      <c r="BA18" s="152"/>
       <c r="BB18" s="26"/>
     </row>
     <row r="19" spans="1:54" ht="13.5" customHeight="1" thickBot="1">
@@ -5939,20 +5686,20 @@
     </row>
     <row r="21" spans="1:54" ht="13.5" customHeight="1">
       <c r="A21" s="25"/>
-      <c r="B21" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="B21" s="152" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="152"/>
       <c r="N21" s="26"/>
       <c r="O21" s="25"/>
       <c r="P21" s="1"/>
@@ -5973,46 +5720,44 @@
       <c r="AE21" s="1"/>
       <c r="AF21" s="26"/>
       <c r="AG21" s="25"/>
-      <c r="AH21" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
-      <c r="AU21" s="1"/>
-      <c r="AV21" s="1"/>
-      <c r="AW21" s="1"/>
-      <c r="AX21" s="1"/>
-      <c r="AY21" s="1"/>
-      <c r="AZ21" s="1"/>
-      <c r="BA21" s="1"/>
+      <c r="AH21" s="152" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI21" s="152"/>
+      <c r="AJ21" s="152"/>
+      <c r="AK21" s="152"/>
+      <c r="AL21" s="152"/>
+      <c r="AM21" s="152"/>
+      <c r="AN21" s="152"/>
+      <c r="AO21" s="152"/>
+      <c r="AP21" s="152"/>
+      <c r="AQ21" s="152"/>
+      <c r="AR21" s="152"/>
+      <c r="AS21" s="152"/>
+      <c r="AT21" s="152"/>
+      <c r="AU21" s="152"/>
+      <c r="AV21" s="152"/>
+      <c r="AW21" s="152"/>
+      <c r="AX21" s="152"/>
+      <c r="AY21" s="152"/>
+      <c r="AZ21" s="152"/>
+      <c r="BA21" s="152"/>
       <c r="BB21" s="26"/>
     </row>
     <row r="22" spans="1:54" ht="13.5" customHeight="1">
       <c r="A22" s="25"/>
-      <c r="B22" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
       <c r="N22" s="26"/>
       <c r="O22" s="25"/>
       <c r="P22" s="1"/>
@@ -6033,46 +5778,42 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="26"/>
       <c r="AG22" s="25"/>
-      <c r="AH22" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
-      <c r="AU22" s="1"/>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
-      <c r="AY22" s="1"/>
-      <c r="AZ22" s="1"/>
-      <c r="BA22" s="1"/>
+      <c r="AH22" s="152"/>
+      <c r="AI22" s="152"/>
+      <c r="AJ22" s="152"/>
+      <c r="AK22" s="152"/>
+      <c r="AL22" s="152"/>
+      <c r="AM22" s="152"/>
+      <c r="AN22" s="152"/>
+      <c r="AO22" s="152"/>
+      <c r="AP22" s="152"/>
+      <c r="AQ22" s="152"/>
+      <c r="AR22" s="152"/>
+      <c r="AS22" s="152"/>
+      <c r="AT22" s="152"/>
+      <c r="AU22" s="152"/>
+      <c r="AV22" s="152"/>
+      <c r="AW22" s="152"/>
+      <c r="AX22" s="152"/>
+      <c r="AY22" s="152"/>
+      <c r="AZ22" s="152"/>
+      <c r="BA22" s="152"/>
       <c r="BB22" s="26"/>
     </row>
     <row r="23" spans="1:54" ht="13.5" customHeight="1">
       <c r="A23" s="25"/>
-      <c r="B23" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
       <c r="N23" s="26"/>
       <c r="O23" s="25"/>
       <c r="P23" s="1"/>
@@ -6093,46 +5834,42 @@
       <c r="AE23" s="1"/>
       <c r="AF23" s="26"/>
       <c r="AG23" s="25"/>
-      <c r="AH23" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
-      <c r="AY23" s="1"/>
-      <c r="AZ23" s="1"/>
-      <c r="BA23" s="1"/>
+      <c r="AH23" s="152"/>
+      <c r="AI23" s="152"/>
+      <c r="AJ23" s="152"/>
+      <c r="AK23" s="152"/>
+      <c r="AL23" s="152"/>
+      <c r="AM23" s="152"/>
+      <c r="AN23" s="152"/>
+      <c r="AO23" s="152"/>
+      <c r="AP23" s="152"/>
+      <c r="AQ23" s="152"/>
+      <c r="AR23" s="152"/>
+      <c r="AS23" s="152"/>
+      <c r="AT23" s="152"/>
+      <c r="AU23" s="152"/>
+      <c r="AV23" s="152"/>
+      <c r="AW23" s="152"/>
+      <c r="AX23" s="152"/>
+      <c r="AY23" s="152"/>
+      <c r="AZ23" s="152"/>
+      <c r="BA23" s="152"/>
       <c r="BB23" s="26"/>
     </row>
     <row r="24" spans="1:54" ht="13.5" customHeight="1">
       <c r="A24" s="25"/>
-      <c r="B24" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="152"/>
       <c r="N24" s="26"/>
       <c r="O24" s="25"/>
       <c r="P24" s="1"/>
@@ -6153,46 +5890,42 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="26"/>
       <c r="AG24" s="25"/>
-      <c r="AH24" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
-      <c r="AZ24" s="1"/>
-      <c r="BA24" s="1"/>
+      <c r="AH24" s="152"/>
+      <c r="AI24" s="152"/>
+      <c r="AJ24" s="152"/>
+      <c r="AK24" s="152"/>
+      <c r="AL24" s="152"/>
+      <c r="AM24" s="152"/>
+      <c r="AN24" s="152"/>
+      <c r="AO24" s="152"/>
+      <c r="AP24" s="152"/>
+      <c r="AQ24" s="152"/>
+      <c r="AR24" s="152"/>
+      <c r="AS24" s="152"/>
+      <c r="AT24" s="152"/>
+      <c r="AU24" s="152"/>
+      <c r="AV24" s="152"/>
+      <c r="AW24" s="152"/>
+      <c r="AX24" s="152"/>
+      <c r="AY24" s="152"/>
+      <c r="AZ24" s="152"/>
+      <c r="BA24" s="152"/>
       <c r="BB24" s="26"/>
     </row>
     <row r="25" spans="1:54" ht="13.5" customHeight="1">
       <c r="A25" s="25"/>
-      <c r="B25" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
       <c r="N25" s="26"/>
       <c r="O25" s="25"/>
       <c r="P25" s="1"/>
@@ -6213,46 +5946,42 @@
       <c r="AE25" s="1"/>
       <c r="AF25" s="26"/>
       <c r="AG25" s="25"/>
-      <c r="AH25" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="1"/>
+      <c r="AH25" s="152"/>
+      <c r="AI25" s="152"/>
+      <c r="AJ25" s="152"/>
+      <c r="AK25" s="152"/>
+      <c r="AL25" s="152"/>
+      <c r="AM25" s="152"/>
+      <c r="AN25" s="152"/>
+      <c r="AO25" s="152"/>
+      <c r="AP25" s="152"/>
+      <c r="AQ25" s="152"/>
+      <c r="AR25" s="152"/>
+      <c r="AS25" s="152"/>
+      <c r="AT25" s="152"/>
+      <c r="AU25" s="152"/>
+      <c r="AV25" s="152"/>
+      <c r="AW25" s="152"/>
+      <c r="AX25" s="152"/>
+      <c r="AY25" s="152"/>
+      <c r="AZ25" s="152"/>
+      <c r="BA25" s="152"/>
       <c r="BB25" s="26"/>
     </row>
     <row r="26" spans="1:54" ht="13.5" customHeight="1">
       <c r="A26" s="25"/>
-      <c r="B26" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
       <c r="N26" s="26"/>
       <c r="O26" s="25"/>
       <c r="P26" s="1"/>
@@ -6273,46 +6002,42 @@
       <c r="AE26" s="1"/>
       <c r="AF26" s="26"/>
       <c r="AG26" s="25"/>
-      <c r="AH26" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="1"/>
-      <c r="AS26" s="1"/>
-      <c r="AT26" s="1"/>
-      <c r="AU26" s="1"/>
-      <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
-      <c r="AX26" s="1"/>
-      <c r="AY26" s="1"/>
-      <c r="AZ26" s="1"/>
-      <c r="BA26" s="1"/>
+      <c r="AH26" s="152"/>
+      <c r="AI26" s="152"/>
+      <c r="AJ26" s="152"/>
+      <c r="AK26" s="152"/>
+      <c r="AL26" s="152"/>
+      <c r="AM26" s="152"/>
+      <c r="AN26" s="152"/>
+      <c r="AO26" s="152"/>
+      <c r="AP26" s="152"/>
+      <c r="AQ26" s="152"/>
+      <c r="AR26" s="152"/>
+      <c r="AS26" s="152"/>
+      <c r="AT26" s="152"/>
+      <c r="AU26" s="152"/>
+      <c r="AV26" s="152"/>
+      <c r="AW26" s="152"/>
+      <c r="AX26" s="152"/>
+      <c r="AY26" s="152"/>
+      <c r="AZ26" s="152"/>
+      <c r="BA26" s="152"/>
       <c r="BB26" s="26"/>
     </row>
     <row r="27" spans="1:54" ht="13.5" customHeight="1">
       <c r="A27" s="25"/>
-      <c r="B27" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
       <c r="N27" s="26"/>
       <c r="O27" s="25"/>
       <c r="P27" s="1"/>
@@ -6333,46 +6058,42 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="26"/>
       <c r="AG27" s="25"/>
-      <c r="AH27" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
-      <c r="AZ27" s="1"/>
-      <c r="BA27" s="1"/>
+      <c r="AH27" s="152"/>
+      <c r="AI27" s="152"/>
+      <c r="AJ27" s="152"/>
+      <c r="AK27" s="152"/>
+      <c r="AL27" s="152"/>
+      <c r="AM27" s="152"/>
+      <c r="AN27" s="152"/>
+      <c r="AO27" s="152"/>
+      <c r="AP27" s="152"/>
+      <c r="AQ27" s="152"/>
+      <c r="AR27" s="152"/>
+      <c r="AS27" s="152"/>
+      <c r="AT27" s="152"/>
+      <c r="AU27" s="152"/>
+      <c r="AV27" s="152"/>
+      <c r="AW27" s="152"/>
+      <c r="AX27" s="152"/>
+      <c r="AY27" s="152"/>
+      <c r="AZ27" s="152"/>
+      <c r="BA27" s="152"/>
       <c r="BB27" s="26"/>
     </row>
     <row r="28" spans="1:54" ht="13.5" customHeight="1">
       <c r="A28" s="25"/>
-      <c r="B28" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
       <c r="N28" s="26"/>
       <c r="O28" s="25"/>
       <c r="P28" s="1"/>
@@ -6393,28 +6114,26 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="26"/>
       <c r="AG28" s="25"/>
-      <c r="AH28" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
-      <c r="AU28" s="1"/>
-      <c r="AV28" s="1"/>
-      <c r="AW28" s="1"/>
-      <c r="AX28" s="1"/>
-      <c r="AY28" s="1"/>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="1"/>
+      <c r="AH28" s="152"/>
+      <c r="AI28" s="152"/>
+      <c r="AJ28" s="152"/>
+      <c r="AK28" s="152"/>
+      <c r="AL28" s="152"/>
+      <c r="AM28" s="152"/>
+      <c r="AN28" s="152"/>
+      <c r="AO28" s="152"/>
+      <c r="AP28" s="152"/>
+      <c r="AQ28" s="152"/>
+      <c r="AR28" s="152"/>
+      <c r="AS28" s="152"/>
+      <c r="AT28" s="152"/>
+      <c r="AU28" s="152"/>
+      <c r="AV28" s="152"/>
+      <c r="AW28" s="152"/>
+      <c r="AX28" s="152"/>
+      <c r="AY28" s="152"/>
+      <c r="AZ28" s="152"/>
+      <c r="BA28" s="152"/>
       <c r="BB28" s="26"/>
     </row>
     <row r="29" spans="1:54" ht="13.5" customHeight="1" thickBot="1">
@@ -6490,20 +6209,20 @@
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
       <c r="N30" s="24"/>
-      <c r="O30" s="80" t="s">
+      <c r="O30" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="126" t="s">
-        <v>133</v>
-      </c>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="121" t="s">
+        <v>92</v>
+      </c>
+      <c r="U30" s="122"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="122"/>
+      <c r="X30" s="122"/>
       <c r="Y30" s="30"/>
       <c r="Z30" s="30"/>
       <c r="AA30" s="30"/>
@@ -6539,25 +6258,25 @@
     </row>
     <row r="31" spans="1:54" ht="13.5" customHeight="1">
       <c r="A31" s="25"/>
-      <c r="B31" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="B31" s="152" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
       <c r="N31" s="26"/>
-      <c r="O31" s="112" t="s">
+      <c r="O31" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="P31" s="113"/>
+      <c r="P31" s="107"/>
       <c r="Q31" s="10" t="s">
         <v>46</v>
       </c>
@@ -6577,54 +6296,52 @@
       <c r="AE31" s="14"/>
       <c r="AF31" s="32"/>
       <c r="AG31" s="25"/>
-      <c r="AH31" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
+      <c r="AH31" s="152" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI31" s="152"/>
+      <c r="AJ31" s="152"/>
+      <c r="AK31" s="152"/>
+      <c r="AL31" s="152"/>
+      <c r="AM31" s="152"/>
+      <c r="AN31" s="152"/>
+      <c r="AO31" s="152"/>
+      <c r="AP31" s="152"/>
+      <c r="AQ31" s="152"/>
+      <c r="AR31" s="152"/>
+      <c r="AS31" s="152"/>
+      <c r="AT31" s="152"/>
+      <c r="AU31" s="152"/>
+      <c r="AV31" s="152"/>
+      <c r="AW31" s="152"/>
+      <c r="AX31" s="152"/>
+      <c r="AY31" s="152"/>
+      <c r="AZ31" s="152"/>
+      <c r="BA31" s="152"/>
       <c r="BB31" s="26"/>
     </row>
     <row r="32" spans="1:54" ht="13.5" customHeight="1">
       <c r="A32" s="25"/>
-      <c r="B32" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="152"/>
       <c r="N32" s="26"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="113"/>
-      <c r="Q32" s="116" t="s">
+      <c r="O32" s="106"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="R32" s="117"/>
-      <c r="S32" s="118"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="112"/>
       <c r="T32" s="10" t="s">
         <v>48</v>
       </c>
@@ -6641,52 +6358,48 @@
       <c r="AE32" s="6"/>
       <c r="AF32" s="33"/>
       <c r="AG32" s="25"/>
-      <c r="AH32" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
-      <c r="AU32" s="1"/>
-      <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
-      <c r="AY32" s="1"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="1"/>
+      <c r="AH32" s="152"/>
+      <c r="AI32" s="152"/>
+      <c r="AJ32" s="152"/>
+      <c r="AK32" s="152"/>
+      <c r="AL32" s="152"/>
+      <c r="AM32" s="152"/>
+      <c r="AN32" s="152"/>
+      <c r="AO32" s="152"/>
+      <c r="AP32" s="152"/>
+      <c r="AQ32" s="152"/>
+      <c r="AR32" s="152"/>
+      <c r="AS32" s="152"/>
+      <c r="AT32" s="152"/>
+      <c r="AU32" s="152"/>
+      <c r="AV32" s="152"/>
+      <c r="AW32" s="152"/>
+      <c r="AX32" s="152"/>
+      <c r="AY32" s="152"/>
+      <c r="AZ32" s="152"/>
+      <c r="BA32" s="152"/>
       <c r="BB32" s="26"/>
     </row>
     <row r="33" spans="1:54" ht="13.5" customHeight="1">
       <c r="A33" s="25"/>
-      <c r="B33" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
       <c r="N33" s="26"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="121"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="114"/>
+      <c r="S33" s="115"/>
       <c r="T33" s="5" t="s">
         <v>49</v>
       </c>
@@ -6703,49 +6416,45 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="34"/>
       <c r="AG33" s="25"/>
-      <c r="AH33" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
-      <c r="AU33" s="1"/>
-      <c r="AV33" s="1"/>
-      <c r="AW33" s="1"/>
-      <c r="AX33" s="1"/>
-      <c r="AY33" s="1"/>
-      <c r="AZ33" s="1"/>
-      <c r="BA33" s="1"/>
+      <c r="AH33" s="152"/>
+      <c r="AI33" s="152"/>
+      <c r="AJ33" s="152"/>
+      <c r="AK33" s="152"/>
+      <c r="AL33" s="152"/>
+      <c r="AM33" s="152"/>
+      <c r="AN33" s="152"/>
+      <c r="AO33" s="152"/>
+      <c r="AP33" s="152"/>
+      <c r="AQ33" s="152"/>
+      <c r="AR33" s="152"/>
+      <c r="AS33" s="152"/>
+      <c r="AT33" s="152"/>
+      <c r="AU33" s="152"/>
+      <c r="AV33" s="152"/>
+      <c r="AW33" s="152"/>
+      <c r="AX33" s="152"/>
+      <c r="AY33" s="152"/>
+      <c r="AZ33" s="152"/>
+      <c r="BA33" s="152"/>
       <c r="BB33" s="26"/>
     </row>
     <row r="34" spans="1:54" ht="13.5" customHeight="1" thickBot="1">
       <c r="A34" s="25"/>
-      <c r="B34" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="152"/>
       <c r="N34" s="26"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="115"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="109"/>
       <c r="Q34" s="35" t="s">
         <v>50</v>
       </c>
@@ -6789,50 +6498,48 @@
     </row>
     <row r="35" spans="1:54" ht="13.5" customHeight="1">
       <c r="A35" s="25"/>
-      <c r="B35" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
       <c r="N35" s="26"/>
-      <c r="O35" s="122" t="s">
+      <c r="O35" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="P35" s="123"/>
+      <c r="P35" s="117"/>
       <c r="Q35" s="39" t="s">
         <v>52</v>
       </c>
       <c r="R35" s="40"/>
       <c r="S35" s="41"/>
-      <c r="T35" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="U35" s="100"/>
-      <c r="V35" s="100"/>
-      <c r="W35" s="110" t="s">
+      <c r="T35" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="U35" s="120"/>
+      <c r="V35" s="120"/>
+      <c r="W35" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="X35" s="110"/>
+      <c r="X35" s="132"/>
       <c r="Y35" s="22" t="s">
         <v>54</v>
       </c>
       <c r="Z35" s="23"/>
       <c r="AA35" s="42"/>
-      <c r="AB35" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC35" s="100"/>
-      <c r="AD35" s="100"/>
-      <c r="AE35" s="100"/>
+      <c r="AB35" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC35" s="120"/>
+      <c r="AD35" s="120"/>
+      <c r="AE35" s="120"/>
       <c r="AF35" s="43" t="s">
         <v>53</v>
       </c>
@@ -6863,54 +6570,52 @@
     </row>
     <row r="36" spans="1:54" ht="13.5" customHeight="1">
       <c r="A36" s="25"/>
-      <c r="B36" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="152"/>
       <c r="N36" s="26"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="113"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="107"/>
       <c r="Q36" s="10" t="s">
         <v>56</v>
       </c>
       <c r="R36" s="6"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="U36" s="102"/>
-      <c r="V36" s="102"/>
-      <c r="W36" s="103" t="s">
+      <c r="T36" s="123" t="s">
+        <v>94</v>
+      </c>
+      <c r="U36" s="124"/>
+      <c r="V36" s="124"/>
+      <c r="W36" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="X36" s="103"/>
+      <c r="X36" s="125"/>
       <c r="Y36" s="44" t="s">
         <v>58</v>
       </c>
       <c r="Z36" s="6"/>
       <c r="AA36" s="8"/>
-      <c r="AB36" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC36" s="105"/>
-      <c r="AD36" s="105"/>
-      <c r="AE36" s="105"/>
+      <c r="AB36" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC36" s="127"/>
+      <c r="AD36" s="127"/>
+      <c r="AE36" s="127"/>
       <c r="AF36" s="45" t="s">
         <v>53</v>
       </c>
       <c r="AG36" s="25"/>
       <c r="AH36" s="64" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
@@ -6948,27 +6653,27 @@
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="29"/>
-      <c r="O37" s="124"/>
-      <c r="P37" s="125"/>
+      <c r="O37" s="118"/>
+      <c r="P37" s="94"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="3"/>
       <c r="S37" s="37"/>
-      <c r="T37" s="106"/>
-      <c r="U37" s="106"/>
-      <c r="V37" s="106"/>
-      <c r="W37" s="107"/>
-      <c r="X37" s="107"/>
+      <c r="T37" s="128"/>
+      <c r="U37" s="128"/>
+      <c r="V37" s="128"/>
+      <c r="W37" s="129"/>
+      <c r="X37" s="129"/>
       <c r="Y37" s="27" t="s">
         <v>59</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37" s="12"/>
-      <c r="AB37" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC37" s="109"/>
-      <c r="AD37" s="109"/>
-      <c r="AE37" s="109"/>
+      <c r="AB37" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC37" s="131"/>
+      <c r="AD37" s="131"/>
+      <c r="AE37" s="131"/>
       <c r="AF37" s="46" t="s">
         <v>53</v>
       </c>
@@ -6996,37 +6701,37 @@
       <c r="BB37" s="29"/>
     </row>
     <row r="38" spans="1:54" ht="13.5" customHeight="1">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="80" t="s">
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="82"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="136"/>
       <c r="N38" s="47" t="s">
         <v>63</v>
       </c>
       <c r="O38" s="41"/>
       <c r="P38" s="72" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="Q38" s="48"/>
       <c r="R38" s="48"/>
       <c r="S38" s="48"/>
       <c r="T38" s="49"/>
-      <c r="U38" s="77" t="s">
+      <c r="U38" s="133" t="s">
         <v>64</v>
       </c>
       <c r="V38" s="40" t="s">
@@ -7034,7 +6739,7 @@
       </c>
       <c r="W38" s="40"/>
       <c r="X38" s="72" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="Y38" s="30"/>
       <c r="Z38" s="30"/>
@@ -7045,7 +6750,7 @@
       </c>
       <c r="AD38" s="41"/>
       <c r="AE38" s="72" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="AF38" s="30"/>
       <c r="AG38" s="30"/>
@@ -7066,19 +6771,19 @@
       <c r="AT38" s="23"/>
       <c r="AU38" s="23"/>
       <c r="AV38" s="24"/>
-      <c r="AW38" s="83" t="s">
+      <c r="AW38" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="AX38" s="83"/>
-      <c r="AY38" s="83"/>
-      <c r="AZ38" s="83"/>
-      <c r="BA38" s="83"/>
-      <c r="BB38" s="84"/>
+      <c r="AX38" s="137"/>
+      <c r="AY38" s="137"/>
+      <c r="AZ38" s="137"/>
+      <c r="BA38" s="137"/>
+      <c r="BB38" s="138"/>
     </row>
     <row r="39" spans="1:54" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A39" s="78"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="69" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="C39" s="50"/>
       <c r="D39" s="50"/>
@@ -7086,7 +6791,7 @@
       <c r="F39" s="50"/>
       <c r="G39" s="50"/>
       <c r="H39" s="69" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="I39" s="50"/>
       <c r="J39" s="50"/>
@@ -7098,13 +6803,13 @@
       </c>
       <c r="O39" s="53"/>
       <c r="P39" s="73" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="Q39" s="54"/>
       <c r="R39" s="54"/>
       <c r="S39" s="54"/>
       <c r="T39" s="55"/>
-      <c r="U39" s="78"/>
+      <c r="U39" s="134"/>
       <c r="V39" s="6" t="s">
         <v>69</v>
       </c>
@@ -7119,42 +6824,42 @@
       </c>
       <c r="AD39" s="8"/>
       <c r="AE39" s="74" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="AF39" s="14"/>
       <c r="AG39" s="14"/>
       <c r="AH39" s="14"/>
       <c r="AI39" s="32"/>
       <c r="AJ39" s="25"/>
-      <c r="AK39" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
+      <c r="AK39" s="152" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL39" s="152"/>
+      <c r="AM39" s="152"/>
+      <c r="AN39" s="152"/>
+      <c r="AO39" s="152"/>
+      <c r="AP39" s="152"/>
+      <c r="AQ39" s="152"/>
+      <c r="AR39" s="152"/>
+      <c r="AS39" s="152"/>
+      <c r="AT39" s="152"/>
+      <c r="AU39" s="152"/>
       <c r="AV39" s="26"/>
-      <c r="AW39" s="85"/>
-      <c r="AX39" s="85"/>
-      <c r="AY39" s="85"/>
-      <c r="AZ39" s="85"/>
-      <c r="BA39" s="85"/>
-      <c r="BB39" s="86"/>
+      <c r="AW39" s="87"/>
+      <c r="AX39" s="87"/>
+      <c r="AY39" s="87"/>
+      <c r="AZ39" s="87"/>
+      <c r="BA39" s="87"/>
+      <c r="BB39" s="139"/>
     </row>
     <row r="40" spans="1:54" ht="13.5" customHeight="1">
-      <c r="A40" s="78"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="56" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="70" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="E40" s="57"/>
       <c r="F40" s="57"/>
@@ -7163,12 +6868,12 @@
         <v>72</v>
       </c>
       <c r="I40" s="9"/>
-      <c r="J40" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="95"/>
+      <c r="J40" s="146" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="148"/>
       <c r="N40" s="7" t="s">
         <v>73</v>
       </c>
@@ -7178,7 +6883,7 @@
       <c r="R40" s="59"/>
       <c r="S40" s="59"/>
       <c r="T40" s="59"/>
-      <c r="U40" s="78"/>
+      <c r="U40" s="134"/>
       <c r="V40" s="6" t="s">
         <v>74</v>
       </c>
@@ -7193,46 +6898,44 @@
       </c>
       <c r="AD40" s="8"/>
       <c r="AE40" s="74" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="AF40" s="14"/>
       <c r="AG40" s="14"/>
       <c r="AH40" s="14"/>
       <c r="AI40" s="32"/>
       <c r="AJ40" s="25"/>
-      <c r="AK40" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
-      <c r="AQ40" s="1"/>
-      <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
-      <c r="AU40" s="1"/>
+      <c r="AK40" s="152"/>
+      <c r="AL40" s="152"/>
+      <c r="AM40" s="152"/>
+      <c r="AN40" s="152"/>
+      <c r="AO40" s="152"/>
+      <c r="AP40" s="152"/>
+      <c r="AQ40" s="152"/>
+      <c r="AR40" s="152"/>
+      <c r="AS40" s="152"/>
+      <c r="AT40" s="152"/>
+      <c r="AU40" s="152"/>
       <c r="AV40" s="26"/>
       <c r="AW40" s="1"/>
-      <c r="AX40" s="87" t="s">
+      <c r="AX40" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="AY40" s="88"/>
+      <c r="AY40" s="141"/>
       <c r="AZ40" s="11"/>
-      <c r="BA40" s="87" t="s">
+      <c r="BA40" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="BB40" s="91"/>
+      <c r="BB40" s="144"/>
     </row>
     <row r="41" spans="1:54" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A41" s="79"/>
+      <c r="A41" s="135"/>
       <c r="B41" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="37"/>
       <c r="D41" s="71" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="E41" s="50"/>
       <c r="F41" s="50"/>
@@ -7241,12 +6944,12 @@
         <v>79</v>
       </c>
       <c r="I41" s="37"/>
-      <c r="J41" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="98"/>
+      <c r="J41" s="149" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="151"/>
       <c r="N41" s="36" t="s">
         <v>80</v>
       </c>
@@ -7256,7 +6959,7 @@
       <c r="R41" s="61"/>
       <c r="S41" s="61"/>
       <c r="T41" s="61"/>
-      <c r="U41" s="79"/>
+      <c r="U41" s="135"/>
       <c r="V41" s="36" t="s">
         <v>81</v>
       </c>
@@ -7271,7 +6974,7 @@
       </c>
       <c r="AD41" s="37"/>
       <c r="AE41" s="71" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="AF41" s="50"/>
       <c r="AG41" s="50"/>
@@ -7291,14 +6994,54 @@
       <c r="AU41" s="28"/>
       <c r="AV41" s="29"/>
       <c r="AW41" s="28"/>
-      <c r="AX41" s="89"/>
-      <c r="AY41" s="90"/>
+      <c r="AX41" s="142"/>
+      <c r="AY41" s="143"/>
       <c r="AZ41" s="62"/>
-      <c r="BA41" s="89"/>
-      <c r="BB41" s="92"/>
+      <c r="BA41" s="142"/>
+      <c r="BB41" s="145"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="56">
+    <mergeCell ref="B11:M18"/>
+    <mergeCell ref="B21:M28"/>
+    <mergeCell ref="B31:M36"/>
+    <mergeCell ref="AH11:BA18"/>
+    <mergeCell ref="AH21:BA28"/>
+    <mergeCell ref="AH31:BA33"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="U38:U41"/>
+    <mergeCell ref="AW38:BB39"/>
+    <mergeCell ref="AX40:AY41"/>
+    <mergeCell ref="BA40:BB41"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="AK39:AU40"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="O31:P34"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="O35:P37"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AM4:AP4"/>
     <mergeCell ref="AQ4:AT4"/>
     <mergeCell ref="AU4:AX4"/>
@@ -7315,39 +7058,6 @@
     <mergeCell ref="W3:AA3"/>
     <mergeCell ref="W4:AA4"/>
     <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="O31:P34"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="O35:P37"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="T30:X30"/>
-    <mergeCell ref="AB35:AE35"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="U38:U41"/>
-    <mergeCell ref="AW38:BB39"/>
-    <mergeCell ref="AX40:AY41"/>
-    <mergeCell ref="BA40:BB41"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.6692913385826772" bottom="0.51181102362204722" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7365,15 +7075,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>106680</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7387,13 +7097,13 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -7409,13 +7119,13 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -7433,13 +7143,13 @@
                     <xdr:col>30</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>106680</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>31</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7459,7 +7169,7 @@
                   </from>
                   <to>
                     <xdr:col>31</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -7481,7 +7191,7 @@
                   </from>
                   <to>
                     <xdr:col>31</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -7497,15 +7207,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>24</xdr:col>
-                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>25</xdr:col>
-                    <xdr:colOff>182880</xdr:colOff>
+                    <xdr:colOff>180975</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7521,13 +7231,13 @@
                     <xdr:col>30</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>31</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7541,15 +7251,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>48</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>53340</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>50</xdr:col>
-                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>83820</xdr:rowOff>
+                    <xdr:rowOff>85725</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7563,15 +7273,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>51</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>53340</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>53</xdr:col>
-                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>83820</xdr:rowOff>
+                    <xdr:rowOff>85725</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7587,13 +7297,13 @@
                     <xdr:col>25</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>26</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7609,13 +7319,13 @@
                     <xdr:col>30</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>31</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7629,15 +7339,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
